--- a/TradingThesis/figures/Graphs.xlsx
+++ b/TradingThesis/figures/Graphs.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10309"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10414"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/AlexT/Dropbox/SEN19R/LAST/TradingThesis/figures/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/AlexT/Dropbox/SEN19R/FIRST/algorithmic-trading/TradingThesis/figures/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81EBE82E-B5BB-234E-B2F1-61E21C35A50C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{075AE4EC-C5F2-114B-BD14-EF572A3A92A2}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11220" yWindow="1600" windowWidth="20780" windowHeight="15540" activeTab="2" xr2:uid="{89AFD1CC-A762-DB4B-A433-05543C80086C}"/>
+    <workbookView xWindow="-240" yWindow="460" windowWidth="25600" windowHeight="15540" activeTab="2" xr2:uid="{89AFD1CC-A762-DB4B-A433-05543C80086C}"/>
   </bookViews>
   <sheets>
     <sheet name="Deep Learning" sheetId="4" r:id="rId1"/>
@@ -108,9 +108,6 @@
     <t>lenaint percent</t>
   </si>
   <si>
-    <t>DeepLearning</t>
-  </si>
-  <si>
     <t>PYPL</t>
   </si>
   <si>
@@ -118,6 +115,9 @@
   </si>
   <si>
     <t>percent of stocks that beat baseline</t>
+  </si>
+  <si>
+    <t>Deep Learning</t>
   </si>
 </sst>
 </file>
@@ -217,7 +217,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Deep Learning Strategy</a:t>
+              <a:t>Deep Learning Model Results</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -267,7 +267,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>DeepLearning</c:v>
+                  <c:v>Deep Learning</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -521,6 +521,61 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Profit($)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -667,7 +722,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>ML Algorithm comparisons</a:t>
+              <a:t>Basic Model Results</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -1242,6 +1297,61 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Profit ($)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1388,7 +1498,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>More Complex ML Algorithms</a:t>
+              <a:t>Complex Model Results</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -1798,31 +1908,31 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>1288.8599999999999</c:v>
+                  <c:v>1288.83</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1045.2249999999999</c:v>
+                  <c:v>1369.26</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1057</c:v>
+                  <c:v>1098</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1051.5899999999999</c:v>
+                  <c:v>958.82</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>715.93</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>892.17</c:v>
+                  <c:v>1456.29</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>614.41999999999996</c:v>
+                  <c:v>615.73</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2216.1799999999998</c:v>
+                  <c:v>3534.86</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>837.75</c:v>
+                  <c:v>950.23</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2019,6 +2129,66 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Profit</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> ($)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -2151,12 +2321,9 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:schemeClr val="tx2"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -2165,7 +2332,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Boosting ML algos</a:t>
+              <a:t>Boosting Model</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -2183,12 +2350,9 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
+                <a:schemeClr val="tx2"/>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
@@ -2221,15 +2385,41 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent1">
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent1">
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
             <a:ln>
               <a:noFill/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
           <c:cat>
             <c:strRef>
               <c:f>BOOSTED!$B$4:$B$10</c:f>
@@ -2310,15 +2500,41 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent2"/>
-            </a:solidFill>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent2">
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent2">
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
             <a:ln>
               <a:noFill/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
           <c:cat>
             <c:strRef>
               <c:f>BOOSTED!$B$4:$B$10</c:f>
@@ -2399,15 +2615,41 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent3"/>
-            </a:solidFill>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent3">
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent3">
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent3">
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
             <a:ln>
               <a:noFill/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
           <c:cat>
             <c:strRef>
               <c:f>BOOSTED!$B$4:$B$10</c:f>
@@ -2474,15 +2716,16 @@
           </c:extLst>
         </c:ser>
         <c:dLbls>
+          <c:dLblPos val="inEnd"/>
           <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
+          <c:showVal val="1"/>
           <c:showCatName val="0"/>
           <c:showSerName val="0"/>
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:gapWidth val="219"/>
-        <c:overlap val="-27"/>
+        <c:gapWidth val="100"/>
+        <c:overlap val="-24"/>
         <c:axId val="324923968"/>
         <c:axId val="324965456"/>
       </c:barChart>
@@ -2501,7 +2744,7 @@
           <a:noFill/>
           <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
-              <a:schemeClr val="tx1">
+              <a:schemeClr val="tx2">
                 <a:lumMod val="15000"/>
                 <a:lumOff val="85000"/>
               </a:schemeClr>
@@ -2517,10 +2760,7 @@
             <a:pPr>
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:schemeClr val="tx2"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -2548,7 +2788,7 @@
           <c:spPr>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
               <a:solidFill>
-                <a:schemeClr val="tx1">
+                <a:schemeClr val="tx2">
                   <a:lumMod val="15000"/>
                   <a:lumOff val="85000"/>
                 </a:schemeClr>
@@ -2558,6 +2798,60 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx2"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Profit</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> ($)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx2"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -2576,10 +2870,7 @@
             <a:pPr>
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:schemeClr val="tx2"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -2618,10 +2909,7 @@
           <a:pPr>
             <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
+                <a:schemeClr val="tx2"/>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
@@ -2642,7 +2930,7 @@
     </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
       <a:solidFill>
-        <a:schemeClr val="tx1">
+        <a:schemeClr val="tx2">
           <a:lumMod val="15000"/>
           <a:lumOff val="85000"/>
         </a:schemeClr>
@@ -4336,33 +4624,27 @@
 </file>
 
 <file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="207">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
   </cs:axisTitle>
   <cs:categoryAxis>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
+          <a:schemeClr val="tx2">
             <a:lumMod val="15000"/>
             <a:lumOff val="85000"/>
           </a:schemeClr>
@@ -4377,7 +4659,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
@@ -4385,7 +4667,7 @@
       </a:solidFill>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
+          <a:schemeClr val="tx2">
             <a:lumMod val="15000"/>
             <a:lumOff val="85000"/>
           </a:schemeClr>
@@ -4393,17 +4675,14 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
+    <cs:defRPr sz="900" kern="1200"/>
   </cs:chartArea>
   <cs:dataLabel>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:dataLabel>
@@ -4412,9 +4691,8 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="dk2">
+        <a:lumMod val="75000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
@@ -4437,35 +4715,35 @@
   </cs:dataLabelCallout>
   <cs:dataPoint>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="3">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="3">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="31750" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -4474,33 +4752,32 @@
     </cs:spPr>
   </cs:dataPointLine>
   <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700">
+        <a:solidFill>
+          <a:schemeClr val="lt2"/>
+        </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
   <cs:dataPointWireframe>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="rnd">
@@ -4516,21 +4793,16 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
             <a:lumMod val="15000"/>
             <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
@@ -4564,64 +4836,157 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
             <a:lumMod val="35000"/>
             <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
+          <a:schemeClr val="tx2">
             <a:lumMod val="15000"/>
             <a:lumOff val="85000"/>
           </a:schemeClr>
@@ -4629,102 +4994,6 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:seriesAxis>
   <cs:seriesLine>
@@ -4732,17 +5001,17 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
+        <a:prstDash val="dash"/>
       </a:ln>
     </cs:spPr>
   </cs:seriesLine>
@@ -4751,12 +5020,9 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200"/>
   </cs:title>
   <cs:trendline>
     <cs:lnRef idx="0">
@@ -4765,14 +5031,14 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="19050" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:prstDash val="sysDot"/>
+        <a:prstDash val="sysDash"/>
       </a:ln>
     </cs:spPr>
   </cs:trendline>
@@ -4781,10 +5047,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:trendlineLabel>
@@ -4793,7 +5056,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
@@ -4814,10 +5077,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:valueAxis>
@@ -4826,14 +5086,8 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
   </cs:wall>
 </cs:chartStyle>
 </file>
@@ -4843,15 +5097,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>406400</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>774700</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>25400</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>101600</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>330200</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4884,15 +5138,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>63500</xdr:rowOff>
+      <xdr:colOff>355600</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>673100</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>2540</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>698500</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>66040</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4925,15 +5179,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>114299</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>88900</xdr:rowOff>
+      <xdr:colOff>368299</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>50799</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>537632</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>17780</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4966,15 +5220,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>787400</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>88900</xdr:rowOff>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>160020</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>330200</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>119380</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>546100</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>134620</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5299,26 +5553,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{824EFFB3-869D-EC47-A240-E77CAF62F432}">
-  <dimension ref="C4:E11"/>
+  <dimension ref="C4:F11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="4" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C4" t="s">
         <v>0</v>
       </c>
       <c r="D4" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="E4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C5" t="s">
         <v>9</v>
       </c>
@@ -5329,9 +5583,9 @@
         <v>911.47</v>
       </c>
     </row>
-    <row r="6" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D6">
         <v>990.05</v>
@@ -5340,7 +5594,7 @@
         <v>973.12</v>
       </c>
     </row>
-    <row r="7" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C7" t="s">
         <v>14</v>
       </c>
@@ -5351,7 +5605,7 @@
         <v>949.6</v>
       </c>
     </row>
-    <row r="8" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C8" t="s">
         <v>21</v>
       </c>
@@ -5362,9 +5616,9 @@
         <v>739.3</v>
       </c>
     </row>
-    <row r="9" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D9">
         <v>1252.45</v>
@@ -5373,7 +5627,7 @@
         <v>1376.64</v>
       </c>
     </row>
-    <row r="10" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C10" t="s">
         <v>19</v>
       </c>
@@ -5383,8 +5637,12 @@
       <c r="E10">
         <v>554.09</v>
       </c>
+      <c r="F10">
+        <f>D10-E10</f>
+        <v>559.52999999999986</v>
+      </c>
     </row>
-    <row r="11" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C11" t="s">
         <v>10</v>
       </c>
@@ -5393,6 +5651,10 @@
       </c>
       <c r="E11">
         <v>760.28</v>
+      </c>
+      <c r="F11">
+        <f>D11-E11</f>
+        <v>785.71</v>
       </c>
     </row>
   </sheetData>
@@ -5403,10 +5665,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7FD5C0D-1C6A-1642-B57F-BC4720855C29}">
-  <dimension ref="B1:G9"/>
+  <dimension ref="B1:G13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5574,6 +5836,22 @@
       </c>
       <c r="G9">
         <v>553.69000000000005</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="C12">
+        <f>C6-G6</f>
+        <v>379.49800000000005</v>
+      </c>
+      <c r="D12">
+        <f>E7-G7</f>
+        <v>428.32000000000005</v>
+      </c>
+    </row>
+    <row r="13" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="C13">
+        <f>5/17</f>
+        <v>0.29411764705882354</v>
       </c>
     </row>
   </sheetData>
@@ -5587,7 +5865,7 @@
   <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5631,7 +5909,7 @@
         <v>1380.62</v>
       </c>
       <c r="F3">
-        <v>1288.8599999999999</v>
+        <v>1288.83</v>
       </c>
       <c r="G3">
         <v>1298.8699999999999</v>
@@ -5651,7 +5929,7 @@
         <v>1284.165</v>
       </c>
       <c r="F4">
-        <v>1045.2249999999999</v>
+        <v>1369.26</v>
       </c>
       <c r="G4">
         <v>1561.7</v>
@@ -5671,7 +5949,7 @@
         <v>1226.67</v>
       </c>
       <c r="F5">
-        <v>1057</v>
+        <v>1098</v>
       </c>
       <c r="G5">
         <v>1098</v>
@@ -5691,7 +5969,7 @@
         <v>1104.0550000000001</v>
       </c>
       <c r="F6">
-        <v>1051.5899999999999</v>
+        <v>958.82</v>
       </c>
       <c r="G6">
         <v>858.28</v>
@@ -5731,7 +6009,7 @@
         <v>1199.26</v>
       </c>
       <c r="F8">
-        <v>892.17</v>
+        <v>1456.29</v>
       </c>
       <c r="G8">
         <v>1330.2</v>
@@ -5751,7 +6029,7 @@
         <v>664.59</v>
       </c>
       <c r="F9">
-        <v>614.41999999999996</v>
+        <v>615.73</v>
       </c>
       <c r="G9">
         <v>553.69000000000005</v>
@@ -5771,7 +6049,7 @@
         <v>6291.4</v>
       </c>
       <c r="F10">
-        <v>2216.1799999999998</v>
+        <v>3534.86</v>
       </c>
       <c r="G10">
         <v>3073.15</v>
@@ -5791,7 +6069,7 @@
         <v>1279.83</v>
       </c>
       <c r="F11">
-        <v>837.75</v>
+        <v>950.23</v>
       </c>
       <c r="G11">
         <v>962.08</v>
@@ -5811,7 +6089,7 @@
         <v>1790.34</v>
       </c>
       <c r="F12">
-        <v>670.84</v>
+        <v>658.31</v>
       </c>
       <c r="G12">
         <v>687.38</v>
@@ -5819,11 +6097,11 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D14">
-        <f>14/17</f>
-        <v>0.82352941176470584</v>
+        <f>14/16</f>
+        <v>0.875</v>
       </c>
     </row>
   </sheetData>
@@ -5837,7 +6115,7 @@
   <dimension ref="B3:E14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5959,8 +6237,8 @@
         <v>22</v>
       </c>
       <c r="E13">
-        <f>10/17*100</f>
-        <v>58.82352941176471</v>
+        <f>10/16*100</f>
+        <v>62.5</v>
       </c>
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.2">
@@ -5968,8 +6246,8 @@
         <v>23</v>
       </c>
       <c r="E14">
-        <f>5/17*100</f>
-        <v>29.411764705882355</v>
+        <f>5/16*100</f>
+        <v>31.25</v>
       </c>
     </row>
   </sheetData>

--- a/TradingThesis/figures/Graphs.xlsx
+++ b/TradingThesis/figures/Graphs.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/AlexT/Dropbox/SEN19R/FIRST/algorithmic-trading/TradingThesis/figures/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{075AE4EC-C5F2-114B-BD14-EF572A3A92A2}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E0E3F08-7C14-0648-990C-F910099D9D0E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-240" yWindow="460" windowWidth="25600" windowHeight="15540" activeTab="2" xr2:uid="{89AFD1CC-A762-DB4B-A433-05543C80086C}"/>
+    <workbookView xWindow="10500" yWindow="2160" windowWidth="27320" windowHeight="15540" activeTab="4" xr2:uid="{89AFD1CC-A762-DB4B-A433-05543C80086C}"/>
   </bookViews>
   <sheets>
     <sheet name="Deep Learning" sheetId="4" r:id="rId1"/>
     <sheet name="BASIC" sheetId="1" r:id="rId2"/>
     <sheet name="COMPLEX" sheetId="2" r:id="rId3"/>
     <sheet name="BOOSTED" sheetId="3" r:id="rId4"/>
+    <sheet name="Naive" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="25">
   <si>
     <t>Stock</t>
   </si>
@@ -55,15 +56,6 @@
   </si>
   <si>
     <t>Baseline</t>
-  </si>
-  <si>
-    <t>FB</t>
-  </si>
-  <si>
-    <t>HAS</t>
-  </si>
-  <si>
-    <t>QCOM</t>
   </si>
   <si>
     <t>SBUX</t>
@@ -99,19 +91,10 @@
     <t>MNST</t>
   </si>
   <si>
-    <t>VOD</t>
-  </si>
-  <si>
     <t>conservative percent beating baseline</t>
   </si>
   <si>
     <t>lenaint percent</t>
-  </si>
-  <si>
-    <t>PYPL</t>
-  </si>
-  <si>
-    <t>MSFT</t>
   </si>
   <si>
     <t>percent of stocks that beat baseline</t>
@@ -119,12 +102,21 @@
   <si>
     <t>Deep Learning</t>
   </si>
+  <si>
+    <t>Correlation</t>
+  </si>
+  <si>
+    <t>Strategy</t>
+  </si>
+  <si>
+    <t>Naïve</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -140,6 +132,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -149,10 +148,19 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top/>
       <bottom/>
       <diagonal/>
@@ -161,10 +169,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -216,9 +226,14 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US"/>
+              <a:rPr lang="en-US" sz="1800" b="1" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
               <a:t>Deep Learning Model Results</a:t>
             </a:r>
+            <a:endParaRPr lang="en-US">
+              <a:effectLst/>
+            </a:endParaRPr>
           </a:p>
         </c:rich>
       </c:tx>
@@ -267,7 +282,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Deep Learning</c:v>
+                  <c:v>Baseline</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -284,66 +299,72 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'Deep Learning'!$C$5:$C$11</c:f>
+              <c:f>'Deep Learning'!$C$5:$C$12</c:f>
               <c:strCache>
-                <c:ptCount val="7"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>QCOM</c:v>
+                  <c:v>DIS</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>PYPL</c:v>
+                  <c:v>EBAY</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>AMD</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>COLM</c:v>
                 </c:pt>
-                <c:pt idx="3">
-                  <c:v>VOD</c:v>
-                </c:pt>
                 <c:pt idx="4">
-                  <c:v>MSFT</c:v>
+                  <c:v>SBUX</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>EBAY</c:v>
+                  <c:v>NKE</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>SBUX</c:v>
+                  <c:v>MNST</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>BIG</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Deep Learning'!$D$5:$D$11</c:f>
+              <c:f>'Deep Learning'!$D$5:$D$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>964.16</c:v>
+                  <c:v>964</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>990.05</c:v>
+                  <c:v>554.09</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1066.3399999999999</c:v>
+                  <c:v>2815.36</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>874.48</c:v>
+                  <c:v>949.6</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1252.45</c:v>
+                  <c:v>760.28</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1113.6199999999999</c:v>
+                  <c:v>486.56</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1545.99</c:v>
+                  <c:v>488.61</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1094.71</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-C4CE-7F4A-87CA-7400D6447554}"/>
+              <c16:uniqueId val="{00000000-C854-A944-A89D-B455AE814826}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -356,7 +377,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Baseline</c:v>
+                  <c:v>Deep Learning</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -373,66 +394,72 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'Deep Learning'!$C$5:$C$11</c:f>
+              <c:f>'Deep Learning'!$C$5:$C$12</c:f>
               <c:strCache>
-                <c:ptCount val="7"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>QCOM</c:v>
+                  <c:v>DIS</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>PYPL</c:v>
+                  <c:v>EBAY</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>AMD</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>COLM</c:v>
                 </c:pt>
-                <c:pt idx="3">
-                  <c:v>VOD</c:v>
-                </c:pt>
                 <c:pt idx="4">
-                  <c:v>MSFT</c:v>
+                  <c:v>SBUX</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>EBAY</c:v>
+                  <c:v>NKE</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>SBUX</c:v>
+                  <c:v>MNST</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>BIG</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Deep Learning'!$E$5:$E$11</c:f>
+              <c:f>'Deep Learning'!$E$5:$E$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>911.47</c:v>
+                  <c:v>855.41</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>973.12</c:v>
+                  <c:v>1113.6199999999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>949.6</c:v>
+                  <c:v>1250.48</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>739.3</c:v>
+                  <c:v>1066.3399999999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1376.64</c:v>
+                  <c:v>1545.99</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>554.09</c:v>
+                  <c:v>496.43</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>760.28</c:v>
+                  <c:v>358.11</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>674.22</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-C4CE-7F4A-87CA-7400D6447554}"/>
+              <c16:uniqueId val="{00000001-C854-A944-A89D-B455AE814826}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -446,11 +473,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="362722368"/>
-        <c:axId val="362724048"/>
+        <c:axId val="1880378335"/>
+        <c:axId val="1880380015"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="362722368"/>
+        <c:axId val="1880378335"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -493,7 +520,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="362724048"/>
+        <c:crossAx val="1880380015"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -501,7 +528,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="362724048"/>
+        <c:axId val="1880380015"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -542,7 +569,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>Profit($)</a:t>
+                  <a:t>Profit ($)</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -607,7 +634,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="362722368"/>
+        <c:crossAx val="1880378335"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -721,9 +748,14 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>Basic Model Results</a:t>
+              <a:rPr lang="en-US" sz="1800" b="1" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Simplistic Model Results</a:t>
             </a:r>
+            <a:endParaRPr lang="en-US">
+              <a:effectLst/>
+            </a:endParaRPr>
           </a:p>
         </c:rich>
       </c:tx>
@@ -772,14 +804,14 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Random Forest Regressor</c:v>
+                  <c:v>Baseline</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent6"/>
+              <a:schemeClr val="accent1"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -789,66 +821,72 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>BASIC!$B$3:$B$9</c:f>
+              <c:f>BASIC!$B$3:$B$10</c:f>
               <c:strCache>
-                <c:ptCount val="7"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>FB</c:v>
+                  <c:v>DIS</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>HAS</c:v>
+                  <c:v>EBAY</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>DIS</c:v>
+                  <c:v>SBUX</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>QCOM</c:v>
+                  <c:v>BIG</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>SBUX</c:v>
+                  <c:v>NKE</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>BIG</c:v>
+                  <c:v>AMD</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>NKE</c:v>
+                  <c:v>COLM</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>MNST</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>BASIC!$C$3:$C$9</c:f>
+              <c:f>BASIC!$C$3:$C$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>1234.76</c:v>
+                  <c:v>1098</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1359.12</c:v>
+                  <c:v>605.55999999999995</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1011.47</c:v>
+                  <c:v>734.93</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1237.778</c:v>
+                  <c:v>1330.2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>671.03499999999997</c:v>
+                  <c:v>553.69000000000005</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1495.07</c:v>
+                  <c:v>3073.15</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>514.16</c:v>
+                  <c:v>962.08</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>687.38</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-656B-EA4B-A5E3-6907A1DAFAEA}"/>
+              <c16:uniqueId val="{00000000-2161-CF48-B419-75BFA83210E5}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -862,6 +900,291 @@
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
                   <c:v>MLP </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>BASIC!$B$3:$B$10</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>DIS</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>EBAY</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>SBUX</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>BIG</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>NKE</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>AMD</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>COLM</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>MNST</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>BASIC!$D$3:$D$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1098</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>606.67999999999995</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1330.2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>541.34</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1195.3699999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>910.95</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-2161-CF48-B419-75BFA83210E5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>BASIC!$E$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Decision Tree</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>BASIC!$B$3:$B$10</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>DIS</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>EBAY</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>SBUX</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>BIG</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>NKE</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>AMD</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>COLM</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>MNST</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>BASIC!$E$3:$E$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1305.71</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>490.87</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1242.1300000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1108</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>949.49</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1261.98</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>743</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>653.69000000000005</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-2161-CF48-B419-75BFA83210E5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>BASIC!$F$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Kneighbors</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>BASIC!$B$3:$B$10</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>DIS</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>EBAY</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>SBUX</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>BIG</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>NKE</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>AMD</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>COLM</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>MNST</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>BASIC!$F$3:$F$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1057</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>525.07000000000005</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>724.26</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1414.99</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>610.20000000000005</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2482.12</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>747.83</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>620.88</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-2161-CF48-B419-75BFA83210E5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>BASIC!$G$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Random Forest Regressor</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -878,337 +1201,72 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>BASIC!$B$3:$B$9</c:f>
+              <c:f>BASIC!$B$3:$B$10</c:f>
               <c:strCache>
-                <c:ptCount val="7"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>FB</c:v>
+                  <c:v>DIS</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>HAS</c:v>
+                  <c:v>EBAY</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>DIS</c:v>
+                  <c:v>SBUX</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>QCOM</c:v>
+                  <c:v>BIG</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>SBUX</c:v>
+                  <c:v>NKE</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>BIG</c:v>
+                  <c:v>AMD</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>NKE</c:v>
+                  <c:v>COLM</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>MNST</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>BASIC!$D$3:$D$9</c:f>
+              <c:f>BASIC!$G$3:$G$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>1298.8699999999999</c:v>
+                  <c:v>1011.47</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1561.7</c:v>
+                  <c:v>530.26</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1098</c:v>
+                  <c:v>671.03499999999997</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>819.43</c:v>
+                  <c:v>1495.07</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>727.85500000000002</c:v>
+                  <c:v>514.16</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1330.2</c:v>
+                  <c:v>2616.35</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>506.61</c:v>
+                  <c:v>643.52</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>653.25</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-656B-EA4B-A5E3-6907A1DAFAEA}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>BASIC!$E$2</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Decision Tree</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent4"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>BASIC!$B$3:$B$9</c:f>
-              <c:strCache>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>FB</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>HAS</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>DIS</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>QCOM</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>SBUX</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>BIG</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>NKE</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>BASIC!$E$3:$E$9</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>1288.8599999999999</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>978.51</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1305.71</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>947.46</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1163.25</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1108</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>949.49</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-656B-EA4B-A5E3-6907A1DAFAEA}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>BASIC!$F$2</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Kneighbors</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent6">
-                <a:lumMod val="60000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>BASIC!$B$3:$B$9</c:f>
-              <c:strCache>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>FB</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>HAS</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>DIS</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>QCOM</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>SBUX</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>BIG</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>NKE</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>BASIC!$F$3:$F$9</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>1298.8699999999999</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1047.405</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1057</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>949.08500000000004</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>679.58</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1045.08</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>601.42999999999995</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-656B-EA4B-A5E3-6907A1DAFAEA}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="4"/>
-          <c:order val="4"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>BASIC!$G$2</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Baseline</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent5">
-                <a:lumMod val="60000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>BASIC!$B$3:$B$9</c:f>
-              <c:strCache>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>FB</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>HAS</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>DIS</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>QCOM</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>SBUX</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>BIG</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>NKE</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>BASIC!$G$3:$G$9</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>1298.8699999999999</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1561.7</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1098</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>858.28</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>734.93</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1330.2</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>553.69000000000005</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-656B-EA4B-A5E3-6907A1DAFAEA}"/>
+              <c16:uniqueId val="{00000004-2161-CF48-B419-75BFA83210E5}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1222,11 +1280,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="938670256"/>
-        <c:axId val="931226784"/>
+        <c:axId val="1879738303"/>
+        <c:axId val="1879534575"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="938670256"/>
+        <c:axId val="1879738303"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1269,7 +1327,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="931226784"/>
+        <c:crossAx val="1879534575"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1277,7 +1335,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="931226784"/>
+        <c:axId val="1879534575"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1383,7 +1441,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="938670256"/>
+        <c:crossAx val="1879738303"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1497,8 +1555,8 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>Complex Model Results</a:t>
+              <a:rPr lang="en-US" b="1"/>
+              <a:t>Expanded Model Results</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -1548,7 +1606,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Random Forest Regressor</c:v>
+                  <c:v>Baseline</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1565,71 +1623,65 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>COMPLEX!$B$3:$B$11</c:f>
+              <c:f>COMPLEX!$B$3:$B$10</c:f>
               <c:strCache>
-                <c:ptCount val="9"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>FB</c:v>
+                  <c:v>DIS</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>HAS</c:v>
+                  <c:v>EBAY</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>DIS</c:v>
+                  <c:v>SBUX</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>QCOM</c:v>
+                  <c:v>BIG</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>SBUX</c:v>
+                  <c:v>NKE</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>BIG</c:v>
+                  <c:v>AMD</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>NKE</c:v>
+                  <c:v>COLM</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>AMD</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>COLM</c:v>
+                  <c:v>MNST</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>COMPLEX!$C$3:$C$11</c:f>
+              <c:f>COMPLEX!$C$3:$C$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>1276.4100000000001</c:v>
+                  <c:v>1098</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1366.4449999999999</c:v>
+                  <c:v>605.55999999999995</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1158.0999999999999</c:v>
+                  <c:v>734.93</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1066.08</c:v>
+                  <c:v>1330.2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>545.66</c:v>
+                  <c:v>553.69000000000005</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1886.5</c:v>
+                  <c:v>3073.15</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>518.04</c:v>
+                  <c:v>962.08</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4085.145</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>826.88</c:v>
+                  <c:v>687.38</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1666,71 +1718,65 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>COMPLEX!$B$3:$B$11</c:f>
+              <c:f>COMPLEX!$B$3:$B$10</c:f>
               <c:strCache>
-                <c:ptCount val="9"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>FB</c:v>
+                  <c:v>DIS</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>HAS</c:v>
+                  <c:v>EBAY</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>DIS</c:v>
+                  <c:v>SBUX</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>QCOM</c:v>
+                  <c:v>BIG</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>SBUX</c:v>
+                  <c:v>NKE</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>BIG</c:v>
+                  <c:v>AMD</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>NKE</c:v>
+                  <c:v>COLM</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>AMD</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>COLM</c:v>
+                  <c:v>MNST</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>COMPLEX!$D$3:$D$11</c:f>
+              <c:f>COMPLEX!$D$3:$D$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
+                  <c:v>1098</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>606.67999999999995</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>734.93</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>1000</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>1561.7</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1098</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>848.42</c:v>
-                </c:pt>
                 <c:pt idx="4">
-                  <c:v>734.93</c:v>
+                  <c:v>813.69</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>1257.33</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>1000</c:v>
                 </c:pt>
-                <c:pt idx="6">
-                  <c:v>813.69</c:v>
-                </c:pt>
                 <c:pt idx="7">
-                  <c:v>1257.33</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1000</c:v>
+                  <c:v>1470.3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1767,71 +1813,65 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>COMPLEX!$B$3:$B$11</c:f>
+              <c:f>COMPLEX!$B$3:$B$10</c:f>
               <c:strCache>
-                <c:ptCount val="9"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>FB</c:v>
+                  <c:v>DIS</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>HAS</c:v>
+                  <c:v>EBAY</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>DIS</c:v>
+                  <c:v>SBUX</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>QCOM</c:v>
+                  <c:v>BIG</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>SBUX</c:v>
+                  <c:v>NKE</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>BIG</c:v>
+                  <c:v>AMD</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>NKE</c:v>
+                  <c:v>COLM</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>AMD</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>COLM</c:v>
+                  <c:v>MNST</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>COMPLEX!$E$3:$E$11</c:f>
+              <c:f>COMPLEX!$E$3:$E$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>1380.62</c:v>
+                  <c:v>1226.67</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1284.165</c:v>
+                  <c:v>602.79</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1226.67</c:v>
+                  <c:v>1082.71</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1104.0550000000001</c:v>
+                  <c:v>1199.26</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1082.71</c:v>
+                  <c:v>664.59</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1199.26</c:v>
+                  <c:v>6291.4</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>664.59</c:v>
+                  <c:v>1279.83</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>6291.4</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1279.83</c:v>
+                  <c:v>1790.34</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1868,71 +1908,65 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>COMPLEX!$B$3:$B$11</c:f>
+              <c:f>COMPLEX!$B$3:$B$10</c:f>
               <c:strCache>
-                <c:ptCount val="9"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>FB</c:v>
+                  <c:v>DIS</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>HAS</c:v>
+                  <c:v>EBAY</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>DIS</c:v>
+                  <c:v>SBUX</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>QCOM</c:v>
+                  <c:v>BIG</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>SBUX</c:v>
+                  <c:v>NKE</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>BIG</c:v>
+                  <c:v>AMD</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>NKE</c:v>
+                  <c:v>COLM</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>AMD</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>COLM</c:v>
+                  <c:v>MNST</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>COMPLEX!$F$3:$F$11</c:f>
+              <c:f>COMPLEX!$F$3:$F$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>1288.83</c:v>
+                  <c:v>1098</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1369.26</c:v>
+                  <c:v>565.34</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1098</c:v>
+                  <c:v>715.93</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>958.82</c:v>
+                  <c:v>1456.29</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>715.93</c:v>
+                  <c:v>615.73</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1456.29</c:v>
+                  <c:v>3534.86</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>615.73</c:v>
+                  <c:v>950.23</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3534.86</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>950.23</c:v>
+                  <c:v>658.31</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1952,7 +1986,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Baseline</c:v>
+                  <c:v>Random Forest Regressor</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1969,71 +2003,65 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>COMPLEX!$B$3:$B$11</c:f>
+              <c:f>COMPLEX!$B$3:$B$10</c:f>
               <c:strCache>
-                <c:ptCount val="9"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>FB</c:v>
+                  <c:v>DIS</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>HAS</c:v>
+                  <c:v>EBAY</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>DIS</c:v>
+                  <c:v>SBUX</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>QCOM</c:v>
+                  <c:v>BIG</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>SBUX</c:v>
+                  <c:v>NKE</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>BIG</c:v>
+                  <c:v>AMD</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>NKE</c:v>
+                  <c:v>COLM</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>AMD</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>COLM</c:v>
+                  <c:v>MNST</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>COMPLEX!$G$3:$G$11</c:f>
+              <c:f>COMPLEX!$G$3:$G$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>1298.8699999999999</c:v>
+                  <c:v>1158.0999999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1561.7</c:v>
+                  <c:v>539.16</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1098</c:v>
+                  <c:v>545.66</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>858.28</c:v>
+                  <c:v>1886.5</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>734.93</c:v>
+                  <c:v>518.04</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1330.2</c:v>
+                  <c:v>4085.145</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>553.69000000000005</c:v>
+                  <c:v>826.88</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3073.15</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>962.08</c:v>
+                  <c:v>428.81</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2150,13 +2178,8 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>Profit</a:t>
+                  <a:t>Profit ($)</a:t>
                 </a:r>
-                <a:r>
-                  <a:rPr lang="en-US" baseline="0"/>
-                  <a:t> ($)</a:t>
-                </a:r>
-                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -2332,7 +2355,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Boosting Model</a:t>
+              <a:t>Stacking Model</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -2379,7 +2402,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Conservative</c:v>
+                  <c:v>Baseline</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2422,59 +2445,65 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>BOOSTED!$B$4:$B$10</c:f>
+              <c:f>BOOSTED!$B$4:$B$11</c:f>
               <c:strCache>
-                <c:ptCount val="7"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>DIS</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>FB</c:v>
+                  <c:v>EBAY</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>EBAY</c:v>
+                  <c:v>AMD</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>QCOM</c:v>
+                  <c:v>COLM</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>MNST</c:v>
+                  <c:v>SBUX</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>NKE</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>VOD</c:v>
+                  <c:v>MNST</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>BIG</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>BOOSTED!$C$4:$C$10</c:f>
+              <c:f>BOOSTED!$C$4:$C$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>1269.26</c:v>
+                  <c:v>1098</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1364.54</c:v>
+                  <c:v>605.55999999999995</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1069.4000000000001</c:v>
+                  <c:v>3073.15</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>892.06</c:v>
+                  <c:v>962.08</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1000</c:v>
+                  <c:v>734.93</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>902.87</c:v>
+                  <c:v>553.69000000000005</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>914.68</c:v>
+                  <c:v>687.38</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1330.2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2537,59 +2566,65 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>BOOSTED!$B$4:$B$10</c:f>
+              <c:f>BOOSTED!$B$4:$B$11</c:f>
               <c:strCache>
-                <c:ptCount val="7"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>DIS</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>FB</c:v>
+                  <c:v>EBAY</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>EBAY</c:v>
+                  <c:v>AMD</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>QCOM</c:v>
+                  <c:v>COLM</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>MNST</c:v>
+                  <c:v>SBUX</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>NKE</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>VOD</c:v>
+                  <c:v>MNST</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>BIG</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>BOOSTED!$D$4:$D$10</c:f>
+              <c:f>BOOSTED!$D$4:$D$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>1073.3599999999999</c:v>
+                  <c:v>1101.7</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1280.17</c:v>
+                  <c:v>650.24</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>631.12</c:v>
+                  <c:v>5765.68</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1228.4000000000001</c:v>
+                  <c:v>999.26</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1499.71</c:v>
+                  <c:v>557.49</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>634.6</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>914.68</c:v>
+                  <c:v>1470.28</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1868.24</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2609,7 +2644,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Baseline</c:v>
+                  <c:v>Conservative</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2652,59 +2687,65 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>BOOSTED!$B$4:$B$10</c:f>
+              <c:f>BOOSTED!$B$4:$B$11</c:f>
               <c:strCache>
-                <c:ptCount val="7"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>DIS</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>FB</c:v>
+                  <c:v>EBAY</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>EBAY</c:v>
+                  <c:v>AMD</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>QCOM</c:v>
+                  <c:v>COLM</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>MNST</c:v>
+                  <c:v>SBUX</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>NKE</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>VOD</c:v>
+                  <c:v>MNST</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>BIG</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>BOOSTED!$E$4:$E$10</c:f>
+              <c:f>BOOSTED!$E$4:$E$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>1098</c:v>
+                  <c:v>1321.03</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1298.8699999999999</c:v>
+                  <c:v>547.6</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>605.55999999999995</c:v>
+                  <c:v>1438.03</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>858.28</c:v>
+                  <c:v>999.26</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>687.38</c:v>
+                  <c:v>1012.34</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>553.69000000000005</c:v>
+                  <c:v>902.87</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>746.5</c:v>
+                  <c:v>1277.04</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1868.24</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2957,6 +2998,914 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Statistical Correlation</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Naive!$C$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Correlation</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Naive!$B$4:$B$11</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>DIS</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>EBAY</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>AMD</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>COLM</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>SBUX</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>NKE</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>MNST</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>BIG</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Naive!$C$4:$C$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0.03</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.21</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-5.1999999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.2999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8.3099999999999993E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.115</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-9664-3049-897C-CA4602356A28}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1340353903"/>
+        <c:axId val="1340355583"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1340353903"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1340355583"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1340355583"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Correlation</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1340353903"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Naive Strategy</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Naive!$C$13</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Baseline</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Naive!$B$14:$B$21</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>DIS</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>EBAY</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>AMD</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>COLM</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>SBUX</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>NKE</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>MNST</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>BIG</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Naive!$C$14:$C$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>2733.16</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2376.8000000000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1602.07</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1110.58</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3388.76</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>533.70000000000005</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1345.6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1828.72</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-4DEA-C44F-9DF8-05C5D3B7FA84}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Naive!$D$13</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Naïve</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Naive!$B$14:$B$21</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>DIS</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>EBAY</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>AMD</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>COLM</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>SBUX</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>NKE</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>MNST</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>BIG</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Naive!$D$14:$D$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1935.14</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1471.51</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>860.9</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1006.45</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1233.3399999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1409.45</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1636.3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1700.13</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-4DEA-C44F-9DF8-05C5D3B7FA84}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1339294911"/>
+        <c:axId val="1336609695"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1339294911"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1336609695"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1336609695"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Profit ($)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1339294911"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -2998,10 +3947,13 @@
 </file>
 
 <file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="13">
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
   <a:schemeClr val="accent6"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent4"/>
   <cs:variation/>
   <cs:variation>
     <a:lumMod val="60000"/>
@@ -3114,6 +4066,86 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
@@ -5092,27 +6124,1033 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>774700</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>330200</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>72220</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1">
+        <xdr:cNvPr id="3" name="Chart 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4C2262FE-6F92-254F-ADBB-138689550864}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C71DF7A3-5258-974D-8E12-DB19BF154D0B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5138,22 +7176,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>355600</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
+      <xdr:colOff>628650</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>698500</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>66040</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>279400</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>158750</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2">
+        <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{36FF537F-E7DC-FD46-8EA2-1AF63E72FE4B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C2013258-2C6D-C044-AB75-5890DCABE9EE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5248,6 +7286,83 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>222250</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>412750</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FA44C146-8958-0146-8010-04A6AE70A73B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>594783</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>785283</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3C965945-C3E9-8148-9C26-8D53C12DE39F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -5553,108 +7668,111 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{824EFFB3-869D-EC47-A240-E77CAF62F432}">
-  <dimension ref="C4:F11"/>
+  <dimension ref="C4:E12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="4" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C4" t="s">
         <v>0</v>
       </c>
       <c r="D4" t="s">
-        <v>27</v>
+        <v>6</v>
       </c>
       <c r="E4" t="s">
-        <v>6</v>
+        <v>21</v>
       </c>
     </row>
-    <row r="5" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5">
+        <v>964</v>
+      </c>
+      <c r="E5">
+        <v>855.41</v>
+      </c>
+    </row>
+    <row r="6" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6">
+        <v>554.09</v>
+      </c>
+      <c r="E6">
+        <v>1113.6199999999999</v>
+      </c>
+    </row>
+    <row r="7" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7">
+        <v>2815.36</v>
+      </c>
+      <c r="E7">
+        <v>1250.48</v>
+      </c>
+    </row>
+    <row r="8" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8">
+        <v>949.6</v>
+      </c>
+      <c r="E8">
+        <v>1066.3399999999999</v>
+      </c>
+    </row>
+    <row r="9" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9">
+        <v>760.28</v>
+      </c>
+      <c r="E9">
+        <v>1545.99</v>
+      </c>
+    </row>
+    <row r="10" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C10" t="s">
         <v>9</v>
       </c>
-      <c r="D5">
-        <v>964.16</v>
-      </c>
-      <c r="E5">
-        <v>911.47</v>
+      <c r="D10">
+        <v>486.56</v>
+      </c>
+      <c r="E10">
+        <v>496.43</v>
       </c>
     </row>
-    <row r="6" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6">
-        <v>990.05</v>
-      </c>
-      <c r="E6">
-        <v>973.12</v>
+    <row r="11" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C11" t="s">
+        <v>17</v>
+      </c>
+      <c r="D11">
+        <v>488.61</v>
+      </c>
+      <c r="E11">
+        <v>358.11</v>
       </c>
     </row>
-    <row r="7" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D7">
-        <v>1066.3399999999999</v>
-      </c>
-      <c r="E7">
-        <v>949.6</v>
-      </c>
-    </row>
-    <row r="8" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C8" t="s">
-        <v>21</v>
-      </c>
-      <c r="D8">
-        <v>874.48</v>
-      </c>
-      <c r="E8">
-        <v>739.3</v>
-      </c>
-    </row>
-    <row r="9" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C9" t="s">
-        <v>25</v>
-      </c>
-      <c r="D9">
-        <v>1252.45</v>
-      </c>
-      <c r="E9">
-        <v>1376.64</v>
-      </c>
-    </row>
-    <row r="10" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C10" t="s">
-        <v>19</v>
-      </c>
-      <c r="D10">
-        <v>1113.6199999999999</v>
-      </c>
-      <c r="E10">
-        <v>554.09</v>
-      </c>
-      <c r="F10">
-        <f>D10-E10</f>
-        <v>559.52999999999986</v>
-      </c>
-    </row>
-    <row r="11" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C11" t="s">
-        <v>10</v>
-      </c>
-      <c r="D11">
-        <v>1545.99</v>
-      </c>
-      <c r="E11">
-        <v>760.28</v>
-      </c>
-      <c r="F11">
-        <f>D11-E11</f>
-        <v>785.71</v>
+    <row r="12" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C12" t="s">
+        <v>8</v>
+      </c>
+      <c r="D12">
+        <v>1094.71</v>
+      </c>
+      <c r="E12">
+        <v>674.22</v>
       </c>
     </row>
   </sheetData>
@@ -5665,17 +7783,17 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7FD5C0D-1C6A-1642-B57F-BC4720855C29}">
-  <dimension ref="B1:G13"/>
+  <dimension ref="B1:G16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="2:7" x14ac:dyDescent="0.2">
@@ -5683,7 +7801,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D2" t="s">
         <v>2</v>
@@ -5695,161 +7813,171 @@
         <v>4</v>
       </c>
       <c r="G2" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C3">
-        <v>1234.76</v>
+        <v>1098</v>
       </c>
       <c r="D3">
-        <v>1298.8699999999999</v>
-      </c>
-      <c r="E3">
-        <v>1288.8599999999999</v>
+        <v>1098</v>
+      </c>
+      <c r="E3" s="1">
+        <v>1305.71</v>
       </c>
       <c r="F3">
-        <v>1298.8699999999999</v>
+        <v>1057</v>
       </c>
       <c r="G3">
-        <v>1298.8699999999999</v>
+        <v>1011.47</v>
       </c>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="C4">
-        <v>1359.12</v>
+        <v>605.55999999999995</v>
       </c>
       <c r="D4">
-        <v>1561.7</v>
+        <v>606.67999999999995</v>
       </c>
       <c r="E4">
-        <v>978.51</v>
+        <v>490.87</v>
       </c>
       <c r="F4">
-        <v>1047.405</v>
-      </c>
-      <c r="G4">
-        <v>1561.7</v>
+        <v>525.07000000000005</v>
+      </c>
+      <c r="G4" s="2">
+        <v>530.26</v>
       </c>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B5" t="s">
-        <v>5</v>
+      <c r="B5" s="3" t="s">
+        <v>7</v>
       </c>
       <c r="C5">
-        <v>1011.47</v>
+        <v>734.93</v>
       </c>
       <c r="D5">
-        <v>1098</v>
+        <v>1000</v>
       </c>
       <c r="E5" s="1">
-        <v>1305.71</v>
+        <v>1242.1300000000001</v>
       </c>
       <c r="F5">
-        <v>1057</v>
+        <v>724.26</v>
       </c>
       <c r="G5">
-        <v>1098</v>
+        <v>671.03499999999997</v>
       </c>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" s="1">
-        <v>1237.778</v>
+        <v>8</v>
+      </c>
+      <c r="C6">
+        <v>1330.2</v>
       </c>
       <c r="D6">
-        <v>819.43</v>
+        <v>1330.2</v>
       </c>
       <c r="E6">
-        <v>947.46</v>
+        <v>1108</v>
       </c>
       <c r="F6">
-        <v>949.08500000000004</v>
-      </c>
-      <c r="G6">
-        <v>858.28</v>
+        <v>1414.99</v>
+      </c>
+      <c r="G6" s="1">
+        <v>1495.07</v>
       </c>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C7">
-        <v>671.03499999999997</v>
+        <v>553.69000000000005</v>
       </c>
       <c r="D7">
-        <v>727.85500000000002</v>
+        <v>541.34</v>
       </c>
       <c r="E7" s="1">
-        <v>1163.25</v>
+        <v>949.49</v>
       </c>
       <c r="F7">
-        <v>679.58</v>
+        <v>610.20000000000005</v>
       </c>
       <c r="G7">
-        <v>734.93</v>
+        <v>514.16</v>
       </c>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C8" s="1">
-        <v>1495.07</v>
+        <v>10</v>
+      </c>
+      <c r="C8">
+        <v>3073.15</v>
       </c>
       <c r="D8">
-        <v>1330.2</v>
+        <v>1195.3699999999999</v>
       </c>
       <c r="E8">
-        <v>1108</v>
+        <v>1261.98</v>
       </c>
       <c r="F8">
-        <v>1045.08</v>
+        <v>2482.12</v>
       </c>
       <c r="G8">
-        <v>1330.2</v>
+        <v>2616.35</v>
       </c>
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C9">
-        <v>514.16</v>
+        <v>962.08</v>
       </c>
       <c r="D9">
-        <v>506.61</v>
-      </c>
-      <c r="E9" s="1">
-        <v>949.49</v>
+        <v>910.95</v>
+      </c>
+      <c r="E9" s="2">
+        <v>743</v>
       </c>
       <c r="F9">
-        <v>601.42999999999995</v>
+        <v>747.83</v>
       </c>
       <c r="G9">
-        <v>553.69000000000005</v>
+        <v>643.52</v>
       </c>
     </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="C12">
-        <f>C6-G6</f>
-        <v>379.49800000000005</v>
-      </c>
-      <c r="D12">
-        <f>E7-G7</f>
-        <v>428.32000000000005</v>
+    <row r="10" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10">
+        <v>687.38</v>
+      </c>
+      <c r="D10">
+        <v>1000</v>
+      </c>
+      <c r="E10" s="2">
+        <v>653.69000000000005</v>
+      </c>
+      <c r="F10">
+        <v>620.88</v>
+      </c>
+      <c r="G10">
+        <v>653.25</v>
       </c>
     </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="C13">
+    <row r="16" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="C16">
         <f>5/17</f>
         <v>0.29411764705882354</v>
       </c>
@@ -5862,17 +7990,17 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F749681-0C13-AA4C-A5FA-DC14F5A103AB}">
-  <dimension ref="A1:G14"/>
+  <dimension ref="A1:G21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
@@ -5880,7 +8008,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D2" t="s">
         <v>2</v>
@@ -5892,216 +8020,246 @@
         <v>4</v>
       </c>
       <c r="G2" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C3">
-        <v>1276.4100000000001</v>
+        <v>1098</v>
       </c>
       <c r="D3">
-        <v>1000</v>
+        <v>1098</v>
       </c>
       <c r="E3">
-        <v>1380.62</v>
+        <v>1226.67</v>
       </c>
       <c r="F3">
-        <v>1288.83</v>
+        <v>1098</v>
       </c>
       <c r="G3">
-        <v>1298.8699999999999</v>
+        <v>1158.0999999999999</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="C4">
-        <v>1366.4449999999999</v>
+        <v>605.55999999999995</v>
       </c>
       <c r="D4">
-        <v>1561.7</v>
+        <v>606.67999999999995</v>
       </c>
       <c r="E4">
-        <v>1284.165</v>
+        <v>602.79</v>
       </c>
       <c r="F4">
-        <v>1369.26</v>
+        <v>565.34</v>
       </c>
       <c r="G4">
-        <v>1561.7</v>
+        <v>539.16</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C5">
-        <v>1158.0999999999999</v>
+        <v>734.93</v>
       </c>
       <c r="D5">
-        <v>1098</v>
+        <v>734.93</v>
       </c>
       <c r="E5">
-        <v>1226.67</v>
+        <v>1082.71</v>
       </c>
       <c r="F5">
-        <v>1098</v>
+        <v>715.93</v>
       </c>
       <c r="G5">
-        <v>1098</v>
+        <v>545.66</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C6">
-        <v>1066.08</v>
+        <v>1330.2</v>
       </c>
       <c r="D6">
-        <v>848.42</v>
+        <v>1000</v>
       </c>
       <c r="E6">
-        <v>1104.0550000000001</v>
+        <v>1199.26</v>
       </c>
       <c r="F6">
-        <v>958.82</v>
-      </c>
-      <c r="G6">
-        <v>858.28</v>
+        <v>1456.29</v>
+      </c>
+      <c r="G6" s="1">
+        <v>1886.5</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C7">
-        <v>545.66</v>
-      </c>
-      <c r="D7">
-        <v>734.93</v>
+        <v>553.69000000000005</v>
+      </c>
+      <c r="D7" s="1">
+        <v>813.69</v>
       </c>
       <c r="E7">
-        <v>1082.71</v>
+        <v>664.59</v>
       </c>
       <c r="F7">
-        <v>715.93</v>
+        <v>615.73</v>
       </c>
       <c r="G7">
-        <v>734.93</v>
+        <v>518.04</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C8" s="1">
-        <v>1886.5</v>
+        <v>10</v>
+      </c>
+      <c r="C8">
+        <v>3073.15</v>
       </c>
       <c r="D8">
-        <v>1000</v>
-      </c>
-      <c r="E8">
-        <v>1199.26</v>
+        <v>1257.33</v>
+      </c>
+      <c r="E8" s="1">
+        <v>6291.4</v>
       </c>
       <c r="F8">
-        <v>1456.29</v>
-      </c>
-      <c r="G8">
-        <v>1330.2</v>
+        <v>3534.86</v>
+      </c>
+      <c r="G8" s="1">
+        <v>4085.145</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C9">
-        <v>518.04</v>
-      </c>
-      <c r="D9" s="1">
-        <v>813.69</v>
-      </c>
-      <c r="E9">
-        <v>664.59</v>
+        <v>962.08</v>
+      </c>
+      <c r="D9">
+        <v>1000</v>
+      </c>
+      <c r="E9" s="1">
+        <v>1279.83</v>
       </c>
       <c r="F9">
-        <v>615.73</v>
+        <v>950.23</v>
       </c>
       <c r="G9">
-        <v>553.69000000000005</v>
+        <v>826.88</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
-        <v>13</v>
-      </c>
-      <c r="C10" s="1">
-        <v>4085.145</v>
-      </c>
-      <c r="D10">
-        <v>1257.33</v>
+        <v>17</v>
+      </c>
+      <c r="C10">
+        <v>687.38</v>
+      </c>
+      <c r="D10" s="1">
+        <v>1470.3</v>
       </c>
       <c r="E10" s="1">
-        <v>6291.4</v>
+        <v>1790.34</v>
       </c>
       <c r="F10">
-        <v>3534.86</v>
-      </c>
-      <c r="G10">
-        <v>3073.15</v>
+        <v>658.31</v>
+      </c>
+      <c r="G10" s="2">
+        <v>428.81</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B11" t="s">
-        <v>14</v>
-      </c>
-      <c r="C11">
-        <v>826.88</v>
-      </c>
-      <c r="D11">
-        <v>1000</v>
-      </c>
-      <c r="E11" s="1">
-        <v>1279.83</v>
-      </c>
-      <c r="F11">
-        <v>950.23</v>
-      </c>
-      <c r="G11">
-        <v>962.08</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B12" t="s">
-        <v>20</v>
-      </c>
-      <c r="C12" s="2">
-        <v>428.81</v>
-      </c>
-      <c r="D12" s="1">
-        <v>1470.3</v>
-      </c>
-      <c r="E12" s="1">
-        <v>1790.34</v>
-      </c>
-      <c r="F12">
-        <v>658.31</v>
-      </c>
-      <c r="G12">
-        <v>687.38</v>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="E13" t="s">
+        <v>6</v>
+      </c>
+      <c r="F13" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="D14">
         <f>14/16</f>
         <v>0.875</v>
+      </c>
+      <c r="E14">
+        <v>1098</v>
+      </c>
+      <c r="F14">
+        <v>1158.0999999999999</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="E15">
+        <v>605.55999999999995</v>
+      </c>
+      <c r="F15">
+        <v>539.16</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="E16">
+        <v>734.93</v>
+      </c>
+      <c r="F16">
+        <v>545.66</v>
+      </c>
+    </row>
+    <row r="17" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E17">
+        <v>1330.2</v>
+      </c>
+      <c r="F17" s="1">
+        <v>1886.5</v>
+      </c>
+    </row>
+    <row r="18" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E18">
+        <v>553.69000000000005</v>
+      </c>
+      <c r="F18">
+        <v>518.04</v>
+      </c>
+    </row>
+    <row r="19" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E19">
+        <v>3073.15</v>
+      </c>
+      <c r="F19" s="1">
+        <v>4085.145</v>
+      </c>
+    </row>
+    <row r="20" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E20">
+        <v>962.08</v>
+      </c>
+      <c r="F20">
+        <v>826.88</v>
+      </c>
+    </row>
+    <row r="21" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E21">
+        <v>687.38</v>
+      </c>
+      <c r="F21" s="2">
+        <v>428.81</v>
       </c>
     </row>
   </sheetData>
@@ -6112,10 +8270,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D40C461D-7357-B74D-B754-42BAF95E215B}">
-  <dimension ref="B3:E14"/>
+  <dimension ref="B3:E22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6125,13 +8283,13 @@
         <v>0</v>
       </c>
       <c r="C3" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="D3" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E3" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.2">
@@ -6139,102 +8297,116 @@
         <v>5</v>
       </c>
       <c r="C4">
-        <v>1269.26</v>
+        <v>1098</v>
       </c>
       <c r="D4">
-        <v>1073.3599999999999</v>
+        <v>1101.7</v>
       </c>
       <c r="E4">
-        <v>1098</v>
+        <v>1321.03</v>
       </c>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="C5">
-        <v>1364.54</v>
+        <v>605.55999999999995</v>
       </c>
       <c r="D5">
-        <v>1280.17</v>
+        <v>650.24</v>
       </c>
       <c r="E5">
-        <v>1298.8699999999999</v>
+        <v>547.6</v>
       </c>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="C6">
-        <v>1069.4000000000001</v>
-      </c>
-      <c r="D6">
-        <v>631.12</v>
+        <v>3073.15</v>
+      </c>
+      <c r="D6" s="1">
+        <v>5765.68</v>
       </c>
       <c r="E6">
-        <v>605.55999999999995</v>
+        <v>1438.03</v>
       </c>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C7">
-        <v>892.06</v>
+        <v>962.08</v>
       </c>
       <c r="D7">
-        <v>1228.4000000000001</v>
+        <v>999.26</v>
       </c>
       <c r="E7">
-        <v>858.28</v>
+        <v>999.26</v>
       </c>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="C8">
-        <v>1000</v>
+        <v>734.93</v>
       </c>
       <c r="D8">
-        <v>1499.71</v>
-      </c>
-      <c r="E8">
-        <v>687.38</v>
+        <v>557.49</v>
+      </c>
+      <c r="E8" s="1">
+        <v>1012.34</v>
       </c>
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C9">
-        <v>902.87</v>
+        <v>553.69000000000005</v>
       </c>
       <c r="D9">
         <v>634.6</v>
       </c>
       <c r="E9">
-        <v>553.69000000000005</v>
+        <v>902.87</v>
       </c>
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C10">
-        <v>914.68</v>
-      </c>
-      <c r="D10">
-        <v>914.68</v>
+        <v>687.38</v>
+      </c>
+      <c r="D10" s="1">
+        <v>1470.28</v>
       </c>
       <c r="E10">
-        <v>746.5</v>
+        <v>1277.04</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11">
+        <v>1330.2</v>
+      </c>
+      <c r="D11">
+        <v>1868.24</v>
+      </c>
+      <c r="E11" s="1">
+        <v>1868.24</v>
       </c>
     </row>
     <row r="13" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="E13">
         <f>10/16*100</f>
@@ -6243,11 +8415,332 @@
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
+        <v>19</v>
+      </c>
+      <c r="E14">
+        <f>9/16*100</f>
+        <v>56.25</v>
+      </c>
+    </row>
+    <row r="15" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="D15">
+        <v>1098</v>
+      </c>
+      <c r="E15">
+        <v>1321.03</v>
+      </c>
+    </row>
+    <row r="16" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="D16">
+        <v>605.55999999999995</v>
+      </c>
+      <c r="E16">
+        <v>547.6</v>
+      </c>
+    </row>
+    <row r="17" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D17">
+        <v>3073.15</v>
+      </c>
+      <c r="E17">
+        <v>1438.03</v>
+      </c>
+    </row>
+    <row r="18" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D18">
+        <v>962.08</v>
+      </c>
+      <c r="E18">
+        <v>999.26</v>
+      </c>
+    </row>
+    <row r="19" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D19">
+        <v>734.93</v>
+      </c>
+      <c r="E19" s="1">
+        <v>1012.34</v>
+      </c>
+    </row>
+    <row r="20" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D20">
+        <v>553.69000000000005</v>
+      </c>
+      <c r="E20">
+        <v>902.87</v>
+      </c>
+    </row>
+    <row r="21" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D21">
+        <v>687.38</v>
+      </c>
+      <c r="E21">
+        <v>1277.04</v>
+      </c>
+    </row>
+    <row r="22" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D22">
+        <v>1330.2</v>
+      </c>
+      <c r="E22" s="1">
+        <v>1868.24</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E7C7616-7C6F-424F-B66C-ACF31ECD38F4}">
+  <dimension ref="A3:D33"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5">
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6">
+        <v>-5.1999999999999998E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7">
+        <v>5.2999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9">
+        <v>8.3099999999999993E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10">
+        <v>0.115</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
         <v>23</v>
       </c>
-      <c r="E14">
-        <f>5/16*100</f>
-        <v>31.25</v>
+      <c r="B13" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C13" t="s">
+        <v>6</v>
+      </c>
+      <c r="D13" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B14" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C14">
+        <v>2733.16</v>
+      </c>
+      <c r="D14">
+        <v>1935.14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B15" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C15">
+        <v>2376.8000000000002</v>
+      </c>
+      <c r="D15">
+        <v>1471.51</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B16" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16">
+        <v>1602.07</v>
+      </c>
+      <c r="D16">
+        <v>860.9</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B17" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C17">
+        <v>1110.58</v>
+      </c>
+      <c r="D17">
+        <v>1006.45</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B18" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C18">
+        <v>3388.76</v>
+      </c>
+      <c r="D18">
+        <v>1233.3399999999999</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B19" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C19">
+        <v>533.70000000000005</v>
+      </c>
+      <c r="D19">
+        <v>1409.45</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B20" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C20">
+        <v>1345.6</v>
+      </c>
+      <c r="D20">
+        <v>1636.3</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B21" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C21">
+        <v>1828.72</v>
+      </c>
+      <c r="D21">
+        <v>1700.13</v>
+      </c>
+    </row>
+    <row r="26" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C26">
+        <v>2733.16</v>
+      </c>
+      <c r="D26">
+        <v>1935.14</v>
+      </c>
+    </row>
+    <row r="27" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C27">
+        <v>2376.8000000000002</v>
+      </c>
+      <c r="D27">
+        <v>1471.51</v>
+      </c>
+    </row>
+    <row r="28" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C28">
+        <v>1602.07</v>
+      </c>
+      <c r="D28">
+        <v>860.9</v>
+      </c>
+    </row>
+    <row r="29" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C29">
+        <v>1110.58</v>
+      </c>
+      <c r="D29">
+        <v>1006.45</v>
+      </c>
+    </row>
+    <row r="30" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C30">
+        <v>3388.76</v>
+      </c>
+      <c r="D30">
+        <v>1233.3399999999999</v>
+      </c>
+    </row>
+    <row r="31" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C31">
+        <v>533.70000000000005</v>
+      </c>
+      <c r="D31">
+        <v>1409.45</v>
+      </c>
+    </row>
+    <row r="32" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C32">
+        <v>1345.6</v>
+      </c>
+      <c r="D32">
+        <v>1636.3</v>
+      </c>
+    </row>
+    <row r="33" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C33">
+        <v>1828.72</v>
+      </c>
+      <c r="D33">
+        <v>1700.13</v>
       </c>
     </row>
   </sheetData>

--- a/TradingThesis/figures/Graphs.xlsx
+++ b/TradingThesis/figures/Graphs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/AlexT/Dropbox/SEN19R/FIRST/algorithmic-trading/TradingThesis/figures/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E0E3F08-7C14-0648-990C-F910099D9D0E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF784968-3097-3444-9917-82FA6FD39D3F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10500" yWindow="2160" windowWidth="27320" windowHeight="15540" activeTab="4" xr2:uid="{89AFD1CC-A762-DB4B-A433-05543C80086C}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" activeTab="5" xr2:uid="{89AFD1CC-A762-DB4B-A433-05543C80086C}"/>
   </bookViews>
   <sheets>
     <sheet name="Deep Learning" sheetId="4" r:id="rId1"/>
@@ -18,7 +18,56 @@
     <sheet name="COMPLEX" sheetId="2" r:id="rId3"/>
     <sheet name="BOOSTED" sheetId="3" r:id="rId4"/>
     <sheet name="Naive" sheetId="5" r:id="rId5"/>
+    <sheet name="Box Whiskers" sheetId="6" r:id="rId6"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlchart.v1.0" hidden="1">'Deep Learning'!$H$4</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">'Deep Learning'!$H$5:$H$20</definedName>
+    <definedName name="_xlchart.v1.10" hidden="1">COMPLEX!$M$2</definedName>
+    <definedName name="_xlchart.v1.11" hidden="1">COMPLEX!$M$3:$M$18</definedName>
+    <definedName name="_xlchart.v1.12" hidden="1">COMPLEX!$N$2</definedName>
+    <definedName name="_xlchart.v1.13" hidden="1">COMPLEX!$N$3:$N$18</definedName>
+    <definedName name="_xlchart.v1.14" hidden="1">COMPLEX!$O$2</definedName>
+    <definedName name="_xlchart.v1.15" hidden="1">COMPLEX!$O$3:$O$18</definedName>
+    <definedName name="_xlchart.v1.16" hidden="1">COMPLEX!$P$2</definedName>
+    <definedName name="_xlchart.v1.17" hidden="1">COMPLEX!$P$3:$P$18</definedName>
+    <definedName name="_xlchart.v1.18" hidden="1">'Box Whiskers'!$B$3</definedName>
+    <definedName name="_xlchart.v1.19" hidden="1">'Box Whiskers'!$B$4:$B$19</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">BASIC!$M$2</definedName>
+    <definedName name="_xlchart.v1.20" hidden="1">'Box Whiskers'!$C$3</definedName>
+    <definedName name="_xlchart.v1.21" hidden="1">'Box Whiskers'!$C$4:$C$19</definedName>
+    <definedName name="_xlchart.v1.22" hidden="1">'Box Whiskers'!$D$3</definedName>
+    <definedName name="_xlchart.v1.23" hidden="1">'Box Whiskers'!$D$4:$D$19</definedName>
+    <definedName name="_xlchart.v1.24" hidden="1">'Box Whiskers'!$E$3</definedName>
+    <definedName name="_xlchart.v1.25" hidden="1">'Box Whiskers'!$E$4:$E$19</definedName>
+    <definedName name="_xlchart.v1.26" hidden="1">'Box Whiskers'!$F$3</definedName>
+    <definedName name="_xlchart.v1.27" hidden="1">'Box Whiskers'!$F$4:$F$19</definedName>
+    <definedName name="_xlchart.v1.28" hidden="1">'Box Whiskers'!$G$3</definedName>
+    <definedName name="_xlchart.v1.29" hidden="1">'Box Whiskers'!$G$4:$G$19</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">BASIC!$M$3:$M$18</definedName>
+    <definedName name="_xlchart.v1.30" hidden="1">'Box Whiskers'!$H$3</definedName>
+    <definedName name="_xlchart.v1.31" hidden="1">'Box Whiskers'!$H$4:$H$19</definedName>
+    <definedName name="_xlchart.v1.32" hidden="1">'Box Whiskers'!$B$3</definedName>
+    <definedName name="_xlchart.v1.33" hidden="1">'Box Whiskers'!$B$4:$B$19</definedName>
+    <definedName name="_xlchart.v1.34" hidden="1">'Box Whiskers'!$C$3</definedName>
+    <definedName name="_xlchart.v1.35" hidden="1">'Box Whiskers'!$C$4:$C$19</definedName>
+    <definedName name="_xlchart.v1.36" hidden="1">'Box Whiskers'!$D$3</definedName>
+    <definedName name="_xlchart.v1.37" hidden="1">'Box Whiskers'!$D$4:$D$19</definedName>
+    <definedName name="_xlchart.v1.38" hidden="1">'Box Whiskers'!$E$3</definedName>
+    <definedName name="_xlchart.v1.39" hidden="1">'Box Whiskers'!$E$4:$E$19</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">BASIC!$N$2</definedName>
+    <definedName name="_xlchart.v1.40" hidden="1">'Box Whiskers'!$F$3</definedName>
+    <definedName name="_xlchart.v1.41" hidden="1">'Box Whiskers'!$F$4:$F$19</definedName>
+    <definedName name="_xlchart.v1.42" hidden="1">'Box Whiskers'!$G$3</definedName>
+    <definedName name="_xlchart.v1.43" hidden="1">'Box Whiskers'!$G$4:$G$19</definedName>
+    <definedName name="_xlchart.v1.44" hidden="1">'Box Whiskers'!$H$3</definedName>
+    <definedName name="_xlchart.v1.45" hidden="1">'Box Whiskers'!$H$4:$H$19</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">BASIC!$N$3:$N$18</definedName>
+    <definedName name="_xlchart.v1.6" hidden="1">BASIC!$O$2</definedName>
+    <definedName name="_xlchart.v1.7" hidden="1">BASIC!$O$3:$O$18</definedName>
+    <definedName name="_xlchart.v1.8" hidden="1">BASIC!$P$2</definedName>
+    <definedName name="_xlchart.v1.9" hidden="1">BASIC!$P$3:$P$18</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -35,7 +84,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="36">
   <si>
     <t>Stock</t>
   </si>
@@ -110,6 +159,39 @@
   </si>
   <si>
     <t>Naïve</t>
+  </si>
+  <si>
+    <t>HAS</t>
+  </si>
+  <si>
+    <t>QCOM</t>
+  </si>
+  <si>
+    <t>FB</t>
+  </si>
+  <si>
+    <t>GOOGL</t>
+  </si>
+  <si>
+    <t>INTC</t>
+  </si>
+  <si>
+    <t>MSFT</t>
+  </si>
+  <si>
+    <t>VOD</t>
+  </si>
+  <si>
+    <t>PYPL</t>
+  </si>
+  <si>
+    <t>Stocks</t>
+  </si>
+  <si>
+    <t>Stacking - Leniant</t>
+  </si>
+  <si>
+    <t>Stacking - Conservative</t>
   </si>
 </sst>
 </file>
@@ -278,11 +360,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Deep Learning'!$D$4</c:f>
+              <c:f>'Deep Learning'!$H$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Baseline</c:v>
+                  <c:v>Deep Learning</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -331,33 +413,33 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Deep Learning'!$D$5:$D$12</c:f>
+              <c:f>'Deep Learning'!$H$5:$H$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>964</c:v>
+                  <c:v>-10.859000000000004</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>554.09</c:v>
+                  <c:v>55.952999999999982</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2815.36</c:v>
+                  <c:v>-156.488</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>949.6</c:v>
+                  <c:v>11.673999999999989</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>760.28</c:v>
+                  <c:v>78.570999999999998</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>486.56</c:v>
+                  <c:v>0.98700000000000188</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>488.61</c:v>
+                  <c:v>-13.04999999999999</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1094.71</c:v>
+                  <c:v>-42.048999999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -365,101 +447,6 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-C854-A944-A89D-B455AE814826}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Deep Learning'!$E$4</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Deep Learning</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent2"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>'Deep Learning'!$C$5:$C$12</c:f>
-              <c:strCache>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>DIS</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>EBAY</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>AMD</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>COLM</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>SBUX</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>NKE</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>MNST</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>BIG</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Deep Learning'!$E$5:$E$12</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>855.41</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1113.6199999999999</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1250.48</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1066.3399999999999</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1545.99</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>496.43</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>358.11</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>674.22</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-C854-A944-A89D-B455AE814826}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -569,8 +556,13 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>Profit ($)</a:t>
+                  <a:t>Percentage</a:t>
                 </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> difference compared to baseline (%)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -800,11 +792,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>BASIC!$C$2</c:f>
+              <c:f>BASIC!$M$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Baseline</c:v>
+                  <c:v>MLP </c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -853,33 +845,33 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>BASIC!$C$3:$C$10</c:f>
+              <c:f>BASIC!$M$3:$M$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>1098</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>605.55999999999995</c:v>
+                  <c:v>0.11200000000000188</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>734.93</c:v>
+                  <c:v>26.507000000000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1330.2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>553.69000000000005</c:v>
+                  <c:v>-1.2349999999999994</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3073.15</c:v>
+                  <c:v>-187.77800000000002</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>962.08</c:v>
+                  <c:v>-5.1129999999999978</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>687.38</c:v>
+                  <c:v>31.262</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -895,11 +887,11 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>BASIC!$D$2</c:f>
+              <c:f>BASIC!$N$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>MLP </c:v>
+                  <c:v>Decision Tree</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -948,33 +940,33 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>BASIC!$D$3:$D$10</c:f>
+              <c:f>BASIC!$N$3:$N$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>1098</c:v>
+                  <c:v>20.771000000000004</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>606.67999999999995</c:v>
+                  <c:v>-11.468999999999987</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1000</c:v>
+                  <c:v>50.720000000000013</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1330.2</c:v>
+                  <c:v>-22.220000000000002</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>541.34</c:v>
+                  <c:v>39.579999999999991</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1195.3699999999999</c:v>
+                  <c:v>-181.11699999999999</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>910.95</c:v>
+                  <c:v>-21.908000000000001</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1000</c:v>
+                  <c:v>-3.3689999999999927</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -990,11 +982,11 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>BASIC!$E$2</c:f>
+              <c:f>BASIC!$O$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Decision Tree</c:v>
+                  <c:v>Kneighbors</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1043,33 +1035,33 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>BASIC!$E$3:$E$10</c:f>
+              <c:f>BASIC!$O$3:$O$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>1305.71</c:v>
+                  <c:v>-4.1000000000000005</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>490.87</c:v>
+                  <c:v>-8.0489999999999853</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1242.1300000000001</c:v>
+                  <c:v>-1.0669999999999966</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1108</c:v>
+                  <c:v>8.4789999999999992</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>949.49</c:v>
+                  <c:v>5.6509999999999962</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1261.98</c:v>
+                  <c:v>-59.103000000000009</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>743</c:v>
+                  <c:v>-21.424999999999997</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>653.69000000000005</c:v>
+                  <c:v>-6.6499999999999986</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1085,11 +1077,11 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>BASIC!$F$2</c:f>
+              <c:f>BASIC!$P$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Kneighbors</c:v>
+                  <c:v>Random Forest Regressor</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1138,33 +1130,33 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>BASIC!$F$3:$F$10</c:f>
+              <c:f>BASIC!$P$3:$P$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>1057</c:v>
+                  <c:v>-8.6529999999999987</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>525.07000000000005</c:v>
+                  <c:v>-7.5299999999999869</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>724.26</c:v>
+                  <c:v>-6.3895000000000017</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1414.99</c:v>
+                  <c:v>16.486999999999995</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>610.20000000000005</c:v>
+                  <c:v>-3.9530000000000101</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2482.12</c:v>
+                  <c:v>-45.680000000000007</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>747.83</c:v>
+                  <c:v>-31.856000000000009</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>620.88</c:v>
+                  <c:v>-3.4129999999999967</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1172,101 +1164,6 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-2161-CF48-B419-75BFA83210E5}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="4"/>
-          <c:order val="4"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>BASIC!$G$2</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Random Forest Regressor</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent5"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>BASIC!$B$3:$B$10</c:f>
-              <c:strCache>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>DIS</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>EBAY</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>SBUX</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>BIG</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>NKE</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>AMD</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>COLM</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>MNST</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>BASIC!$G$3:$G$10</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>1011.47</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>530.26</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>671.03499999999997</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1495.07</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>514.16</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2616.35</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>643.52</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>653.25</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-2161-CF48-B419-75BFA83210E5}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1375,9 +1272,14 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>Profit ($)</a:t>
+                  <a:rPr lang="en-US" sz="900" b="0" i="0" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>Percentage difference in profit compared to baseline (%)</a:t>
                 </a:r>
+                <a:endParaRPr lang="en-US" sz="900">
+                  <a:effectLst/>
+                </a:endParaRPr>
               </a:p>
             </c:rich>
           </c:tx>
@@ -1602,11 +1504,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>COMPLEX!$C$2</c:f>
+              <c:f>COMPLEX!$M$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Baseline</c:v>
+                  <c:v>MLP </c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1655,33 +1557,33 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>COMPLEX!$C$3:$C$10</c:f>
+              <c:f>COMPLEX!$M$3:$M$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>1098</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>605.55999999999995</c:v>
+                  <c:v>0.11200000000000188</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>734.93</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1330.2</c:v>
+                  <c:v>-33.020000000000003</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>553.69000000000005</c:v>
+                  <c:v>26</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3073.15</c:v>
+                  <c:v>-181.58199999999999</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>962.08</c:v>
+                  <c:v>3.7919999999999963</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>687.38</c:v>
+                  <c:v>78.292000000000002</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1697,11 +1599,11 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>COMPLEX!$D$2</c:f>
+              <c:f>COMPLEX!$N$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>MLP </c:v>
+                  <c:v>Decision Tree</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1750,33 +1652,33 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>COMPLEX!$D$3:$D$10</c:f>
+              <c:f>COMPLEX!$N$3:$N$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>1098</c:v>
+                  <c:v>12.867000000000004</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>606.67999999999995</c:v>
+                  <c:v>-0.27699999999999392</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>734.93</c:v>
+                  <c:v>34.778000000000006</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1000</c:v>
+                  <c:v>-13.094000000000005</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>813.69</c:v>
+                  <c:v>11.089999999999996</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1257.33</c:v>
+                  <c:v>321.82499999999999</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1000</c:v>
+                  <c:v>31.774999999999984</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1470.3</c:v>
+                  <c:v>110.29599999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1792,11 +1694,11 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>COMPLEX!$E$2</c:f>
+              <c:f>COMPLEX!$O$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Decision Tree</c:v>
+                  <c:v>Kneighbors</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1845,33 +1747,33 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>COMPLEX!$E$3:$E$10</c:f>
+              <c:f>COMPLEX!$O$3:$O$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>1226.67</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>602.79</c:v>
+                  <c:v>-4.0219999999999914</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1082.71</c:v>
+                  <c:v>-1.9000000000000021</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1199.26</c:v>
+                  <c:v>12.608999999999995</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>664.59</c:v>
+                  <c:v>6.2039999999999935</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6291.4</c:v>
+                  <c:v>46.171000000000021</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1279.83</c:v>
+                  <c:v>-1.1850000000000023</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1790.34</c:v>
+                  <c:v>-2.9070000000000036</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1887,11 +1789,11 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>COMPLEX!$F$2</c:f>
+              <c:f>COMPLEX!$P$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Kneighbors</c:v>
+                  <c:v>Random Forest Regressor</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1940,33 +1842,33 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>COMPLEX!$F$3:$F$10</c:f>
+              <c:f>COMPLEX!$P$3:$P$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>1098</c:v>
+                  <c:v>6.0099999999999909</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>565.34</c:v>
+                  <c:v>-6.6399999999999935</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>715.93</c:v>
+                  <c:v>-18.927000000000003</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1456.29</c:v>
+                  <c:v>55.629999999999988</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>615.73</c:v>
+                  <c:v>-3.5650000000000119</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3534.86</c:v>
+                  <c:v>101.1995</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>950.23</c:v>
+                  <c:v>-13.520000000000005</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>658.31</c:v>
+                  <c:v>-25.857000000000006</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1974,101 +1876,6 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-E165-314A-A257-CAB493F395A5}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="4"/>
-          <c:order val="4"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>COMPLEX!$G$2</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Random Forest Regressor</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent5"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>COMPLEX!$B$3:$B$10</c:f>
-              <c:strCache>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>DIS</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>EBAY</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>SBUX</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>BIG</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>NKE</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>AMD</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>COLM</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>MNST</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>COMPLEX!$G$3:$G$10</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>1158.0999999999999</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>539.16</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>545.66</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1886.5</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>518.04</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>4085.145</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>826.88</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>428.81</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-E165-314A-A257-CAB493F395A5}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2178,7 +1985,15 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>Profit ($)</a:t>
+                  <a:t>Percentage</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> difference in profit compared to baseline</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t> (%)</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -2398,11 +2213,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>BOOSTED!$C$3</c:f>
+              <c:f>BOOSTED!$I$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Baseline</c:v>
+                  <c:v>Leniant</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2477,33 +2292,33 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>BOOSTED!$C$4:$C$11</c:f>
+              <c:f>BOOSTED!$I$4:$I$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>1098</c:v>
+                  <c:v>0.37000000000000277</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>605.55999999999995</c:v>
+                  <c:v>4.4680000000000106</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3073.15</c:v>
+                  <c:v>269.25300000000004</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>962.08</c:v>
+                  <c:v>3.7179999999999955</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>734.93</c:v>
+                  <c:v>-17.744000000000003</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>553.69000000000005</c:v>
+                  <c:v>8.090999999999994</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>687.38</c:v>
+                  <c:v>78.289999999999992</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1330.2</c:v>
+                  <c:v>53.803999999999995</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2519,11 +2334,11 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>BOOSTED!$D$3</c:f>
+              <c:f>BOOSTED!$J$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Leniant</c:v>
+                  <c:v>Conservative</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2598,33 +2413,33 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>BOOSTED!$D$4:$D$11</c:f>
+              <c:f>BOOSTED!$J$4:$J$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>1101.7</c:v>
+                  <c:v>22.303000000000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>650.24</c:v>
+                  <c:v>-5.7959999999999852</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5765.68</c:v>
+                  <c:v>-163.512</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>999.26</c:v>
+                  <c:v>3.7179999999999955</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>557.49</c:v>
+                  <c:v>27.741000000000003</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>634.6</c:v>
+                  <c:v>34.917999999999992</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1470.28</c:v>
+                  <c:v>58.965999999999994</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1868.24</c:v>
+                  <c:v>53.803999999999995</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2632,127 +2447,6 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-D4B2-174C-A662-B4D78BDEB6EE}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>BOOSTED!$E$3</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Conservative</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:gradFill rotWithShape="1">
-              <a:gsLst>
-                <a:gs pos="0">
-                  <a:schemeClr val="accent3">
-                    <a:satMod val="103000"/>
-                    <a:lumMod val="102000"/>
-                    <a:tint val="94000"/>
-                  </a:schemeClr>
-                </a:gs>
-                <a:gs pos="50000">
-                  <a:schemeClr val="accent3">
-                    <a:satMod val="110000"/>
-                    <a:lumMod val="100000"/>
-                    <a:shade val="100000"/>
-                  </a:schemeClr>
-                </a:gs>
-                <a:gs pos="100000">
-                  <a:schemeClr val="accent3">
-                    <a:lumMod val="99000"/>
-                    <a:satMod val="120000"/>
-                    <a:shade val="78000"/>
-                  </a:schemeClr>
-                </a:gs>
-              </a:gsLst>
-              <a:lin ang="5400000" scaled="0"/>
-            </a:gradFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:delete val="1"/>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>BOOSTED!$B$4:$B$11</c:f>
-              <c:strCache>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>DIS</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>EBAY</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>AMD</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>COLM</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>SBUX</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>NKE</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>MNST</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>BIG</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>BOOSTED!$E$4:$E$11</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>1321.03</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>547.6</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1438.03</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>999.26</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1012.34</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>902.87</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1277.04</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1868.24</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-D4B2-174C-A662-B4D78BDEB6EE}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2856,14 +2550,14 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>Profit</a:t>
+                  <a:rPr lang="en-US" sz="900" b="0" i="0" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>Percentage difference in profit compared to baseline (%)</a:t>
                 </a:r>
-                <a:r>
-                  <a:rPr lang="en-US" baseline="0"/>
-                  <a:t> ($)</a:t>
-                </a:r>
-                <a:endParaRPr lang="en-US"/>
+                <a:endParaRPr lang="en-US" sz="900">
+                  <a:effectLst/>
+                </a:endParaRPr>
               </a:p>
             </c:rich>
           </c:tx>
@@ -3423,7 +3117,7 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US"/>
+              <a:rPr lang="en-US" b="1"/>
               <a:t>Naive Strategy</a:t>
             </a:r>
           </a:p>
@@ -3470,11 +3164,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Naive!$C$13</c:f>
+              <c:f>Naive!$G$13</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Baseline</c:v>
+                  <c:v>Naïve</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3523,33 +3217,33 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Naive!$C$14:$C$21</c:f>
+              <c:f>Naive!$G$14:$G$21</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>2733.16</c:v>
+                  <c:v>-79.801999999999964</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2376.8000000000002</c:v>
+                  <c:v>-90.529000000000039</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1602.07</c:v>
+                  <c:v>-74.11699999999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1110.58</c:v>
+                  <c:v>-10.412999999999988</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3388.76</c:v>
+                  <c:v>-215.54200000000003</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>533.70000000000005</c:v>
+                  <c:v>87.574999999999989</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1345.6</c:v>
+                  <c:v>29.070000000000007</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1828.72</c:v>
+                  <c:v>-12.85899999999998</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3557,101 +3251,6 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-4DEA-C44F-9DF8-05C5D3B7FA84}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Naive!$D$13</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Naïve</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent2"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>Naive!$B$14:$B$21</c:f>
-              <c:strCache>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>DIS</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>EBAY</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>AMD</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>COLM</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>SBUX</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>NKE</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>MNST</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>BIG</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Naive!$D$14:$D$21</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>1935.14</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1471.51</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>860.9</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1006.45</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1233.3399999999999</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1409.45</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1636.3</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1700.13</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-4DEA-C44F-9DF8-05C5D3B7FA84}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3761,8 +3360,13 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>Profit ($)</a:t>
+                  <a:t>Percentage</a:t>
                 </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> different of profit compared to baseline (%)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -3906,7 +3510,507 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chartEx1.xml><?xml version="1.0" encoding="utf-8"?>
+<cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
+  <cx:chartData>
+    <cx:data id="0">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.1</cx:f>
+      </cx:numDim>
+    </cx:data>
+  </cx:chartData>
+  <cx:chart>
+    <cx:title pos="t" align="ctr" overlay="0">
+      <cx:tx>
+        <cx:txData>
+          <cx:v>Deep Learning</cx:v>
+        </cx:txData>
+      </cx:tx>
+      <cx:txPr>
+        <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr" rtl="0">
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:sysClr>
+              </a:solidFill>
+              <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+            </a:rPr>
+            <a:t>Deep Learning</a:t>
+          </a:r>
+        </a:p>
+      </cx:txPr>
+    </cx:title>
+    <cx:plotArea>
+      <cx:plotAreaRegion>
+        <cx:series layoutId="boxWhisker" uniqueId="{D5DDCAC8-C5CC-4D4C-BC26-E409BD59EB48}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.0</cx:f>
+              <cx:v>Deep Learning</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="0"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+      </cx:plotAreaRegion>
+      <cx:axis id="0">
+        <cx:catScaling gapWidth="1"/>
+        <cx:tickLabels/>
+      </cx:axis>
+      <cx:axis id="1">
+        <cx:valScaling/>
+        <cx:majorGridlines/>
+        <cx:tickLabels/>
+      </cx:axis>
+    </cx:plotArea>
+  </cx:chart>
+</cx:chartSpace>
+</file>
+
+<file path=xl/charts/chartEx2.xml><?xml version="1.0" encoding="utf-8"?>
+<cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
+  <cx:chartData>
+    <cx:data id="0">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.3</cx:f>
+      </cx:numDim>
+    </cx:data>
+    <cx:data id="1">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.5</cx:f>
+      </cx:numDim>
+    </cx:data>
+    <cx:data id="2">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.7</cx:f>
+      </cx:numDim>
+    </cx:data>
+    <cx:data id="3">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.9</cx:f>
+      </cx:numDim>
+    </cx:data>
+  </cx:chartData>
+  <cx:chart>
+    <cx:title pos="t" align="ctr" overlay="0"/>
+    <cx:plotArea>
+      <cx:plotAreaRegion>
+        <cx:series layoutId="boxWhisker" uniqueId="{A8CD7D98-9723-6644-ABE7-5FC6912F477C}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.2</cx:f>
+              <cx:v>MLP </cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="0"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+        <cx:series layoutId="boxWhisker" uniqueId="{4E8E88BD-0D06-8547-AB45-6479FDF6A8F7}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.4</cx:f>
+              <cx:v>Decision Tree</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="1"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+        <cx:series layoutId="boxWhisker" uniqueId="{DFF0B301-8918-874A-8F3E-5B320DE999D2}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.6</cx:f>
+              <cx:v>Kneighbors</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="2"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+        <cx:series layoutId="boxWhisker" uniqueId="{CED97C88-589E-B94B-A935-0E85F0489FD5}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.8</cx:f>
+              <cx:v>Random Forest Regressor</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="3"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+      </cx:plotAreaRegion>
+      <cx:axis id="0">
+        <cx:catScaling gapWidth="1.5"/>
+        <cx:tickLabels/>
+      </cx:axis>
+      <cx:axis id="1">
+        <cx:valScaling/>
+        <cx:majorGridlines/>
+        <cx:majorTickMarks type="out"/>
+        <cx:tickLabels/>
+      </cx:axis>
+    </cx:plotArea>
+    <cx:legend pos="r" align="ctr" overlay="0"/>
+  </cx:chart>
+</cx:chartSpace>
+</file>
+
+<file path=xl/charts/chartEx3.xml><?xml version="1.0" encoding="utf-8"?>
+<cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
+  <cx:chartData>
+    <cx:data id="0">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.11</cx:f>
+      </cx:numDim>
+    </cx:data>
+    <cx:data id="1">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.13</cx:f>
+      </cx:numDim>
+    </cx:data>
+    <cx:data id="2">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.15</cx:f>
+      </cx:numDim>
+    </cx:data>
+    <cx:data id="3">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.17</cx:f>
+      </cx:numDim>
+    </cx:data>
+  </cx:chartData>
+  <cx:chart>
+    <cx:plotArea>
+      <cx:plotAreaRegion>
+        <cx:series layoutId="boxWhisker" uniqueId="{C755C67B-0711-904E-A195-3A9B36BE0461}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.10</cx:f>
+              <cx:v>MLP </cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="0"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+        <cx:series layoutId="boxWhisker" uniqueId="{2CFCE005-C663-AB4F-AD9C-3C14A69C8646}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.12</cx:f>
+              <cx:v>Decision Tree</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="1"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+        <cx:series layoutId="boxWhisker" uniqueId="{46F179CD-0286-AB45-AAB8-822EC8D454C8}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.14</cx:f>
+              <cx:v>Kneighbors</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="2"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+        <cx:series layoutId="boxWhisker" uniqueId="{CED7934A-F7D7-4842-BA29-AA2321CDF511}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.16</cx:f>
+              <cx:v>Random Forest Regressor</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="3"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+      </cx:plotAreaRegion>
+      <cx:axis id="0">
+        <cx:catScaling gapWidth="1.5"/>
+        <cx:tickLabels/>
+      </cx:axis>
+      <cx:axis id="1">
+        <cx:valScaling/>
+        <cx:majorGridlines/>
+        <cx:majorTickMarks type="out"/>
+        <cx:tickLabels/>
+      </cx:axis>
+    </cx:plotArea>
+    <cx:legend pos="r" align="ctr" overlay="0"/>
+  </cx:chart>
+</cx:chartSpace>
+</file>
+
+<file path=xl/charts/chartEx4.xml><?xml version="1.0" encoding="utf-8"?>
+<cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
+  <cx:chartData>
+    <cx:data id="0">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.33</cx:f>
+      </cx:numDim>
+    </cx:data>
+    <cx:data id="1">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.35</cx:f>
+      </cx:numDim>
+    </cx:data>
+    <cx:data id="2">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.37</cx:f>
+      </cx:numDim>
+    </cx:data>
+    <cx:data id="3">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.39</cx:f>
+      </cx:numDim>
+    </cx:data>
+    <cx:data id="4">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.41</cx:f>
+      </cx:numDim>
+    </cx:data>
+    <cx:data id="5">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.43</cx:f>
+      </cx:numDim>
+    </cx:data>
+    <cx:data id="6">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.45</cx:f>
+      </cx:numDim>
+    </cx:data>
+  </cx:chartData>
+  <cx:chart>
+    <cx:title pos="t" align="ctr" overlay="0">
+      <cx:tx>
+        <cx:txData>
+          <cx:v>Twitter Sentiment All Stocks and Strategies</cx:v>
+        </cx:txData>
+      </cx:tx>
+      <cx:txPr>
+        <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr" rtl="0">
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:sysClr>
+              </a:solidFill>
+              <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+            </a:rPr>
+            <a:t>Twitter Sentiment All Stocks and Strategies</a:t>
+          </a:r>
+        </a:p>
+      </cx:txPr>
+    </cx:title>
+    <cx:plotArea>
+      <cx:plotAreaRegion>
+        <cx:series layoutId="boxWhisker" uniqueId="{BB969C1D-286F-734D-B86F-A83F8F0D36F3}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.32</cx:f>
+              <cx:v>Deep Learning</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="0"/>
+          <cx:layoutPr>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+        <cx:series layoutId="boxWhisker" uniqueId="{3C810FD7-E6F9-C745-B523-C63184A1A6D3}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.34</cx:f>
+              <cx:v>MLP </cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="1"/>
+          <cx:layoutPr>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+        <cx:series layoutId="boxWhisker" uniqueId="{E26BB306-F060-9D4D-9228-9978D1C87D1D}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.36</cx:f>
+              <cx:v>Decision Tree</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="2"/>
+          <cx:layoutPr>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+        <cx:series layoutId="boxWhisker" uniqueId="{B8B0E4E8-F7CD-9B40-99A0-7AB82024FB7E}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.38</cx:f>
+              <cx:v>Kneighbors</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="3"/>
+          <cx:layoutPr>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+        <cx:series layoutId="boxWhisker" uniqueId="{D5915736-4504-A84F-A429-C9459CBA45B4}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.40</cx:f>
+              <cx:v>Random Forest Regressor</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="4"/>
+          <cx:layoutPr>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+        <cx:series layoutId="boxWhisker" uniqueId="{1A79CA4F-C67E-EC43-BB1C-F914597901F2}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.42</cx:f>
+              <cx:v>Stacking - Leniant</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="5"/>
+          <cx:layoutPr>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+        <cx:series layoutId="boxWhisker" uniqueId="{FBECB291-9009-FC41-9082-552A1DA5D815}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.44</cx:f>
+              <cx:v>Stacking - Conservative</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="6"/>
+          <cx:layoutPr>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+      </cx:plotAreaRegion>
+      <cx:axis id="0" hidden="1">
+        <cx:catScaling gapWidth="1.5"/>
+        <cx:tickLabels/>
+      </cx:axis>
+      <cx:axis id="1">
+        <cx:valScaling max="300" min="-300"/>
+        <cx:title>
+          <cx:tx>
+            <cx:txData>
+              <cx:v>Percentage difference of strategy and baseline perfromance (%)</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:txPr>
+            <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="ctr" rtl="0">
+                <a:defRPr/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:sysClr>
+                  </a:solidFill>
+                  <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+                </a:rPr>
+                <a:t>Percentage difference of strategy and baseline perfromance (%)</a:t>
+              </a:r>
+            </a:p>
+          </cx:txPr>
+        </cx:title>
+        <cx:majorGridlines/>
+        <cx:majorTickMarks type="out"/>
+        <cx:tickLabels/>
+      </cx:axis>
+    </cx:plotArea>
+    <cx:legend pos="r" align="ctr" overlay="0"/>
+  </cx:chart>
+</cx:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors10.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -4146,6 +4250,126 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors9.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
@@ -4649,7 +4873,1037 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style10.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="406">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat">
+        <a:solidFill>
+          <a:srgbClr val="D9D9D9"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="406">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat">
+        <a:solidFill>
+          <a:srgbClr val="D9D9D9"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -5152,7 +6406,522 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="406">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat">
+        <a:solidFill>
+          <a:srgbClr val="D9D9D9"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -5655,7 +7424,522 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="406">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat">
+        <a:solidFill>
+          <a:srgbClr val="D9D9D9"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="207">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -6124,7 +8408,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -6627,7 +8911,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style9.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -7134,16 +9418,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>628650</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>101600</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>800100</xdr:colOff>
       <xdr:row>25</xdr:row>
-      <xdr:rowOff>72220</xdr:rowOff>
+      <xdr:rowOff>173820</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -7168,6 +9452,84 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>673100</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>292100</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="4" name="Chart 3">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6A755FC9-3E47-C444-B68F-D1D5AFD6BF79}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2014/chartex">
+              <cx:chart xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="2324100" y="4165600"/>
+              <a:ext cx="4572000" cy="2743200"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100"/>
+                <a:t>This chart isn't available in your version of Excel.
+Editing this shape or saving this workbook into a different file format will permanently break the chart.</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -7175,16 +9537,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>628650</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>6350</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>279400</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>158750</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>482600</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>6350</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -7209,6 +9571,84 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>444500</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>139700</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>172720</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="3" name="Chart 2">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A28A0A9F-6FDA-3041-BD41-74D9D185A280}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2014/chartex">
+              <cx:chart xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="1270000" y="4635500"/>
+              <a:ext cx="7124700" cy="4274820"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100"/>
+                <a:t>This chart isn't available in your version of Excel.
+Editing this shape or saving this workbook into a different file format will permanently break the chart.</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -7217,15 +9657,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>368299</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>50799</xdr:rowOff>
+      <xdr:colOff>139699</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>177799</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>17780</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>635000</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>144780</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -7250,6 +9690,84 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>596900</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>736600</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="4" name="Chart 3">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A8206628-0A86-8944-B73D-65A9A2A245D9}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2014/chartex">
+              <cx:chart xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="5549900" y="4025900"/>
+              <a:ext cx="8394700" cy="5036820"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100"/>
+                <a:t>This chart isn't available in your version of Excel.
+Editing this shape or saving this workbook into a different file format will permanently break the chart.</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -7257,16 +9775,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>228600</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>660400</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>160020</xdr:rowOff>
+      <xdr:rowOff>96520</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>546100</xdr:colOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
       <xdr:row>27</xdr:row>
-      <xdr:rowOff>134620</xdr:rowOff>
+      <xdr:rowOff>71120</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -7299,15 +9817,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>222250</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>412750</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>165100</xdr:rowOff>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -7334,16 +9852,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>594783</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>177800</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>429683</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>785283</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>620183</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -7366,6 +9884,89 @@
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>774700</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>249767</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="2" name="Chart 1">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{166A224B-024C-404D-9172-9D9A1408657D}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2014/chartex">
+              <cx:chart xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="1600200" y="1651000"/>
+              <a:ext cx="9482667" cy="5689600"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100"/>
+                <a:t>This chart isn't available in your version of Excel.
+Editing this shape or saving this workbook into a different file format will permanently break the chart.</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -7668,15 +10269,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{824EFFB3-869D-EC47-A240-E77CAF62F432}">
-  <dimension ref="C4:E12"/>
+  <dimension ref="C4:H20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+    <sheetView topLeftCell="B2" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13:C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="4" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C4" t="s">
         <v>0</v>
       </c>
@@ -7686,8 +10287,17 @@
       <c r="E4" t="s">
         <v>21</v>
       </c>
+      <c r="F4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H4" t="s">
+        <v>21</v>
+      </c>
     </row>
-    <row r="5" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C5" t="s">
         <v>5</v>
       </c>
@@ -7697,8 +10307,20 @@
       <c r="E5">
         <v>855.41</v>
       </c>
+      <c r="F5">
+        <f>(D5-1000)/1000*100</f>
+        <v>-3.5999999999999996</v>
+      </c>
+      <c r="G5">
+        <f>(E5-1000)/1000*100</f>
+        <v>-14.459000000000003</v>
+      </c>
+      <c r="H5">
+        <f>G5-F5</f>
+        <v>-10.859000000000004</v>
+      </c>
     </row>
-    <row r="6" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C6" t="s">
         <v>16</v>
       </c>
@@ -7708,8 +10330,20 @@
       <c r="E6">
         <v>1113.6199999999999</v>
       </c>
+      <c r="F6">
+        <f t="shared" ref="F6:F12" si="0">(D6-1000)/1000*100</f>
+        <v>-44.590999999999994</v>
+      </c>
+      <c r="G6">
+        <f t="shared" ref="G6:G12" si="1">(E6-1000)/1000*100</f>
+        <v>11.361999999999989</v>
+      </c>
+      <c r="H6">
+        <f t="shared" ref="H6:H20" si="2">G6-F6</f>
+        <v>55.952999999999982</v>
+      </c>
     </row>
-    <row r="7" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C7" t="s">
         <v>10</v>
       </c>
@@ -7719,8 +10353,20 @@
       <c r="E7">
         <v>1250.48</v>
       </c>
+      <c r="F7">
+        <f t="shared" si="0"/>
+        <v>181.536</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="1"/>
+        <v>25.048000000000002</v>
+      </c>
+      <c r="H7">
+        <f t="shared" si="2"/>
+        <v>-156.488</v>
+      </c>
     </row>
-    <row r="8" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C8" t="s">
         <v>11</v>
       </c>
@@ -7730,8 +10376,20 @@
       <c r="E8">
         <v>1066.3399999999999</v>
       </c>
+      <c r="F8">
+        <f t="shared" si="0"/>
+        <v>-5.0399999999999983</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="1"/>
+        <v>6.6339999999999915</v>
+      </c>
+      <c r="H8">
+        <f t="shared" si="2"/>
+        <v>11.673999999999989</v>
+      </c>
     </row>
-    <row r="9" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C9" t="s">
         <v>7</v>
       </c>
@@ -7741,8 +10399,20 @@
       <c r="E9">
         <v>1545.99</v>
       </c>
+      <c r="F9">
+        <f t="shared" si="0"/>
+        <v>-23.972000000000001</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="1"/>
+        <v>54.598999999999997</v>
+      </c>
+      <c r="H9">
+        <f t="shared" si="2"/>
+        <v>78.570999999999998</v>
+      </c>
     </row>
-    <row r="10" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C10" t="s">
         <v>9</v>
       </c>
@@ -7752,8 +10422,20 @@
       <c r="E10">
         <v>496.43</v>
       </c>
+      <c r="F10">
+        <f t="shared" si="0"/>
+        <v>-51.344000000000001</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="1"/>
+        <v>-50.356999999999999</v>
+      </c>
+      <c r="H10">
+        <f t="shared" si="2"/>
+        <v>0.98700000000000188</v>
+      </c>
     </row>
-    <row r="11" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C11" t="s">
         <v>17</v>
       </c>
@@ -7763,8 +10445,20 @@
       <c r="E11">
         <v>358.11</v>
       </c>
+      <c r="F11">
+        <f t="shared" si="0"/>
+        <v>-51.139000000000003</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="1"/>
+        <v>-64.188999999999993</v>
+      </c>
+      <c r="H11">
+        <f t="shared" si="2"/>
+        <v>-13.04999999999999</v>
+      </c>
     </row>
-    <row r="12" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C12" t="s">
         <v>8</v>
       </c>
@@ -7773,6 +10467,202 @@
       </c>
       <c r="E12">
         <v>674.22</v>
+      </c>
+      <c r="F12">
+        <f t="shared" si="0"/>
+        <v>9.4710000000000036</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="1"/>
+        <v>-32.577999999999996</v>
+      </c>
+      <c r="H12">
+        <f t="shared" si="2"/>
+        <v>-42.048999999999999</v>
+      </c>
+    </row>
+    <row r="13" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13">
+        <v>1341.02</v>
+      </c>
+      <c r="E13">
+        <v>1034.8399999999999</v>
+      </c>
+      <c r="F13">
+        <f t="shared" ref="F13:G20" si="3">(D13-1000)/1000*100</f>
+        <v>34.101999999999997</v>
+      </c>
+      <c r="G13">
+        <f t="shared" si="3"/>
+        <v>3.483999999999992</v>
+      </c>
+      <c r="H13">
+        <f t="shared" si="2"/>
+        <v>-30.618000000000006</v>
+      </c>
+    </row>
+    <row r="14" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14">
+        <v>911.47</v>
+      </c>
+      <c r="E14">
+        <v>964.16</v>
+      </c>
+      <c r="F14">
+        <f t="shared" si="3"/>
+        <v>-8.8529999999999962</v>
+      </c>
+      <c r="G14">
+        <f t="shared" si="3"/>
+        <v>-3.5840000000000032</v>
+      </c>
+      <c r="H14">
+        <f t="shared" si="2"/>
+        <v>5.268999999999993</v>
+      </c>
+    </row>
+    <row r="15" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C15" t="s">
+        <v>27</v>
+      </c>
+      <c r="D15">
+        <v>1216</v>
+      </c>
+      <c r="E15">
+        <v>1285.54</v>
+      </c>
+      <c r="F15">
+        <f t="shared" si="3"/>
+        <v>21.6</v>
+      </c>
+      <c r="G15">
+        <f t="shared" si="3"/>
+        <v>28.553999999999995</v>
+      </c>
+      <c r="H15">
+        <f t="shared" si="2"/>
+        <v>6.9539999999999935</v>
+      </c>
+    </row>
+    <row r="16" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C16" t="s">
+        <v>28</v>
+      </c>
+      <c r="D16">
+        <v>1199.75</v>
+      </c>
+      <c r="E16">
+        <v>990.9</v>
+      </c>
+      <c r="F16">
+        <f t="shared" si="3"/>
+        <v>19.975000000000001</v>
+      </c>
+      <c r="G16">
+        <f t="shared" si="3"/>
+        <v>-0.91000000000000225</v>
+      </c>
+      <c r="H16">
+        <f t="shared" si="2"/>
+        <v>-20.885000000000005</v>
+      </c>
+    </row>
+    <row r="17" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C17" t="s">
+        <v>29</v>
+      </c>
+      <c r="D17">
+        <v>1055.97</v>
+      </c>
+      <c r="E17">
+        <v>1024.4000000000001</v>
+      </c>
+      <c r="F17">
+        <f t="shared" si="3"/>
+        <v>5.5970000000000031</v>
+      </c>
+      <c r="G17">
+        <f t="shared" si="3"/>
+        <v>2.4400000000000093</v>
+      </c>
+      <c r="H17">
+        <f t="shared" si="2"/>
+        <v>-3.1569999999999938</v>
+      </c>
+    </row>
+    <row r="18" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C18" t="s">
+        <v>30</v>
+      </c>
+      <c r="D18">
+        <v>1376.64</v>
+      </c>
+      <c r="E18">
+        <v>1252.45</v>
+      </c>
+      <c r="F18">
+        <f t="shared" si="3"/>
+        <v>37.664000000000009</v>
+      </c>
+      <c r="G18">
+        <f t="shared" si="3"/>
+        <v>25.245000000000005</v>
+      </c>
+      <c r="H18">
+        <f t="shared" si="2"/>
+        <v>-12.419000000000004</v>
+      </c>
+    </row>
+    <row r="19" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C19" t="s">
+        <v>31</v>
+      </c>
+      <c r="D19">
+        <v>739.3</v>
+      </c>
+      <c r="E19">
+        <v>874.5</v>
+      </c>
+      <c r="F19">
+        <f t="shared" si="3"/>
+        <v>-26.070000000000004</v>
+      </c>
+      <c r="G19">
+        <f t="shared" si="3"/>
+        <v>-12.55</v>
+      </c>
+      <c r="H19">
+        <f t="shared" si="2"/>
+        <v>13.520000000000003</v>
+      </c>
+    </row>
+    <row r="20" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C20" t="s">
+        <v>32</v>
+      </c>
+      <c r="D20">
+        <v>973.2</v>
+      </c>
+      <c r="E20">
+        <v>990.05</v>
+      </c>
+      <c r="F20">
+        <f t="shared" si="3"/>
+        <v>-2.6799999999999957</v>
+      </c>
+      <c r="G20">
+        <f t="shared" si="3"/>
+        <v>-0.99500000000000455</v>
+      </c>
+      <c r="H20">
+        <f t="shared" si="2"/>
+        <v>1.6849999999999912</v>
       </c>
     </row>
   </sheetData>
@@ -7783,20 +10673,20 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7FD5C0D-1C6A-1642-B57F-BC4720855C29}">
-  <dimension ref="B1:G16"/>
+  <dimension ref="A1:P18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>0</v>
       </c>
@@ -7815,8 +10705,35 @@
       <c r="G2" t="s">
         <v>1</v>
       </c>
+      <c r="H2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I2" t="s">
+        <v>2</v>
+      </c>
+      <c r="J2" t="s">
+        <v>3</v>
+      </c>
+      <c r="K2" t="s">
+        <v>4</v>
+      </c>
+      <c r="L2" t="s">
+        <v>1</v>
+      </c>
+      <c r="M2" t="s">
+        <v>2</v>
+      </c>
+      <c r="N2" t="s">
+        <v>3</v>
+      </c>
+      <c r="O2" t="s">
+        <v>4</v>
+      </c>
+      <c r="P2" t="s">
+        <v>1</v>
+      </c>
     </row>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
         <v>5</v>
       </c>
@@ -7835,8 +10752,44 @@
       <c r="G3">
         <v>1011.47</v>
       </c>
+      <c r="H3">
+        <f>(C3-1000)/1000*100</f>
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="I3">
+        <f t="shared" ref="I3:L3" si="0">(D3-1000)/1000*100</f>
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="J3">
+        <f t="shared" si="0"/>
+        <v>30.571000000000005</v>
+      </c>
+      <c r="K3">
+        <f t="shared" si="0"/>
+        <v>5.7</v>
+      </c>
+      <c r="L3">
+        <f t="shared" si="0"/>
+        <v>1.1470000000000027</v>
+      </c>
+      <c r="M3">
+        <f>I3-$H3</f>
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <f t="shared" ref="N3:P3" si="1">J3-$H3</f>
+        <v>20.771000000000004</v>
+      </c>
+      <c r="O3">
+        <f t="shared" si="1"/>
+        <v>-4.1000000000000005</v>
+      </c>
+      <c r="P3">
+        <f t="shared" si="1"/>
+        <v>-8.6529999999999987</v>
+      </c>
     </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>16</v>
       </c>
@@ -7855,8 +10808,44 @@
       <c r="G4" s="2">
         <v>530.26</v>
       </c>
+      <c r="H4">
+        <f t="shared" ref="H4:H10" si="2">(C4-1000)/1000*100</f>
+        <v>-39.44400000000001</v>
+      </c>
+      <c r="I4">
+        <f t="shared" ref="I4:I10" si="3">(D4-1000)/1000*100</f>
+        <v>-39.332000000000008</v>
+      </c>
+      <c r="J4">
+        <f t="shared" ref="J4:J10" si="4">(E4-1000)/1000*100</f>
+        <v>-50.912999999999997</v>
+      </c>
+      <c r="K4">
+        <f t="shared" ref="K4:K10" si="5">(F4-1000)/1000*100</f>
+        <v>-47.492999999999995</v>
+      </c>
+      <c r="L4">
+        <f t="shared" ref="L4:L10" si="6">(G4-1000)/1000*100</f>
+        <v>-46.973999999999997</v>
+      </c>
+      <c r="M4">
+        <f t="shared" ref="M4:M10" si="7">I4-$H4</f>
+        <v>0.11200000000000188</v>
+      </c>
+      <c r="N4">
+        <f t="shared" ref="N4:N10" si="8">J4-$H4</f>
+        <v>-11.468999999999987</v>
+      </c>
+      <c r="O4">
+        <f t="shared" ref="O4:O10" si="9">K4-$H4</f>
+        <v>-8.0489999999999853</v>
+      </c>
+      <c r="P4">
+        <f t="shared" ref="P4:P10" si="10">L4-$H4</f>
+        <v>-7.5299999999999869</v>
+      </c>
     </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B5" s="3" t="s">
         <v>7</v>
       </c>
@@ -7875,8 +10864,44 @@
       <c r="G5">
         <v>671.03499999999997</v>
       </c>
+      <c r="H5">
+        <f t="shared" si="2"/>
+        <v>-26.507000000000001</v>
+      </c>
+      <c r="I5">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <f t="shared" si="4"/>
+        <v>24.213000000000012</v>
+      </c>
+      <c r="K5">
+        <f t="shared" si="5"/>
+        <v>-27.573999999999998</v>
+      </c>
+      <c r="L5">
+        <f t="shared" si="6"/>
+        <v>-32.896500000000003</v>
+      </c>
+      <c r="M5">
+        <f t="shared" si="7"/>
+        <v>26.507000000000001</v>
+      </c>
+      <c r="N5">
+        <f t="shared" si="8"/>
+        <v>50.720000000000013</v>
+      </c>
+      <c r="O5">
+        <f t="shared" si="9"/>
+        <v>-1.0669999999999966</v>
+      </c>
+      <c r="P5">
+        <f t="shared" si="10"/>
+        <v>-6.3895000000000017</v>
+      </c>
     </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
         <v>8</v>
       </c>
@@ -7895,8 +10920,44 @@
       <c r="G6" s="1">
         <v>1495.07</v>
       </c>
+      <c r="H6">
+        <f t="shared" si="2"/>
+        <v>33.020000000000003</v>
+      </c>
+      <c r="I6">
+        <f t="shared" si="3"/>
+        <v>33.020000000000003</v>
+      </c>
+      <c r="J6">
+        <f t="shared" si="4"/>
+        <v>10.8</v>
+      </c>
+      <c r="K6">
+        <f t="shared" si="5"/>
+        <v>41.499000000000002</v>
+      </c>
+      <c r="L6">
+        <f t="shared" si="6"/>
+        <v>49.506999999999998</v>
+      </c>
+      <c r="M6">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <f t="shared" si="8"/>
+        <v>-22.220000000000002</v>
+      </c>
+      <c r="O6">
+        <f t="shared" si="9"/>
+        <v>8.4789999999999992</v>
+      </c>
+      <c r="P6">
+        <f t="shared" si="10"/>
+        <v>16.486999999999995</v>
+      </c>
     </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
         <v>9</v>
       </c>
@@ -7915,8 +10976,44 @@
       <c r="G7">
         <v>514.16</v>
       </c>
+      <c r="H7">
+        <f t="shared" si="2"/>
+        <v>-44.630999999999993</v>
+      </c>
+      <c r="I7">
+        <f t="shared" si="3"/>
+        <v>-45.865999999999993</v>
+      </c>
+      <c r="J7">
+        <f t="shared" si="4"/>
+        <v>-5.0509999999999993</v>
+      </c>
+      <c r="K7">
+        <f t="shared" si="5"/>
+        <v>-38.979999999999997</v>
+      </c>
+      <c r="L7">
+        <f t="shared" si="6"/>
+        <v>-48.584000000000003</v>
+      </c>
+      <c r="M7">
+        <f t="shared" si="7"/>
+        <v>-1.2349999999999994</v>
+      </c>
+      <c r="N7">
+        <f t="shared" si="8"/>
+        <v>39.579999999999991</v>
+      </c>
+      <c r="O7">
+        <f t="shared" si="9"/>
+        <v>5.6509999999999962</v>
+      </c>
+      <c r="P7">
+        <f t="shared" si="10"/>
+        <v>-3.9530000000000101</v>
+      </c>
     </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
         <v>10</v>
       </c>
@@ -7935,8 +11032,44 @@
       <c r="G8">
         <v>2616.35</v>
       </c>
+      <c r="H8">
+        <f t="shared" si="2"/>
+        <v>207.315</v>
+      </c>
+      <c r="I8">
+        <f t="shared" si="3"/>
+        <v>19.536999999999988</v>
+      </c>
+      <c r="J8">
+        <f t="shared" si="4"/>
+        <v>26.198</v>
+      </c>
+      <c r="K8">
+        <f t="shared" si="5"/>
+        <v>148.21199999999999</v>
+      </c>
+      <c r="L8">
+        <f t="shared" si="6"/>
+        <v>161.63499999999999</v>
+      </c>
+      <c r="M8">
+        <f t="shared" si="7"/>
+        <v>-187.77800000000002</v>
+      </c>
+      <c r="N8">
+        <f t="shared" si="8"/>
+        <v>-181.11699999999999</v>
+      </c>
+      <c r="O8">
+        <f t="shared" si="9"/>
+        <v>-59.103000000000009</v>
+      </c>
+      <c r="P8">
+        <f t="shared" si="10"/>
+        <v>-45.680000000000007</v>
+      </c>
     </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
         <v>11</v>
       </c>
@@ -7955,8 +11088,44 @@
       <c r="G9">
         <v>643.52</v>
       </c>
+      <c r="H9">
+        <f t="shared" si="2"/>
+        <v>-3.7919999999999963</v>
+      </c>
+      <c r="I9">
+        <f t="shared" si="3"/>
+        <v>-8.904999999999994</v>
+      </c>
+      <c r="J9">
+        <f t="shared" si="4"/>
+        <v>-25.7</v>
+      </c>
+      <c r="K9">
+        <f t="shared" si="5"/>
+        <v>-25.216999999999995</v>
+      </c>
+      <c r="L9">
+        <f t="shared" si="6"/>
+        <v>-35.648000000000003</v>
+      </c>
+      <c r="M9">
+        <f t="shared" si="7"/>
+        <v>-5.1129999999999978</v>
+      </c>
+      <c r="N9">
+        <f t="shared" si="8"/>
+        <v>-21.908000000000001</v>
+      </c>
+      <c r="O9">
+        <f t="shared" si="9"/>
+        <v>-21.424999999999997</v>
+      </c>
+      <c r="P9">
+        <f t="shared" si="10"/>
+        <v>-31.856000000000009</v>
+      </c>
     </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
         <v>17</v>
       </c>
@@ -7975,11 +11144,463 @@
       <c r="G10">
         <v>653.25</v>
       </c>
+      <c r="H10">
+        <f t="shared" si="2"/>
+        <v>-31.262</v>
+      </c>
+      <c r="I10">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <f t="shared" si="4"/>
+        <v>-34.630999999999993</v>
+      </c>
+      <c r="K10">
+        <f t="shared" si="5"/>
+        <v>-37.911999999999999</v>
+      </c>
+      <c r="L10">
+        <f t="shared" si="6"/>
+        <v>-34.674999999999997</v>
+      </c>
+      <c r="M10">
+        <f t="shared" si="7"/>
+        <v>31.262</v>
+      </c>
+      <c r="N10">
+        <f t="shared" si="8"/>
+        <v>-3.3689999999999927</v>
+      </c>
+      <c r="O10">
+        <f t="shared" si="9"/>
+        <v>-6.6499999999999986</v>
+      </c>
+      <c r="P10">
+        <f t="shared" si="10"/>
+        <v>-3.4129999999999967</v>
+      </c>
     </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="C16">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="H11">
+        <f t="shared" ref="H11:H18" si="11">(C11-1000)/1000*100</f>
+        <v>-100</v>
+      </c>
+      <c r="I11">
+        <f t="shared" ref="I11:I18" si="12">(D11-1000)/1000*100</f>
+        <v>-100</v>
+      </c>
+      <c r="J11">
+        <f t="shared" ref="J11:J18" si="13">(E11-1000)/1000*100</f>
+        <v>-100</v>
+      </c>
+      <c r="K11">
+        <f t="shared" ref="K11:K18" si="14">(F11-1000)/1000*100</f>
+        <v>-100</v>
+      </c>
+      <c r="L11">
+        <f t="shared" ref="L11:L18" si="15">(G11-1000)/1000*100</f>
+        <v>-100</v>
+      </c>
+      <c r="M11">
+        <f t="shared" ref="M11:M18" si="16">I11-$H11</f>
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <f t="shared" ref="N11:N18" si="17">J11-$H11</f>
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <f t="shared" ref="O11:O18" si="18">K11-$H11</f>
+        <v>0</v>
+      </c>
+      <c r="P11">
+        <f t="shared" ref="P11:P18" si="19">L11-$H11</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="B12" t="s">
+        <v>26</v>
+      </c>
+      <c r="H12">
+        <f t="shared" si="11"/>
+        <v>-100</v>
+      </c>
+      <c r="I12">
+        <f t="shared" si="12"/>
+        <v>-100</v>
+      </c>
+      <c r="J12">
+        <f t="shared" si="13"/>
+        <v>-100</v>
+      </c>
+      <c r="K12">
+        <f t="shared" si="14"/>
+        <v>-100</v>
+      </c>
+      <c r="L12">
+        <f t="shared" si="15"/>
+        <v>-100</v>
+      </c>
+      <c r="M12">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="P12">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="B13" t="s">
+        <v>27</v>
+      </c>
+      <c r="C13">
+        <v>1298.8699999999999</v>
+      </c>
+      <c r="D13">
+        <v>1000</v>
+      </c>
+      <c r="E13">
+        <v>1380.62</v>
+      </c>
+      <c r="F13">
+        <v>1288.8599999999999</v>
+      </c>
+      <c r="G13">
+        <v>1276.4000000000001</v>
+      </c>
+      <c r="H13">
+        <f t="shared" si="11"/>
+        <v>29.88699999999999</v>
+      </c>
+      <c r="I13">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <f t="shared" si="13"/>
+        <v>38.061999999999991</v>
+      </c>
+      <c r="K13">
+        <f t="shared" si="14"/>
+        <v>28.885999999999989</v>
+      </c>
+      <c r="L13">
+        <f t="shared" si="15"/>
+        <v>27.640000000000008</v>
+      </c>
+      <c r="M13">
+        <f t="shared" si="16"/>
+        <v>-29.88699999999999</v>
+      </c>
+      <c r="N13">
+        <f t="shared" si="17"/>
+        <v>8.1750000000000007</v>
+      </c>
+      <c r="O13">
+        <f t="shared" si="18"/>
+        <v>-1.0010000000000012</v>
+      </c>
+      <c r="P13">
+        <f t="shared" si="19"/>
+        <v>-2.2469999999999821</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="B14" t="s">
+        <v>28</v>
+      </c>
+      <c r="C14">
+        <v>1237</v>
+      </c>
+      <c r="D14">
+        <v>1237</v>
+      </c>
+      <c r="E14">
+        <v>967.2</v>
+      </c>
+      <c r="F14">
+        <v>1070.46</v>
+      </c>
+      <c r="G14">
+        <v>1161.1300000000001</v>
+      </c>
+      <c r="H14">
+        <f t="shared" si="11"/>
+        <v>23.7</v>
+      </c>
+      <c r="I14">
+        <f t="shared" si="12"/>
+        <v>23.7</v>
+      </c>
+      <c r="J14">
+        <f t="shared" si="13"/>
+        <v>-3.2799999999999954</v>
+      </c>
+      <c r="K14">
+        <f t="shared" si="14"/>
+        <v>7.0460000000000038</v>
+      </c>
+      <c r="L14">
+        <f t="shared" si="15"/>
+        <v>16.11300000000001</v>
+      </c>
+      <c r="M14">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="N14">
+        <f t="shared" si="17"/>
+        <v>-26.979999999999993</v>
+      </c>
+      <c r="O14">
+        <f t="shared" si="18"/>
+        <v>-16.653999999999996</v>
+      </c>
+      <c r="P14">
+        <f t="shared" si="19"/>
+        <v>-7.5869999999999891</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A15">
         <f>5/17</f>
         <v>0.29411764705882354</v>
+      </c>
+      <c r="B15" t="s">
+        <v>29</v>
+      </c>
+      <c r="C15">
+        <v>1379.3</v>
+      </c>
+      <c r="D15">
+        <v>1450.55</v>
+      </c>
+      <c r="E15">
+        <v>1425.05</v>
+      </c>
+      <c r="F15">
+        <v>1214.72</v>
+      </c>
+      <c r="G15">
+        <v>1207.83</v>
+      </c>
+      <c r="H15">
+        <f t="shared" si="11"/>
+        <v>37.93</v>
+      </c>
+      <c r="I15">
+        <f t="shared" si="12"/>
+        <v>45.054999999999993</v>
+      </c>
+      <c r="J15">
+        <f t="shared" si="13"/>
+        <v>42.504999999999995</v>
+      </c>
+      <c r="K15">
+        <f t="shared" si="14"/>
+        <v>21.472000000000001</v>
+      </c>
+      <c r="L15">
+        <f t="shared" si="15"/>
+        <v>20.782999999999994</v>
+      </c>
+      <c r="M15">
+        <f t="shared" si="16"/>
+        <v>7.1249999999999929</v>
+      </c>
+      <c r="N15">
+        <f t="shared" si="17"/>
+        <v>4.5749999999999957</v>
+      </c>
+      <c r="O15">
+        <f t="shared" si="18"/>
+        <v>-16.457999999999998</v>
+      </c>
+      <c r="P15">
+        <f t="shared" si="19"/>
+        <v>-17.147000000000006</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="B16" t="s">
+        <v>30</v>
+      </c>
+      <c r="C16">
+        <v>1436.54</v>
+      </c>
+      <c r="D16">
+        <v>1000</v>
+      </c>
+      <c r="E16">
+        <v>1258.23</v>
+      </c>
+      <c r="F16">
+        <v>1263.95</v>
+      </c>
+      <c r="G16">
+        <v>1100.6600000000001</v>
+      </c>
+      <c r="H16">
+        <f t="shared" si="11"/>
+        <v>43.653999999999996</v>
+      </c>
+      <c r="I16">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <f t="shared" si="13"/>
+        <v>25.823</v>
+      </c>
+      <c r="K16">
+        <f t="shared" si="14"/>
+        <v>26.395000000000003</v>
+      </c>
+      <c r="L16">
+        <f t="shared" si="15"/>
+        <v>10.066000000000008</v>
+      </c>
+      <c r="M16">
+        <f t="shared" si="16"/>
+        <v>-43.653999999999996</v>
+      </c>
+      <c r="N16">
+        <f t="shared" si="17"/>
+        <v>-17.830999999999996</v>
+      </c>
+      <c r="O16">
+        <f t="shared" si="18"/>
+        <v>-17.258999999999993</v>
+      </c>
+      <c r="P16">
+        <f t="shared" si="19"/>
+        <v>-33.587999999999987</v>
+      </c>
+    </row>
+    <row r="17" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B17" t="s">
+        <v>31</v>
+      </c>
+      <c r="C17">
+        <v>746.5</v>
+      </c>
+      <c r="D17">
+        <v>746.5</v>
+      </c>
+      <c r="E17">
+        <v>770.71</v>
+      </c>
+      <c r="F17">
+        <v>839.2</v>
+      </c>
+      <c r="G17">
+        <v>689.9</v>
+      </c>
+      <c r="H17">
+        <f>(D17-1000)/1000*100</f>
+        <v>-25.35</v>
+      </c>
+      <c r="I17">
+        <f>(D17-1000)/1000*100</f>
+        <v>-25.35</v>
+      </c>
+      <c r="J17">
+        <f t="shared" si="13"/>
+        <v>-22.928999999999995</v>
+      </c>
+      <c r="K17">
+        <f t="shared" si="14"/>
+        <v>-16.079999999999995</v>
+      </c>
+      <c r="L17">
+        <f t="shared" si="15"/>
+        <v>-31.010000000000005</v>
+      </c>
+      <c r="M17">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="N17">
+        <f t="shared" si="17"/>
+        <v>2.4210000000000065</v>
+      </c>
+      <c r="O17">
+        <f t="shared" si="18"/>
+        <v>9.2700000000000067</v>
+      </c>
+      <c r="P17">
+        <f t="shared" si="19"/>
+        <v>-5.6600000000000037</v>
+      </c>
+    </row>
+    <row r="18" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B18" t="s">
+        <v>32</v>
+      </c>
+      <c r="C18">
+        <v>1034.32</v>
+      </c>
+      <c r="D18">
+        <v>1000</v>
+      </c>
+      <c r="E18">
+        <v>941.72</v>
+      </c>
+      <c r="F18">
+        <v>851.73</v>
+      </c>
+      <c r="G18">
+        <v>917.25</v>
+      </c>
+      <c r="H18">
+        <f t="shared" si="11"/>
+        <v>3.4319999999999933</v>
+      </c>
+      <c r="I18">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <f t="shared" si="13"/>
+        <v>-5.8279999999999967</v>
+      </c>
+      <c r="K18">
+        <f t="shared" si="14"/>
+        <v>-14.826999999999998</v>
+      </c>
+      <c r="L18">
+        <f t="shared" si="15"/>
+        <v>-8.2750000000000004</v>
+      </c>
+      <c r="M18">
+        <f t="shared" si="16"/>
+        <v>-3.4319999999999933</v>
+      </c>
+      <c r="N18">
+        <f t="shared" si="17"/>
+        <v>-9.2599999999999909</v>
+      </c>
+      <c r="O18">
+        <f t="shared" si="18"/>
+        <v>-18.258999999999993</v>
+      </c>
+      <c r="P18">
+        <f t="shared" si="19"/>
+        <v>-11.706999999999994</v>
       </c>
     </row>
   </sheetData>
@@ -7990,20 +11611,20 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F749681-0C13-AA4C-A5FA-DC14F5A103AB}">
-  <dimension ref="A1:G21"/>
+  <dimension ref="A1:P21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+      <selection activeCell="C11" sqref="C11:C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>0</v>
       </c>
@@ -8022,8 +11643,35 @@
       <c r="G2" t="s">
         <v>1</v>
       </c>
+      <c r="H2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I2" t="s">
+        <v>2</v>
+      </c>
+      <c r="J2" t="s">
+        <v>3</v>
+      </c>
+      <c r="K2" t="s">
+        <v>4</v>
+      </c>
+      <c r="L2" t="s">
+        <v>1</v>
+      </c>
+      <c r="M2" t="s">
+        <v>2</v>
+      </c>
+      <c r="N2" t="s">
+        <v>3</v>
+      </c>
+      <c r="O2" t="s">
+        <v>4</v>
+      </c>
+      <c r="P2" t="s">
+        <v>1</v>
+      </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
         <v>5</v>
       </c>
@@ -8042,8 +11690,44 @@
       <c r="G3">
         <v>1158.0999999999999</v>
       </c>
+      <c r="H3">
+        <f>(C3-1000)/1000*100</f>
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="I3">
+        <f t="shared" ref="I3:L3" si="0">(D3-1000)/1000*100</f>
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="J3">
+        <f t="shared" si="0"/>
+        <v>22.667000000000005</v>
+      </c>
+      <c r="K3">
+        <f t="shared" si="0"/>
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="L3">
+        <f t="shared" si="0"/>
+        <v>15.809999999999992</v>
+      </c>
+      <c r="M3">
+        <f>I3-$H3</f>
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <f t="shared" ref="N3:P3" si="1">J3-$H3</f>
+        <v>12.867000000000004</v>
+      </c>
+      <c r="O3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <f t="shared" si="1"/>
+        <v>6.0099999999999909</v>
+      </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>16</v>
       </c>
@@ -8062,8 +11746,44 @@
       <c r="G4">
         <v>539.16</v>
       </c>
+      <c r="H4">
+        <f t="shared" ref="H4:H18" si="2">(C4-1000)/1000*100</f>
+        <v>-39.44400000000001</v>
+      </c>
+      <c r="I4">
+        <f t="shared" ref="I4:I18" si="3">(D4-1000)/1000*100</f>
+        <v>-39.332000000000008</v>
+      </c>
+      <c r="J4">
+        <f t="shared" ref="J4:J18" si="4">(E4-1000)/1000*100</f>
+        <v>-39.721000000000004</v>
+      </c>
+      <c r="K4">
+        <f t="shared" ref="K4:K18" si="5">(F4-1000)/1000*100</f>
+        <v>-43.466000000000001</v>
+      </c>
+      <c r="L4">
+        <f t="shared" ref="L4:L18" si="6">(G4-1000)/1000*100</f>
+        <v>-46.084000000000003</v>
+      </c>
+      <c r="M4">
+        <f t="shared" ref="M4:M18" si="7">I4-$H4</f>
+        <v>0.11200000000000188</v>
+      </c>
+      <c r="N4">
+        <f t="shared" ref="N4:N18" si="8">J4-$H4</f>
+        <v>-0.27699999999999392</v>
+      </c>
+      <c r="O4">
+        <f t="shared" ref="O4:O18" si="9">K4-$H4</f>
+        <v>-4.0219999999999914</v>
+      </c>
+      <c r="P4">
+        <f t="shared" ref="P4:P18" si="10">L4-$H4</f>
+        <v>-6.6399999999999935</v>
+      </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
         <v>7</v>
       </c>
@@ -8082,8 +11802,44 @@
       <c r="G5">
         <v>545.66</v>
       </c>
+      <c r="H5">
+        <f t="shared" si="2"/>
+        <v>-26.507000000000001</v>
+      </c>
+      <c r="I5">
+        <f t="shared" si="3"/>
+        <v>-26.507000000000001</v>
+      </c>
+      <c r="J5">
+        <f t="shared" si="4"/>
+        <v>8.2710000000000026</v>
+      </c>
+      <c r="K5">
+        <f t="shared" si="5"/>
+        <v>-28.407000000000004</v>
+      </c>
+      <c r="L5">
+        <f t="shared" si="6"/>
+        <v>-45.434000000000005</v>
+      </c>
+      <c r="M5">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <f t="shared" si="8"/>
+        <v>34.778000000000006</v>
+      </c>
+      <c r="O5">
+        <f t="shared" si="9"/>
+        <v>-1.9000000000000021</v>
+      </c>
+      <c r="P5">
+        <f t="shared" si="10"/>
+        <v>-18.927000000000003</v>
+      </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
         <v>8</v>
       </c>
@@ -8102,8 +11858,44 @@
       <c r="G6" s="1">
         <v>1886.5</v>
       </c>
+      <c r="H6">
+        <f t="shared" si="2"/>
+        <v>33.020000000000003</v>
+      </c>
+      <c r="I6">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <f t="shared" si="4"/>
+        <v>19.925999999999998</v>
+      </c>
+      <c r="K6">
+        <f t="shared" si="5"/>
+        <v>45.628999999999998</v>
+      </c>
+      <c r="L6">
+        <f t="shared" si="6"/>
+        <v>88.649999999999991</v>
+      </c>
+      <c r="M6">
+        <f t="shared" si="7"/>
+        <v>-33.020000000000003</v>
+      </c>
+      <c r="N6">
+        <f t="shared" si="8"/>
+        <v>-13.094000000000005</v>
+      </c>
+      <c r="O6">
+        <f t="shared" si="9"/>
+        <v>12.608999999999995</v>
+      </c>
+      <c r="P6">
+        <f t="shared" si="10"/>
+        <v>55.629999999999988</v>
+      </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
         <v>9</v>
       </c>
@@ -8122,8 +11914,44 @@
       <c r="G7">
         <v>518.04</v>
       </c>
+      <c r="H7">
+        <f t="shared" si="2"/>
+        <v>-44.630999999999993</v>
+      </c>
+      <c r="I7">
+        <f t="shared" si="3"/>
+        <v>-18.630999999999993</v>
+      </c>
+      <c r="J7">
+        <f t="shared" si="4"/>
+        <v>-33.540999999999997</v>
+      </c>
+      <c r="K7">
+        <f t="shared" si="5"/>
+        <v>-38.427</v>
+      </c>
+      <c r="L7">
+        <f t="shared" si="6"/>
+        <v>-48.196000000000005</v>
+      </c>
+      <c r="M7">
+        <f t="shared" si="7"/>
+        <v>26</v>
+      </c>
+      <c r="N7">
+        <f t="shared" si="8"/>
+        <v>11.089999999999996</v>
+      </c>
+      <c r="O7">
+        <f t="shared" si="9"/>
+        <v>6.2039999999999935</v>
+      </c>
+      <c r="P7">
+        <f t="shared" si="10"/>
+        <v>-3.5650000000000119</v>
+      </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
         <v>10</v>
       </c>
@@ -8142,8 +11970,44 @@
       <c r="G8" s="1">
         <v>4085.145</v>
       </c>
+      <c r="H8">
+        <f t="shared" si="2"/>
+        <v>207.315</v>
+      </c>
+      <c r="I8">
+        <f t="shared" si="3"/>
+        <v>25.732999999999993</v>
+      </c>
+      <c r="J8">
+        <f t="shared" si="4"/>
+        <v>529.14</v>
+      </c>
+      <c r="K8">
+        <f t="shared" si="5"/>
+        <v>253.48600000000002</v>
+      </c>
+      <c r="L8">
+        <f t="shared" si="6"/>
+        <v>308.5145</v>
+      </c>
+      <c r="M8">
+        <f t="shared" si="7"/>
+        <v>-181.58199999999999</v>
+      </c>
+      <c r="N8">
+        <f t="shared" si="8"/>
+        <v>321.82499999999999</v>
+      </c>
+      <c r="O8">
+        <f t="shared" si="9"/>
+        <v>46.171000000000021</v>
+      </c>
+      <c r="P8">
+        <f t="shared" si="10"/>
+        <v>101.1995</v>
+      </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
         <v>11</v>
       </c>
@@ -8162,8 +12026,44 @@
       <c r="G9">
         <v>826.88</v>
       </c>
+      <c r="H9">
+        <f t="shared" si="2"/>
+        <v>-3.7919999999999963</v>
+      </c>
+      <c r="I9">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <f t="shared" si="4"/>
+        <v>27.98299999999999</v>
+      </c>
+      <c r="K9">
+        <f t="shared" si="5"/>
+        <v>-4.9769999999999985</v>
+      </c>
+      <c r="L9">
+        <f t="shared" si="6"/>
+        <v>-17.312000000000001</v>
+      </c>
+      <c r="M9">
+        <f t="shared" si="7"/>
+        <v>3.7919999999999963</v>
+      </c>
+      <c r="N9">
+        <f t="shared" si="8"/>
+        <v>31.774999999999984</v>
+      </c>
+      <c r="O9">
+        <f t="shared" si="9"/>
+        <v>-1.1850000000000023</v>
+      </c>
+      <c r="P9">
+        <f t="shared" si="10"/>
+        <v>-13.520000000000005</v>
+      </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
         <v>17</v>
       </c>
@@ -8182,85 +12082,503 @@
       <c r="G10" s="2">
         <v>428.81</v>
       </c>
+      <c r="H10">
+        <f t="shared" si="2"/>
+        <v>-31.262</v>
+      </c>
+      <c r="I10">
+        <f t="shared" si="3"/>
+        <v>47.029999999999994</v>
+      </c>
+      <c r="J10">
+        <f t="shared" si="4"/>
+        <v>79.033999999999992</v>
+      </c>
+      <c r="K10">
+        <f t="shared" si="5"/>
+        <v>-34.169000000000004</v>
+      </c>
+      <c r="L10">
+        <f t="shared" si="6"/>
+        <v>-57.119000000000007</v>
+      </c>
+      <c r="M10">
+        <f t="shared" si="7"/>
+        <v>78.292000000000002</v>
+      </c>
+      <c r="N10">
+        <f t="shared" si="8"/>
+        <v>110.29599999999999</v>
+      </c>
+      <c r="O10">
+        <f t="shared" si="9"/>
+        <v>-2.9070000000000036</v>
+      </c>
+      <c r="P10">
+        <f t="shared" si="10"/>
+        <v>-25.857000000000006</v>
+      </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="E13" t="s">
-        <v>6</v>
-      </c>
-      <c r="F13" t="s">
-        <v>1</v>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11">
+        <v>1561.7</v>
+      </c>
+      <c r="D11">
+        <v>1561.7</v>
+      </c>
+      <c r="E11" s="1">
+        <v>1310.76</v>
+      </c>
+      <c r="F11">
+        <v>1369.3</v>
+      </c>
+      <c r="G11" s="2">
+        <v>1366.45</v>
+      </c>
+      <c r="H11">
+        <f t="shared" si="2"/>
+        <v>56.170000000000009</v>
+      </c>
+      <c r="I11">
+        <f t="shared" si="3"/>
+        <v>56.170000000000009</v>
+      </c>
+      <c r="J11">
+        <f t="shared" si="4"/>
+        <v>31.075999999999997</v>
+      </c>
+      <c r="K11">
+        <f t="shared" si="5"/>
+        <v>36.929999999999993</v>
+      </c>
+      <c r="L11">
+        <f t="shared" si="6"/>
+        <v>36.645000000000003</v>
+      </c>
+      <c r="M11">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <f t="shared" si="8"/>
+        <v>-25.094000000000012</v>
+      </c>
+      <c r="O11">
+        <f t="shared" si="9"/>
+        <v>-19.240000000000016</v>
+      </c>
+      <c r="P11">
+        <f t="shared" si="10"/>
+        <v>-19.525000000000006</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="B12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12">
+        <v>858.28</v>
+      </c>
+      <c r="D12">
+        <v>848.42</v>
+      </c>
+      <c r="E12" s="1">
+        <v>1053.33</v>
+      </c>
+      <c r="F12">
+        <v>958.83</v>
+      </c>
+      <c r="G12">
+        <v>1066.08</v>
+      </c>
+      <c r="H12">
+        <f t="shared" si="2"/>
+        <v>-14.172000000000004</v>
+      </c>
+      <c r="I12">
+        <f t="shared" si="3"/>
+        <v>-15.158000000000005</v>
+      </c>
+      <c r="J12">
+        <f t="shared" si="4"/>
+        <v>5.3329999999999922</v>
+      </c>
+      <c r="K12">
+        <f t="shared" si="5"/>
+        <v>-4.1169999999999956</v>
+      </c>
+      <c r="L12">
+        <f t="shared" si="6"/>
+        <v>6.6079999999999934</v>
+      </c>
+      <c r="M12">
+        <f t="shared" si="7"/>
+        <v>-0.98600000000000065</v>
+      </c>
+      <c r="N12">
+        <f t="shared" si="8"/>
+        <v>19.504999999999995</v>
+      </c>
+      <c r="O12">
+        <f t="shared" si="9"/>
+        <v>10.055000000000009</v>
+      </c>
+      <c r="P12">
+        <f t="shared" si="10"/>
+        <v>20.779999999999998</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <f>14/16</f>
+        <v>0.875</v>
+      </c>
+      <c r="B13" t="s">
+        <v>27</v>
+      </c>
+      <c r="C13">
+        <v>1298.8699999999999</v>
+      </c>
+      <c r="D13">
+        <v>1000</v>
+      </c>
+      <c r="E13">
+        <v>1380.62</v>
+      </c>
+      <c r="F13">
+        <v>1288.8599999999999</v>
+      </c>
+      <c r="G13">
+        <v>1276.4000000000001</v>
+      </c>
+      <c r="H13">
+        <f t="shared" si="2"/>
+        <v>29.88699999999999</v>
+      </c>
+      <c r="I13">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <f t="shared" si="4"/>
+        <v>38.061999999999991</v>
+      </c>
+      <c r="K13">
+        <f t="shared" si="5"/>
+        <v>28.885999999999989</v>
+      </c>
+      <c r="L13">
+        <f t="shared" si="6"/>
+        <v>27.640000000000008</v>
+      </c>
+      <c r="M13">
+        <f t="shared" si="7"/>
+        <v>-29.88699999999999</v>
+      </c>
+      <c r="N13">
+        <f t="shared" si="8"/>
+        <v>8.1750000000000007</v>
+      </c>
+      <c r="O13">
+        <f t="shared" si="9"/>
+        <v>-1.0010000000000012</v>
+      </c>
+      <c r="P13">
+        <f t="shared" si="10"/>
+        <v>-2.2469999999999821</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>20</v>
       </c>
+      <c r="B14" t="s">
+        <v>28</v>
+      </c>
+      <c r="C14">
+        <v>1237</v>
+      </c>
       <c r="D14">
-        <f>14/16</f>
-        <v>0.875</v>
+        <v>1237</v>
       </c>
       <c r="E14">
-        <v>1098</v>
+        <v>967.2</v>
       </c>
       <c r="F14">
-        <v>1158.0999999999999</v>
+        <v>1070.46</v>
+      </c>
+      <c r="G14">
+        <v>1161.1300000000001</v>
+      </c>
+      <c r="H14">
+        <f t="shared" si="2"/>
+        <v>23.7</v>
+      </c>
+      <c r="I14">
+        <f t="shared" si="3"/>
+        <v>23.7</v>
+      </c>
+      <c r="J14">
+        <f t="shared" si="4"/>
+        <v>-3.2799999999999954</v>
+      </c>
+      <c r="K14">
+        <f t="shared" si="5"/>
+        <v>7.0460000000000038</v>
+      </c>
+      <c r="L14">
+        <f t="shared" si="6"/>
+        <v>16.11300000000001</v>
+      </c>
+      <c r="M14">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="N14">
+        <f t="shared" si="8"/>
+        <v>-26.979999999999993</v>
+      </c>
+      <c r="O14">
+        <f t="shared" si="9"/>
+        <v>-16.653999999999996</v>
+      </c>
+      <c r="P14">
+        <f t="shared" si="10"/>
+        <v>-7.5869999999999891</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="B15" t="s">
+        <v>29</v>
+      </c>
+      <c r="C15">
+        <v>1379.3</v>
+      </c>
+      <c r="D15">
+        <v>1450.55</v>
+      </c>
       <c r="E15">
-        <v>605.55999999999995</v>
+        <v>1425.05</v>
       </c>
       <c r="F15">
-        <v>539.16</v>
+        <v>1214.72</v>
+      </c>
+      <c r="G15">
+        <v>1207.83</v>
+      </c>
+      <c r="H15">
+        <f t="shared" si="2"/>
+        <v>37.93</v>
+      </c>
+      <c r="I15">
+        <f t="shared" si="3"/>
+        <v>45.054999999999993</v>
+      </c>
+      <c r="J15">
+        <f t="shared" si="4"/>
+        <v>42.504999999999995</v>
+      </c>
+      <c r="K15">
+        <f t="shared" si="5"/>
+        <v>21.472000000000001</v>
+      </c>
+      <c r="L15">
+        <f t="shared" si="6"/>
+        <v>20.782999999999994</v>
+      </c>
+      <c r="M15">
+        <f t="shared" si="7"/>
+        <v>7.1249999999999929</v>
+      </c>
+      <c r="N15">
+        <f t="shared" si="8"/>
+        <v>4.5749999999999957</v>
+      </c>
+      <c r="O15">
+        <f t="shared" si="9"/>
+        <v>-16.457999999999998</v>
+      </c>
+      <c r="P15">
+        <f t="shared" si="10"/>
+        <v>-17.147000000000006</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="B16" t="s">
+        <v>30</v>
+      </c>
+      <c r="C16">
+        <v>1436.54</v>
+      </c>
+      <c r="D16">
+        <v>1000</v>
+      </c>
       <c r="E16">
-        <v>734.93</v>
+        <v>1258.23</v>
       </c>
       <c r="F16">
-        <v>545.66</v>
+        <v>1263.95</v>
+      </c>
+      <c r="G16">
+        <v>1100.6600000000001</v>
+      </c>
+      <c r="H16">
+        <f t="shared" si="2"/>
+        <v>43.653999999999996</v>
+      </c>
+      <c r="I16">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <f t="shared" si="4"/>
+        <v>25.823</v>
+      </c>
+      <c r="K16">
+        <f t="shared" si="5"/>
+        <v>26.395000000000003</v>
+      </c>
+      <c r="L16">
+        <f t="shared" si="6"/>
+        <v>10.066000000000008</v>
+      </c>
+      <c r="M16">
+        <f t="shared" si="7"/>
+        <v>-43.653999999999996</v>
+      </c>
+      <c r="N16">
+        <f t="shared" si="8"/>
+        <v>-17.830999999999996</v>
+      </c>
+      <c r="O16">
+        <f t="shared" si="9"/>
+        <v>-17.258999999999993</v>
+      </c>
+      <c r="P16">
+        <f t="shared" si="10"/>
+        <v>-33.587999999999987</v>
       </c>
     </row>
-    <row r="17" spans="5:6" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B17" t="s">
+        <v>31</v>
+      </c>
+      <c r="C17">
+        <v>746.5</v>
+      </c>
+      <c r="D17">
+        <v>746.5</v>
+      </c>
       <c r="E17">
-        <v>1330.2</v>
-      </c>
-      <c r="F17" s="1">
-        <v>1886.5</v>
+        <v>770.71</v>
+      </c>
+      <c r="F17">
+        <v>839.2</v>
+      </c>
+      <c r="G17">
+        <v>689.9</v>
+      </c>
+      <c r="H17">
+        <f>(D17-1000)/1000*100</f>
+        <v>-25.35</v>
+      </c>
+      <c r="I17">
+        <f>(D17-1000)/1000*100</f>
+        <v>-25.35</v>
+      </c>
+      <c r="J17">
+        <f t="shared" si="4"/>
+        <v>-22.928999999999995</v>
+      </c>
+      <c r="K17">
+        <f t="shared" si="5"/>
+        <v>-16.079999999999995</v>
+      </c>
+      <c r="L17">
+        <f t="shared" si="6"/>
+        <v>-31.010000000000005</v>
+      </c>
+      <c r="M17">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="N17">
+        <f t="shared" si="8"/>
+        <v>2.4210000000000065</v>
+      </c>
+      <c r="O17">
+        <f t="shared" si="9"/>
+        <v>9.2700000000000067</v>
+      </c>
+      <c r="P17">
+        <f t="shared" si="10"/>
+        <v>-5.6600000000000037</v>
       </c>
     </row>
-    <row r="18" spans="5:6" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B18" t="s">
+        <v>32</v>
+      </c>
+      <c r="C18">
+        <v>1034.32</v>
+      </c>
+      <c r="D18">
+        <v>1000</v>
+      </c>
       <c r="E18">
-        <v>553.69000000000005</v>
+        <v>941.72</v>
       </c>
       <c r="F18">
-        <v>518.04</v>
+        <v>851.73</v>
+      </c>
+      <c r="G18">
+        <v>917.25</v>
+      </c>
+      <c r="H18">
+        <f t="shared" si="2"/>
+        <v>3.4319999999999933</v>
+      </c>
+      <c r="I18">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <f t="shared" si="4"/>
+        <v>-5.8279999999999967</v>
+      </c>
+      <c r="K18">
+        <f t="shared" si="5"/>
+        <v>-14.826999999999998</v>
+      </c>
+      <c r="L18">
+        <f t="shared" si="6"/>
+        <v>-8.2750000000000004</v>
+      </c>
+      <c r="M18">
+        <f t="shared" si="7"/>
+        <v>-3.4319999999999933</v>
+      </c>
+      <c r="N18">
+        <f t="shared" si="8"/>
+        <v>-9.2599999999999909</v>
+      </c>
+      <c r="O18">
+        <f t="shared" si="9"/>
+        <v>-18.258999999999993</v>
+      </c>
+      <c r="P18">
+        <f t="shared" si="10"/>
+        <v>-11.706999999999994</v>
       </c>
     </row>
-    <row r="19" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E19">
-        <v>3073.15</v>
-      </c>
-      <c r="F19" s="1">
-        <v>4085.145</v>
-      </c>
+    <row r="19" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="F19" s="1"/>
     </row>
-    <row r="20" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E20">
-        <v>962.08</v>
-      </c>
-      <c r="F20">
-        <v>826.88</v>
-      </c>
-    </row>
-    <row r="21" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E21">
-        <v>687.38</v>
-      </c>
-      <c r="F21" s="2">
-        <v>428.81</v>
-      </c>
+    <row r="21" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="F21" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8270,15 +12588,15 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D40C461D-7357-B74D-B754-42BAF95E215B}">
-  <dimension ref="B3:E22"/>
+  <dimension ref="B3:J33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="I3" sqref="I3:J19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
         <v>0</v>
       </c>
@@ -8291,8 +12609,23 @@
       <c r="E3" t="s">
         <v>14</v>
       </c>
+      <c r="F3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J3" t="s">
+        <v>14</v>
+      </c>
     </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>5</v>
       </c>
@@ -8305,8 +12638,28 @@
       <c r="E4">
         <v>1321.03</v>
       </c>
+      <c r="F4">
+        <f>(C4-1000)/1000*100</f>
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="G4">
+        <f t="shared" ref="G4:H4" si="0">(D4-1000)/1000*100</f>
+        <v>10.170000000000003</v>
+      </c>
+      <c r="H4">
+        <f t="shared" si="0"/>
+        <v>32.103000000000002</v>
+      </c>
+      <c r="I4">
+        <f>G4-$F4</f>
+        <v>0.37000000000000277</v>
+      </c>
+      <c r="J4">
+        <f>H4-$F4</f>
+        <v>22.303000000000001</v>
+      </c>
     </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
         <v>16</v>
       </c>
@@ -8319,8 +12672,28 @@
       <c r="E5">
         <v>547.6</v>
       </c>
+      <c r="F5">
+        <f t="shared" ref="F5:F11" si="1">(C5-1000)/1000*100</f>
+        <v>-39.44400000000001</v>
+      </c>
+      <c r="G5">
+        <f t="shared" ref="G5:G11" si="2">(D5-1000)/1000*100</f>
+        <v>-34.975999999999999</v>
+      </c>
+      <c r="H5">
+        <f t="shared" ref="H5:H11" si="3">(E5-1000)/1000*100</f>
+        <v>-45.239999999999995</v>
+      </c>
+      <c r="I5">
+        <f t="shared" ref="I5:I11" si="4">G5-$F5</f>
+        <v>4.4680000000000106</v>
+      </c>
+      <c r="J5">
+        <f t="shared" ref="J5:J11" si="5">H5-$F5</f>
+        <v>-5.7959999999999852</v>
+      </c>
     </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
         <v>10</v>
       </c>
@@ -8333,8 +12706,28 @@
       <c r="E6">
         <v>1438.03</v>
       </c>
+      <c r="F6">
+        <f t="shared" si="1"/>
+        <v>207.315</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="2"/>
+        <v>476.56800000000004</v>
+      </c>
+      <c r="H6">
+        <f t="shared" si="3"/>
+        <v>43.802999999999997</v>
+      </c>
+      <c r="I6">
+        <f t="shared" si="4"/>
+        <v>269.25300000000004</v>
+      </c>
+      <c r="J6">
+        <f t="shared" si="5"/>
+        <v>-163.512</v>
+      </c>
     </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
         <v>11</v>
       </c>
@@ -8347,8 +12740,28 @@
       <c r="E7">
         <v>999.26</v>
       </c>
+      <c r="F7">
+        <f t="shared" si="1"/>
+        <v>-3.7919999999999963</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="2"/>
+        <v>-7.4000000000000912E-2</v>
+      </c>
+      <c r="H7">
+        <f t="shared" si="3"/>
+        <v>-7.4000000000000912E-2</v>
+      </c>
+      <c r="I7">
+        <f t="shared" si="4"/>
+        <v>3.7179999999999955</v>
+      </c>
+      <c r="J7">
+        <f t="shared" si="5"/>
+        <v>3.7179999999999955</v>
+      </c>
     </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
         <v>7</v>
       </c>
@@ -8361,8 +12774,28 @@
       <c r="E8" s="1">
         <v>1012.34</v>
       </c>
+      <c r="F8">
+        <f t="shared" si="1"/>
+        <v>-26.507000000000001</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="2"/>
+        <v>-44.251000000000005</v>
+      </c>
+      <c r="H8">
+        <f t="shared" si="3"/>
+        <v>1.2340000000000031</v>
+      </c>
+      <c r="I8">
+        <f t="shared" si="4"/>
+        <v>-17.744000000000003</v>
+      </c>
+      <c r="J8">
+        <f t="shared" si="5"/>
+        <v>27.741000000000003</v>
+      </c>
     </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
         <v>9</v>
       </c>
@@ -8375,8 +12808,28 @@
       <c r="E9">
         <v>902.87</v>
       </c>
+      <c r="F9">
+        <f t="shared" si="1"/>
+        <v>-44.630999999999993</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="2"/>
+        <v>-36.54</v>
+      </c>
+      <c r="H9">
+        <f t="shared" si="3"/>
+        <v>-9.7129999999999992</v>
+      </c>
+      <c r="I9">
+        <f t="shared" si="4"/>
+        <v>8.090999999999994</v>
+      </c>
+      <c r="J9">
+        <f t="shared" si="5"/>
+        <v>34.917999999999992</v>
+      </c>
     </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
         <v>17</v>
       </c>
@@ -8389,8 +12842,28 @@
       <c r="E10">
         <v>1277.04</v>
       </c>
+      <c r="F10">
+        <f t="shared" si="1"/>
+        <v>-31.262</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="2"/>
+        <v>47.027999999999999</v>
+      </c>
+      <c r="H10">
+        <f t="shared" si="3"/>
+        <v>27.703999999999994</v>
+      </c>
+      <c r="I10">
+        <f t="shared" si="4"/>
+        <v>78.289999999999992</v>
+      </c>
+      <c r="J10">
+        <f t="shared" si="5"/>
+        <v>58.965999999999994</v>
+      </c>
     </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
         <v>8</v>
       </c>
@@ -8403,87 +12876,746 @@
       <c r="E11" s="1">
         <v>1868.24</v>
       </c>
+      <c r="F11">
+        <f t="shared" si="1"/>
+        <v>33.020000000000003</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="2"/>
+        <v>86.823999999999998</v>
+      </c>
+      <c r="H11">
+        <f t="shared" si="3"/>
+        <v>86.823999999999998</v>
+      </c>
+      <c r="I11">
+        <f t="shared" si="4"/>
+        <v>53.803999999999995</v>
+      </c>
+      <c r="J11">
+        <f t="shared" si="5"/>
+        <v>53.803999999999995</v>
+      </c>
     </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12">
+        <v>1561.7</v>
+      </c>
+      <c r="D12">
+        <v>1428.49</v>
+      </c>
+      <c r="E12">
+        <v>1182.4749999999999</v>
+      </c>
+      <c r="F12">
+        <f t="shared" ref="F12:F19" si="6">(C12-1000)/1000*100</f>
+        <v>56.170000000000009</v>
+      </c>
+      <c r="G12">
+        <f t="shared" ref="G12:G19" si="7">(D12-1000)/1000*100</f>
+        <v>42.848999999999997</v>
+      </c>
+      <c r="H12">
+        <f t="shared" ref="H12:H19" si="8">(E12-1000)/1000*100</f>
+        <v>18.247499999999992</v>
+      </c>
+      <c r="I12">
+        <f t="shared" ref="I12:I19" si="9">G12-$F12</f>
+        <v>-13.321000000000012</v>
+      </c>
+      <c r="J12">
+        <f t="shared" ref="J12:J19" si="10">H12-$F12</f>
+        <v>-37.922500000000014</v>
+      </c>
+    </row>
+    <row r="13" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13">
+        <v>858.28</v>
+      </c>
+      <c r="D13">
+        <v>911.15</v>
+      </c>
+      <c r="E13">
+        <v>1048.02</v>
+      </c>
+      <c r="F13">
+        <f t="shared" si="6"/>
+        <v>-14.172000000000004</v>
+      </c>
+      <c r="G13">
+        <f t="shared" si="7"/>
+        <v>-8.8850000000000033</v>
+      </c>
+      <c r="H13">
+        <f t="shared" si="8"/>
+        <v>4.8019999999999978</v>
+      </c>
+      <c r="I13">
+        <f t="shared" si="9"/>
+        <v>5.2870000000000008</v>
+      </c>
+      <c r="J13">
+        <f t="shared" si="10"/>
+        <v>18.974000000000004</v>
+      </c>
+    </row>
+    <row r="14" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B14" t="s">
+        <v>27</v>
+      </c>
+      <c r="C14">
+        <v>1298.8699999999999</v>
+      </c>
+      <c r="D14">
+        <v>1364.54</v>
+      </c>
+      <c r="E14">
+        <v>1364.54</v>
+      </c>
+      <c r="F14">
+        <f t="shared" si="6"/>
+        <v>29.88699999999999</v>
+      </c>
+      <c r="G14">
+        <f t="shared" si="7"/>
+        <v>36.454000000000001</v>
+      </c>
+      <c r="H14">
+        <f t="shared" si="8"/>
+        <v>36.454000000000001</v>
+      </c>
+      <c r="I14">
+        <f t="shared" si="9"/>
+        <v>6.5670000000000108</v>
+      </c>
+      <c r="J14">
+        <f t="shared" si="10"/>
+        <v>6.5670000000000108</v>
+      </c>
+    </row>
+    <row r="15" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B15" t="s">
+        <v>28</v>
+      </c>
+      <c r="C15">
+        <v>1237</v>
+      </c>
+      <c r="D15">
+        <v>1088.5</v>
+      </c>
+      <c r="E15">
+        <v>968</v>
+      </c>
+      <c r="F15">
+        <f t="shared" si="6"/>
+        <v>23.7</v>
+      </c>
+      <c r="G15">
+        <f t="shared" si="7"/>
+        <v>8.85</v>
+      </c>
+      <c r="H15">
+        <f t="shared" si="8"/>
+        <v>-3.2</v>
+      </c>
+      <c r="I15">
+        <f t="shared" si="9"/>
+        <v>-14.85</v>
+      </c>
+      <c r="J15">
+        <f t="shared" si="10"/>
+        <v>-26.9</v>
+      </c>
+    </row>
+    <row r="16" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B16" t="s">
+        <v>29</v>
+      </c>
+      <c r="C16">
+        <v>1379.3</v>
+      </c>
+      <c r="D16">
+        <v>1347.23</v>
+      </c>
+      <c r="E16">
+        <v>1201.0999999999999</v>
+      </c>
+      <c r="F16">
+        <f t="shared" si="6"/>
+        <v>37.93</v>
+      </c>
+      <c r="G16">
+        <f t="shared" si="7"/>
+        <v>34.723000000000006</v>
+      </c>
+      <c r="H16">
+        <f t="shared" si="8"/>
+        <v>20.109999999999992</v>
+      </c>
+      <c r="I16">
+        <f t="shared" si="9"/>
+        <v>-3.2069999999999936</v>
+      </c>
+      <c r="J16">
+        <f t="shared" si="10"/>
+        <v>-17.820000000000007</v>
+      </c>
+    </row>
+    <row r="17" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B17" t="s">
+        <v>30</v>
+      </c>
+      <c r="C17">
+        <v>1436.54</v>
+      </c>
+      <c r="D17">
+        <v>1089.2</v>
+      </c>
+      <c r="E17">
+        <v>1089.2</v>
+      </c>
+      <c r="F17">
+        <f t="shared" si="6"/>
+        <v>43.653999999999996</v>
+      </c>
+      <c r="G17">
+        <f t="shared" si="7"/>
+        <v>8.9200000000000035</v>
+      </c>
+      <c r="H17">
+        <f t="shared" si="8"/>
+        <v>8.9200000000000035</v>
+      </c>
+      <c r="I17">
+        <f t="shared" si="9"/>
+        <v>-34.733999999999995</v>
+      </c>
+      <c r="J17">
+        <f t="shared" si="10"/>
+        <v>-34.733999999999995</v>
+      </c>
+    </row>
+    <row r="18" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B18" t="s">
+        <v>31</v>
+      </c>
+      <c r="C18">
+        <v>746.5</v>
+      </c>
+      <c r="D18">
+        <v>735.5</v>
+      </c>
+      <c r="E18">
+        <v>894.6</v>
+      </c>
+      <c r="F18">
+        <f t="shared" si="6"/>
+        <v>-25.35</v>
+      </c>
+      <c r="G18">
+        <f t="shared" si="7"/>
+        <v>-26.450000000000003</v>
+      </c>
+      <c r="H18">
+        <f t="shared" si="8"/>
+        <v>-10.539999999999997</v>
+      </c>
+      <c r="I18">
+        <f t="shared" si="9"/>
+        <v>-1.1000000000000014</v>
+      </c>
+      <c r="J18">
+        <f t="shared" si="10"/>
+        <v>14.810000000000004</v>
+      </c>
+    </row>
+    <row r="19" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B19" t="s">
+        <v>32</v>
+      </c>
+      <c r="C19">
+        <v>1034.32</v>
+      </c>
+      <c r="D19">
+        <v>868.72</v>
+      </c>
+      <c r="E19">
+        <v>868.72</v>
+      </c>
+      <c r="F19">
+        <f t="shared" si="6"/>
+        <v>3.4319999999999933</v>
+      </c>
+      <c r="G19">
+        <f t="shared" si="7"/>
+        <v>-13.127999999999998</v>
+      </c>
+      <c r="H19">
+        <f t="shared" si="8"/>
+        <v>-13.127999999999998</v>
+      </c>
+      <c r="I19">
+        <f t="shared" si="9"/>
+        <v>-16.559999999999992</v>
+      </c>
+      <c r="J19">
+        <f t="shared" si="10"/>
+        <v>-16.559999999999992</v>
+      </c>
+    </row>
+    <row r="24" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B24" t="s">
         <v>18</v>
       </c>
-      <c r="E13">
+      <c r="E24">
         <f>10/16*100</f>
         <v>62.5</v>
       </c>
     </row>
-    <row r="14" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B14" t="s">
+    <row r="25" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B25" t="s">
         <v>19</v>
       </c>
-      <c r="E14">
+      <c r="E25">
         <f>9/16*100</f>
         <v>56.25</v>
       </c>
     </row>
-    <row r="15" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="D26">
+        <v>1098</v>
+      </c>
+      <c r="E26">
+        <v>1321.03</v>
+      </c>
+    </row>
+    <row r="27" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="D27">
+        <v>605.55999999999995</v>
+      </c>
+      <c r="E27">
+        <v>547.6</v>
+      </c>
+    </row>
+    <row r="28" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="D28">
+        <v>3073.15</v>
+      </c>
+      <c r="E28">
+        <v>1438.03</v>
+      </c>
+    </row>
+    <row r="29" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="C29">
+        <f>1000-C10</f>
+        <v>312.62</v>
+      </c>
+      <c r="D29">
+        <v>962.08</v>
+      </c>
+      <c r="E29">
+        <v>999.26</v>
+      </c>
+    </row>
+    <row r="30" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="D30">
+        <v>734.93</v>
+      </c>
+      <c r="E30" s="1">
+        <v>1012.34</v>
+      </c>
+    </row>
+    <row r="31" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="D31">
+        <v>553.69000000000005</v>
+      </c>
+      <c r="E31">
+        <v>902.87</v>
+      </c>
+    </row>
+    <row r="32" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="D32">
+        <v>687.38</v>
+      </c>
+      <c r="E32">
+        <v>1277.04</v>
+      </c>
+    </row>
+    <row r="33" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D33">
+        <v>1330.2</v>
+      </c>
+      <c r="E33" s="1">
+        <v>1868.24</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E7C7616-7C6F-424F-B66C-ACF31ECD38F4}">
+  <dimension ref="A3:G33"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5">
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6">
+        <v>-5.1999999999999998E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7">
+        <v>5.2999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9">
+        <v>8.3099999999999993E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10">
+        <v>0.115</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C13" t="s">
+        <v>6</v>
+      </c>
+      <c r="D13" t="s">
+        <v>24</v>
+      </c>
+      <c r="E13" t="s">
+        <v>6</v>
+      </c>
+      <c r="F13" t="s">
+        <v>24</v>
+      </c>
+      <c r="G13" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B14" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C14">
+        <v>2733.16</v>
+      </c>
+      <c r="D14">
+        <v>1935.14</v>
+      </c>
+      <c r="E14">
+        <f>(C14-1000)/1000*100</f>
+        <v>173.31599999999997</v>
+      </c>
+      <c r="F14">
+        <f>(D14-1000)/1000*100</f>
+        <v>93.51400000000001</v>
+      </c>
+      <c r="G14">
+        <f>F14-E14</f>
+        <v>-79.801999999999964</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B15" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C15">
+        <v>2376.8000000000002</v>
+      </c>
       <c r="D15">
-        <v>1098</v>
+        <v>1471.51</v>
       </c>
       <c r="E15">
-        <v>1321.03</v>
+        <f t="shared" ref="E15:E21" si="0">(C15-1000)/1000*100</f>
+        <v>137.68000000000004</v>
+      </c>
+      <c r="F15">
+        <f t="shared" ref="F15:F21" si="1">(D15-1000)/1000*100</f>
+        <v>47.150999999999996</v>
+      </c>
+      <c r="G15">
+        <f t="shared" ref="G15:G21" si="2">F15-E15</f>
+        <v>-90.529000000000039</v>
       </c>
     </row>
-    <row r="16" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B16" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16">
+        <v>1602.07</v>
+      </c>
       <c r="D16">
-        <v>605.55999999999995</v>
+        <v>860.9</v>
       </c>
       <c r="E16">
-        <v>547.6</v>
+        <f t="shared" si="0"/>
+        <v>60.206999999999987</v>
+      </c>
+      <c r="F16">
+        <f t="shared" si="1"/>
+        <v>-13.910000000000004</v>
+      </c>
+      <c r="G16">
+        <f t="shared" si="2"/>
+        <v>-74.11699999999999</v>
       </c>
     </row>
-    <row r="17" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B17" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C17">
+        <v>1110.58</v>
+      </c>
       <c r="D17">
-        <v>3073.15</v>
+        <v>1006.45</v>
       </c>
       <c r="E17">
-        <v>1438.03</v>
+        <f t="shared" si="0"/>
+        <v>11.057999999999993</v>
+      </c>
+      <c r="F17">
+        <f t="shared" si="1"/>
+        <v>0.64500000000000446</v>
+      </c>
+      <c r="G17">
+        <f t="shared" si="2"/>
+        <v>-10.412999999999988</v>
       </c>
     </row>
-    <row r="18" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B18" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C18">
+        <v>3388.76</v>
+      </c>
       <c r="D18">
-        <v>962.08</v>
+        <v>1233.3399999999999</v>
       </c>
       <c r="E18">
-        <v>999.26</v>
+        <f t="shared" si="0"/>
+        <v>238.87600000000003</v>
+      </c>
+      <c r="F18">
+        <f t="shared" si="1"/>
+        <v>23.333999999999993</v>
+      </c>
+      <c r="G18">
+        <f t="shared" si="2"/>
+        <v>-215.54200000000003</v>
       </c>
     </row>
-    <row r="19" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B19" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C19">
+        <v>533.70000000000005</v>
+      </c>
       <c r="D19">
-        <v>734.93</v>
-      </c>
-      <c r="E19" s="1">
-        <v>1012.34</v>
+        <v>1409.45</v>
+      </c>
+      <c r="E19">
+        <f t="shared" si="0"/>
+        <v>-46.629999999999995</v>
+      </c>
+      <c r="F19">
+        <f t="shared" si="1"/>
+        <v>40.945</v>
+      </c>
+      <c r="G19">
+        <f t="shared" si="2"/>
+        <v>87.574999999999989</v>
       </c>
     </row>
-    <row r="20" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B20" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C20">
+        <v>1345.6</v>
+      </c>
       <c r="D20">
-        <v>553.69000000000005</v>
+        <v>1636.3</v>
       </c>
       <c r="E20">
-        <v>902.87</v>
+        <f t="shared" si="0"/>
+        <v>34.559999999999988</v>
+      </c>
+      <c r="F20">
+        <f t="shared" si="1"/>
+        <v>63.629999999999995</v>
+      </c>
+      <c r="G20">
+        <f t="shared" si="2"/>
+        <v>29.070000000000007</v>
       </c>
     </row>
-    <row r="21" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B21" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C21">
+        <v>1828.72</v>
+      </c>
       <c r="D21">
-        <v>687.38</v>
+        <v>1700.13</v>
       </c>
       <c r="E21">
-        <v>1277.04</v>
+        <f t="shared" si="0"/>
+        <v>82.872</v>
+      </c>
+      <c r="F21">
+        <f t="shared" si="1"/>
+        <v>70.013000000000019</v>
+      </c>
+      <c r="G21">
+        <f t="shared" si="2"/>
+        <v>-12.85899999999998</v>
       </c>
     </row>
-    <row r="22" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D22">
-        <v>1330.2</v>
-      </c>
-      <c r="E22" s="1">
-        <v>1868.24</v>
+    <row r="26" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="C26">
+        <v>2733.16</v>
+      </c>
+      <c r="D26">
+        <v>1935.14</v>
+      </c>
+    </row>
+    <row r="27" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="C27">
+        <v>2376.8000000000002</v>
+      </c>
+      <c r="D27">
+        <v>1471.51</v>
+      </c>
+    </row>
+    <row r="28" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="C28">
+        <v>1602.07</v>
+      </c>
+      <c r="D28">
+        <v>860.9</v>
+      </c>
+    </row>
+    <row r="29" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="C29">
+        <v>1110.58</v>
+      </c>
+      <c r="D29">
+        <v>1006.45</v>
+      </c>
+    </row>
+    <row r="30" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="C30">
+        <v>3388.76</v>
+      </c>
+      <c r="D30">
+        <v>1233.3399999999999</v>
+      </c>
+    </row>
+    <row r="31" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="C31">
+        <v>533.70000000000005</v>
+      </c>
+      <c r="D31">
+        <v>1409.45</v>
+      </c>
+    </row>
+    <row r="32" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="C32">
+        <v>1345.6</v>
+      </c>
+      <c r="D32">
+        <v>1636.3</v>
+      </c>
+    </row>
+    <row r="33" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C33">
+        <v>1828.72</v>
+      </c>
+      <c r="D33">
+        <v>1700.13</v>
       </c>
     </row>
   </sheetData>
@@ -8492,255 +13624,463 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E7C7616-7C6F-424F-B66C-ACF31ECD38F4}">
-  <dimension ref="A3:D33"/>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D23A8EBE-C91F-8249-A93C-015FFF3808D3}">
+  <dimension ref="A3:H19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="L15" sqref="L15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="24.6640625" customWidth="1"/>
+    <col min="4" max="4" width="14.6640625" customWidth="1"/>
+    <col min="5" max="5" width="14" customWidth="1"/>
+    <col min="6" max="6" width="15" customWidth="1"/>
+    <col min="7" max="7" width="19.6640625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="B3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G3" t="s">
+        <v>34</v>
+      </c>
+      <c r="H3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4">
+        <v>-10.859000000000004</v>
+      </c>
+      <c r="C4">
         <v>0</v>
       </c>
-      <c r="C3" t="s">
-        <v>22</v>
+      <c r="D4">
+        <v>12.867000000000004</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>6.0099999999999909</v>
+      </c>
+      <c r="G4">
+        <v>0.37000000000000277</v>
+      </c>
+      <c r="H4">
+        <v>22.303000000000001</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4">
-        <v>0.03</v>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5">
+        <v>55.952999999999982</v>
+      </c>
+      <c r="C5">
+        <v>0.11200000000000188</v>
+      </c>
+      <c r="D5">
+        <v>-0.27699999999999392</v>
+      </c>
+      <c r="E5">
+        <v>-4.0219999999999914</v>
+      </c>
+      <c r="F5" s="1">
+        <v>-6.6399999999999935</v>
+      </c>
+      <c r="G5" s="1">
+        <v>4.4680000000000106</v>
+      </c>
+      <c r="H5">
+        <v>-5.7959999999999852</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C5">
-        <v>0.21</v>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6">
+        <v>-156.488</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>34.778000000000006</v>
+      </c>
+      <c r="E6">
+        <v>-1.9000000000000021</v>
+      </c>
+      <c r="F6">
+        <v>-18.927000000000003</v>
+      </c>
+      <c r="G6">
+        <v>269.25300000000004</v>
+      </c>
+      <c r="H6">
+        <v>-163.512</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6">
-        <v>-5.1999999999999998E-2</v>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7">
+        <v>11.673999999999989</v>
+      </c>
+      <c r="C7">
+        <v>-33.020000000000003</v>
+      </c>
+      <c r="D7">
+        <v>-13.094000000000005</v>
+      </c>
+      <c r="E7">
+        <v>12.608999999999995</v>
+      </c>
+      <c r="F7" s="1">
+        <v>55.629999999999988</v>
+      </c>
+      <c r="G7" s="1">
+        <v>3.7179999999999955</v>
+      </c>
+      <c r="H7">
+        <v>3.7179999999999955</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7">
-        <v>5.2999999999999999E-2</v>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>78.570999999999998</v>
+      </c>
+      <c r="C8">
+        <v>26</v>
+      </c>
+      <c r="D8">
+        <v>11.089999999999996</v>
+      </c>
+      <c r="E8">
+        <v>6.2039999999999935</v>
+      </c>
+      <c r="F8">
+        <v>-3.5650000000000119</v>
+      </c>
+      <c r="G8">
+        <v>-17.744000000000003</v>
+      </c>
+      <c r="H8">
+        <v>27.741000000000003</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C8">
-        <v>2E-3</v>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9">
+        <v>0.98700000000000188</v>
+      </c>
+      <c r="C9">
+        <v>-181.58199999999999</v>
+      </c>
+      <c r="D9">
+        <v>321.82499999999999</v>
+      </c>
+      <c r="E9">
+        <v>46.171000000000021</v>
+      </c>
+      <c r="F9" s="2">
+        <v>101.1995</v>
+      </c>
+      <c r="G9" s="1">
+        <v>8.090999999999994</v>
+      </c>
+      <c r="H9">
+        <v>34.917999999999992</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B9" t="s">
-        <v>9</v>
-      </c>
-      <c r="C9">
-        <v>8.3099999999999993E-2</v>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10">
+        <v>-13.04999999999999</v>
+      </c>
+      <c r="C10">
+        <v>3.7919999999999963</v>
+      </c>
+      <c r="D10">
+        <v>31.774999999999984</v>
+      </c>
+      <c r="E10">
+        <v>-1.1850000000000023</v>
+      </c>
+      <c r="F10">
+        <v>-13.520000000000005</v>
+      </c>
+      <c r="G10">
+        <v>78.289999999999992</v>
+      </c>
+      <c r="H10">
+        <v>58.965999999999994</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B10" t="s">
-        <v>17</v>
-      </c>
-      <c r="C10">
-        <v>0.115</v>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11">
+        <v>-42.048999999999999</v>
+      </c>
+      <c r="C11">
+        <v>78.292000000000002</v>
+      </c>
+      <c r="D11">
+        <v>110.29599999999999</v>
+      </c>
+      <c r="E11">
+        <v>-2.9070000000000036</v>
+      </c>
+      <c r="F11">
+        <v>-25.857000000000006</v>
+      </c>
+      <c r="G11">
+        <v>53.803999999999995</v>
+      </c>
+      <c r="H11">
+        <v>53.803999999999995</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C11">
-        <v>0.3</v>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>25</v>
+      </c>
+      <c r="B12">
+        <v>-30.618000000000006</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>-25.094000000000012</v>
+      </c>
+      <c r="E12">
+        <v>-19.240000000000016</v>
+      </c>
+      <c r="F12">
+        <v>-19.525000000000006</v>
+      </c>
+      <c r="G12">
+        <v>-13.321000000000012</v>
+      </c>
+      <c r="H12">
+        <v>-37.922500000000014</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>23</v>
-      </c>
-      <c r="B13" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B13">
+        <v>5.268999999999993</v>
+      </c>
+      <c r="C13">
+        <v>-0.98600000000000065</v>
+      </c>
+      <c r="D13">
+        <v>19.504999999999995</v>
+      </c>
+      <c r="E13">
+        <v>10.055000000000009</v>
+      </c>
+      <c r="F13">
+        <v>20.779999999999998</v>
+      </c>
+      <c r="G13">
+        <v>5.2870000000000008</v>
+      </c>
+      <c r="H13">
+        <v>18.974000000000004</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>27</v>
+      </c>
+      <c r="B14">
+        <v>6.9539999999999935</v>
+      </c>
+      <c r="C14">
+        <v>-29.88699999999999</v>
+      </c>
+      <c r="D14">
+        <v>8.1750000000000007</v>
+      </c>
+      <c r="E14">
+        <v>-1.0010000000000012</v>
+      </c>
+      <c r="F14">
+        <v>-2.2469999999999821</v>
+      </c>
+      <c r="G14">
+        <v>6.5670000000000108</v>
+      </c>
+      <c r="H14">
+        <v>6.5670000000000108</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>28</v>
+      </c>
+      <c r="B15">
+        <v>-20.885000000000005</v>
+      </c>
+      <c r="C15">
         <v>0</v>
       </c>
-      <c r="C13" t="s">
-        <v>6</v>
-      </c>
-      <c r="D13" t="s">
-        <v>24</v>
+      <c r="D15">
+        <v>-26.979999999999993</v>
+      </c>
+      <c r="E15">
+        <v>-16.653999999999996</v>
+      </c>
+      <c r="F15">
+        <v>-7.5869999999999891</v>
+      </c>
+      <c r="G15">
+        <v>-14.85</v>
+      </c>
+      <c r="H15">
+        <v>-26.9</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B14" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C14">
-        <v>2733.16</v>
-      </c>
-      <c r="D14">
-        <v>1935.14</v>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>29</v>
+      </c>
+      <c r="B16">
+        <v>-3.1569999999999938</v>
+      </c>
+      <c r="C16">
+        <v>7.1249999999999929</v>
+      </c>
+      <c r="D16">
+        <v>4.5749999999999957</v>
+      </c>
+      <c r="E16">
+        <v>-16.457999999999998</v>
+      </c>
+      <c r="F16">
+        <v>-17.147000000000006</v>
+      </c>
+      <c r="G16">
+        <v>-3.2069999999999936</v>
+      </c>
+      <c r="H16">
+        <v>-17.820000000000007</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B15" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C15">
-        <v>2376.8000000000002</v>
-      </c>
-      <c r="D15">
-        <v>1471.51</v>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>30</v>
+      </c>
+      <c r="B17">
+        <v>-12.419000000000004</v>
+      </c>
+      <c r="C17">
+        <v>-43.653999999999996</v>
+      </c>
+      <c r="D17">
+        <v>-17.830999999999996</v>
+      </c>
+      <c r="E17">
+        <v>-17.258999999999993</v>
+      </c>
+      <c r="F17">
+        <v>-33.587999999999987</v>
+      </c>
+      <c r="G17">
+        <v>-34.733999999999995</v>
+      </c>
+      <c r="H17">
+        <v>-34.733999999999995</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B16" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C16">
-        <v>1602.07</v>
-      </c>
-      <c r="D16">
-        <v>860.9</v>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>31</v>
+      </c>
+      <c r="B18">
+        <v>13.520000000000003</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>2.4210000000000065</v>
+      </c>
+      <c r="E18">
+        <v>9.2700000000000067</v>
+      </c>
+      <c r="F18">
+        <v>-5.6600000000000037</v>
+      </c>
+      <c r="G18">
+        <v>-1.1000000000000014</v>
+      </c>
+      <c r="H18">
+        <v>14.810000000000004</v>
       </c>
     </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B17" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C17">
-        <v>1110.58</v>
-      </c>
-      <c r="D17">
-        <v>1006.45</v>
-      </c>
-    </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B18" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C18">
-        <v>3388.76</v>
-      </c>
-      <c r="D18">
-        <v>1233.3399999999999</v>
-      </c>
-    </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B19" s="4" t="s">
-        <v>9</v>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>32</v>
+      </c>
+      <c r="B19">
+        <v>1.6849999999999912</v>
       </c>
       <c r="C19">
-        <v>533.70000000000005</v>
+        <v>-3.4319999999999933</v>
       </c>
       <c r="D19">
-        <v>1409.45</v>
-      </c>
-    </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B20" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C20">
-        <v>1345.6</v>
-      </c>
-      <c r="D20">
-        <v>1636.3</v>
-      </c>
-    </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B21" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C21">
-        <v>1828.72</v>
-      </c>
-      <c r="D21">
-        <v>1700.13</v>
-      </c>
-    </row>
-    <row r="26" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="C26">
-        <v>2733.16</v>
-      </c>
-      <c r="D26">
-        <v>1935.14</v>
-      </c>
-    </row>
-    <row r="27" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="C27">
-        <v>2376.8000000000002</v>
-      </c>
-      <c r="D27">
-        <v>1471.51</v>
-      </c>
-    </row>
-    <row r="28" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="C28">
-        <v>1602.07</v>
-      </c>
-      <c r="D28">
-        <v>860.9</v>
-      </c>
-    </row>
-    <row r="29" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="C29">
-        <v>1110.58</v>
-      </c>
-      <c r="D29">
-        <v>1006.45</v>
-      </c>
-    </row>
-    <row r="30" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="C30">
-        <v>3388.76</v>
-      </c>
-      <c r="D30">
-        <v>1233.3399999999999</v>
-      </c>
-    </row>
-    <row r="31" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="C31">
-        <v>533.70000000000005</v>
-      </c>
-      <c r="D31">
-        <v>1409.45</v>
-      </c>
-    </row>
-    <row r="32" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="C32">
-        <v>1345.6</v>
-      </c>
-      <c r="D32">
-        <v>1636.3</v>
-      </c>
-    </row>
-    <row r="33" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C33">
-        <v>1828.72</v>
-      </c>
-      <c r="D33">
-        <v>1700.13</v>
+        <v>-9.2599999999999909</v>
+      </c>
+      <c r="E19">
+        <v>-18.258999999999993</v>
+      </c>
+      <c r="F19">
+        <v>-11.706999999999994</v>
+      </c>
+      <c r="G19">
+        <v>-16.559999999999992</v>
+      </c>
+      <c r="H19">
+        <v>-16.559999999999992</v>
       </c>
     </row>
   </sheetData>

--- a/TradingThesis/figures/Graphs.xlsx
+++ b/TradingThesis/figures/Graphs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/AlexT/Dropbox/SEN19R/FIRST/algorithmic-trading/TradingThesis/figures/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF784968-3097-3444-9917-82FA6FD39D3F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C73006E6-28D3-D147-9F02-A6FD90A15BFC}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" activeTab="5" xr2:uid="{89AFD1CC-A762-DB4B-A433-05543C80086C}"/>
+    <workbookView xWindow="1880" yWindow="3140" windowWidth="31220" windowHeight="15540" activeTab="5" xr2:uid="{89AFD1CC-A762-DB4B-A433-05543C80086C}"/>
   </bookViews>
   <sheets>
     <sheet name="Deep Learning" sheetId="4" r:id="rId1"/>
@@ -23,50 +23,28 @@
   <definedNames>
     <definedName name="_xlchart.v1.0" hidden="1">'Deep Learning'!$H$4</definedName>
     <definedName name="_xlchart.v1.1" hidden="1">'Deep Learning'!$H$5:$H$20</definedName>
-    <definedName name="_xlchart.v1.10" hidden="1">COMPLEX!$M$2</definedName>
-    <definedName name="_xlchart.v1.11" hidden="1">COMPLEX!$M$3:$M$18</definedName>
-    <definedName name="_xlchart.v1.12" hidden="1">COMPLEX!$N$2</definedName>
-    <definedName name="_xlchart.v1.13" hidden="1">COMPLEX!$N$3:$N$18</definedName>
-    <definedName name="_xlchart.v1.14" hidden="1">COMPLEX!$O$2</definedName>
-    <definedName name="_xlchart.v1.15" hidden="1">COMPLEX!$O$3:$O$18</definedName>
-    <definedName name="_xlchart.v1.16" hidden="1">COMPLEX!$P$2</definedName>
-    <definedName name="_xlchart.v1.17" hidden="1">COMPLEX!$P$3:$P$18</definedName>
-    <definedName name="_xlchart.v1.18" hidden="1">'Box Whiskers'!$B$3</definedName>
-    <definedName name="_xlchart.v1.19" hidden="1">'Box Whiskers'!$B$4:$B$19</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">BASIC!$M$2</definedName>
-    <definedName name="_xlchart.v1.20" hidden="1">'Box Whiskers'!$C$3</definedName>
-    <definedName name="_xlchart.v1.21" hidden="1">'Box Whiskers'!$C$4:$C$19</definedName>
-    <definedName name="_xlchart.v1.22" hidden="1">'Box Whiskers'!$D$3</definedName>
-    <definedName name="_xlchart.v1.23" hidden="1">'Box Whiskers'!$D$4:$D$19</definedName>
-    <definedName name="_xlchart.v1.24" hidden="1">'Box Whiskers'!$E$3</definedName>
-    <definedName name="_xlchart.v1.25" hidden="1">'Box Whiskers'!$E$4:$E$19</definedName>
-    <definedName name="_xlchart.v1.26" hidden="1">'Box Whiskers'!$F$3</definedName>
-    <definedName name="_xlchart.v1.27" hidden="1">'Box Whiskers'!$F$4:$F$19</definedName>
-    <definedName name="_xlchart.v1.28" hidden="1">'Box Whiskers'!$G$3</definedName>
-    <definedName name="_xlchart.v1.29" hidden="1">'Box Whiskers'!$G$4:$G$19</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">BASIC!$M$3:$M$18</definedName>
-    <definedName name="_xlchart.v1.30" hidden="1">'Box Whiskers'!$H$3</definedName>
-    <definedName name="_xlchart.v1.31" hidden="1">'Box Whiskers'!$H$4:$H$19</definedName>
-    <definedName name="_xlchart.v1.32" hidden="1">'Box Whiskers'!$B$3</definedName>
-    <definedName name="_xlchart.v1.33" hidden="1">'Box Whiskers'!$B$4:$B$19</definedName>
-    <definedName name="_xlchart.v1.34" hidden="1">'Box Whiskers'!$C$3</definedName>
-    <definedName name="_xlchart.v1.35" hidden="1">'Box Whiskers'!$C$4:$C$19</definedName>
-    <definedName name="_xlchart.v1.36" hidden="1">'Box Whiskers'!$D$3</definedName>
-    <definedName name="_xlchart.v1.37" hidden="1">'Box Whiskers'!$D$4:$D$19</definedName>
-    <definedName name="_xlchart.v1.38" hidden="1">'Box Whiskers'!$E$3</definedName>
-    <definedName name="_xlchart.v1.39" hidden="1">'Box Whiskers'!$E$4:$E$19</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">BASIC!$N$2</definedName>
-    <definedName name="_xlchart.v1.40" hidden="1">'Box Whiskers'!$F$3</definedName>
-    <definedName name="_xlchart.v1.41" hidden="1">'Box Whiskers'!$F$4:$F$19</definedName>
-    <definedName name="_xlchart.v1.42" hidden="1">'Box Whiskers'!$G$3</definedName>
-    <definedName name="_xlchart.v1.43" hidden="1">'Box Whiskers'!$G$4:$G$19</definedName>
-    <definedName name="_xlchart.v1.44" hidden="1">'Box Whiskers'!$H$3</definedName>
-    <definedName name="_xlchart.v1.45" hidden="1">'Box Whiskers'!$H$4:$H$19</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">BASIC!$N$3:$N$18</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">BASIC!$O$2</definedName>
-    <definedName name="_xlchart.v1.7" hidden="1">BASIC!$O$3:$O$18</definedName>
-    <definedName name="_xlchart.v1.8" hidden="1">BASIC!$P$2</definedName>
-    <definedName name="_xlchart.v1.9" hidden="1">BASIC!$P$3:$P$18</definedName>
+    <definedName name="_xlchart.v1.10" hidden="1">'Box Whiskers'!$B$3</definedName>
+    <definedName name="_xlchart.v1.11" hidden="1">'Box Whiskers'!$B$4:$B$19</definedName>
+    <definedName name="_xlchart.v1.12" hidden="1">'Box Whiskers'!$C$3</definedName>
+    <definedName name="_xlchart.v1.13" hidden="1">'Box Whiskers'!$C$4:$C$19</definedName>
+    <definedName name="_xlchart.v1.14" hidden="1">'Box Whiskers'!$D$3</definedName>
+    <definedName name="_xlchart.v1.15" hidden="1">'Box Whiskers'!$D$4:$D$19</definedName>
+    <definedName name="_xlchart.v1.16" hidden="1">'Box Whiskers'!$E$3</definedName>
+    <definedName name="_xlchart.v1.17" hidden="1">'Box Whiskers'!$E$4:$E$19</definedName>
+    <definedName name="_xlchart.v1.18" hidden="1">'Box Whiskers'!$F$3</definedName>
+    <definedName name="_xlchart.v1.19" hidden="1">'Box Whiskers'!$F$4:$F$19</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">COMPLEX!$M$2</definedName>
+    <definedName name="_xlchart.v1.20" hidden="1">'Box Whiskers'!$G$3</definedName>
+    <definedName name="_xlchart.v1.21" hidden="1">'Box Whiskers'!$G$4:$G$19</definedName>
+    <definedName name="_xlchart.v1.22" hidden="1">'Box Whiskers'!$H$3</definedName>
+    <definedName name="_xlchart.v1.23" hidden="1">'Box Whiskers'!$H$4:$H$19</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">COMPLEX!$M$3:$M$18</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">COMPLEX!$N$2</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">COMPLEX!$N$3:$N$18</definedName>
+    <definedName name="_xlchart.v1.6" hidden="1">COMPLEX!$O$2</definedName>
+    <definedName name="_xlchart.v1.7" hidden="1">COMPLEX!$O$3:$O$18</definedName>
+    <definedName name="_xlchart.v1.8" hidden="1">COMPLEX!$P$2</definedName>
+    <definedName name="_xlchart.v1.9" hidden="1">COMPLEX!$P$3:$P$18</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -288,67 +266,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US" sz="1800" b="1" i="0" baseline="0">
-                <a:effectLst/>
-              </a:rPr>
-              <a:t>Deep Learning Model Results</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US">
-              <a:effectLst/>
-            </a:endParaRPr>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
       <c:barChart>
@@ -492,12 +410,9 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:sysClr val="windowText" lastClr="000000"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -542,12 +457,9 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
+                      <a:sysClr val="windowText" lastClr="000000"/>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
                     <a:ea typeface="+mn-ea"/>
@@ -556,13 +468,8 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>Percentage</a:t>
+                  <a:t>Percentage difference compared to baseline (%)</a:t>
                 </a:r>
-                <a:r>
-                  <a:rPr lang="en-US" baseline="0"/>
-                  <a:t> difference compared to baseline (%)</a:t>
-                </a:r>
-                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -579,12 +486,9 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
+                    <a:sysClr val="windowText" lastClr="000000"/>
                   </a:solidFill>
                   <a:latin typeface="+mn-lt"/>
                   <a:ea typeface="+mn-ea"/>
@@ -611,12 +515,9 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:sysClr val="windowText" lastClr="000000"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -638,37 +539,6 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -693,7 +563,11 @@
     <a:lstStyle/>
     <a:p>
       <a:pPr>
-        <a:defRPr/>
+        <a:defRPr sz="1400">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:defRPr>
       </a:pPr>
       <a:endParaRPr lang="en-US"/>
     </a:p>
@@ -720,67 +594,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US" sz="1800" b="1" i="0" baseline="0">
-                <a:effectLst/>
-              </a:rPr>
-              <a:t>Simplistic Model Results</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US">
-              <a:effectLst/>
-            </a:endParaRPr>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
       <c:barChart>
@@ -1209,12 +1023,9 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:sysClr val="windowText" lastClr="000000"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -1259,12 +1070,9 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
+                      <a:sysClr val="windowText" lastClr="000000"/>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
                     <a:ea typeface="+mn-ea"/>
@@ -1272,14 +1080,9 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US" sz="900" b="0" i="0" baseline="0">
-                    <a:effectLst/>
-                  </a:rPr>
+                  <a:rPr lang="en-US"/>
                   <a:t>Percentage difference in profit compared to baseline (%)</a:t>
                 </a:r>
-                <a:endParaRPr lang="en-US" sz="900">
-                  <a:effectLst/>
-                </a:endParaRPr>
               </a:p>
             </c:rich>
           </c:tx>
@@ -1296,12 +1099,9 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
+                    <a:sysClr val="windowText" lastClr="000000"/>
                   </a:solidFill>
                   <a:latin typeface="+mn-lt"/>
                   <a:ea typeface="+mn-ea"/>
@@ -1328,12 +1128,9 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:sysClr val="windowText" lastClr="000000"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -1370,12 +1167,9 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
+                <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
@@ -1410,7 +1204,11 @@
     <a:lstStyle/>
     <a:p>
       <a:pPr>
-        <a:defRPr/>
+        <a:defRPr sz="1400">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:defRPr>
       </a:pPr>
       <a:endParaRPr lang="en-US"/>
     </a:p>
@@ -1437,62 +1235,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US" b="1"/>
-              <a:t>Expanded Model Results</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
       <c:barChart>
@@ -1887,7 +1630,7 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:gapWidth val="219"/>
+        <c:gapWidth val="114"/>
         <c:overlap val="-27"/>
         <c:axId val="828066944"/>
         <c:axId val="948505728"/>
@@ -1921,12 +1664,9 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:sysClr val="windowText" lastClr="000000"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -1947,6 +1687,7 @@
         <c:axId val="948505728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:min val="-200"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -1971,12 +1712,9 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
+                      <a:sysClr val="windowText" lastClr="000000"/>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
                     <a:ea typeface="+mn-ea"/>
@@ -1985,15 +1723,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>Percentage</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="en-US" baseline="0"/>
-                  <a:t> difference in profit compared to baseline</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t> (%)</a:t>
+                  <a:t>Percentage difference in profit compared to baseline (%)</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -2011,12 +1741,9 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
+                    <a:sysClr val="windowText" lastClr="000000"/>
                   </a:solidFill>
                   <a:latin typeface="+mn-lt"/>
                   <a:ea typeface="+mn-ea"/>
@@ -2043,12 +1770,9 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:sysClr val="windowText" lastClr="000000"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -2085,12 +1809,9 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
+                <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
@@ -2125,7 +1846,11 @@
     <a:lstStyle/>
     <a:p>
       <a:pPr>
-        <a:defRPr/>
+        <a:defRPr sz="1400">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:defRPr>
       </a:pPr>
       <a:endParaRPr lang="en-US"/>
     </a:p>
@@ -2152,56 +1877,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx2"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>Stacking Model</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx2"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
       <c:barChart>
@@ -2493,9 +2169,9 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx2"/>
+                  <a:sysClr val="windowText" lastClr="000000"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -2540,9 +2216,9 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx2"/>
+                      <a:sysClr val="windowText" lastClr="000000"/>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
                     <a:ea typeface="+mn-ea"/>
@@ -2550,14 +2226,9 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US" sz="900" b="0" i="0" baseline="0">
-                    <a:effectLst/>
-                  </a:rPr>
-                  <a:t>Percentage difference in profit compared to baseline (%)</a:t>
+                  <a:rPr lang="en-US" b="0"/>
+                  <a:t>Difference in profit compared to baseline (%)</a:t>
                 </a:r>
-                <a:endParaRPr lang="en-US" sz="900">
-                  <a:effectLst/>
-                </a:endParaRPr>
               </a:p>
             </c:rich>
           </c:tx>
@@ -2574,9 +2245,9 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
-                    <a:schemeClr val="tx2"/>
+                    <a:sysClr val="windowText" lastClr="000000"/>
                   </a:solidFill>
                   <a:latin typeface="+mn-lt"/>
                   <a:ea typeface="+mn-ea"/>
@@ -2603,9 +2274,9 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx2"/>
+                  <a:sysClr val="windowText" lastClr="000000"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -2642,9 +2313,9 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx2"/>
+                <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
@@ -2679,7 +2350,11 @@
     <a:lstStyle/>
     <a:p>
       <a:pPr>
-        <a:defRPr/>
+        <a:defRPr sz="1400">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:defRPr>
       </a:pPr>
       <a:endParaRPr lang="en-US"/>
     </a:p>
@@ -2706,62 +2381,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>Statistical Correlation</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
       <c:barChart>
@@ -2905,12 +2525,9 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:sysClr val="windowText" lastClr="000000"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -2955,12 +2572,9 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
+                      <a:sysClr val="windowText" lastClr="000000"/>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
                     <a:ea typeface="+mn-ea"/>
@@ -2987,12 +2601,9 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
+                    <a:sysClr val="windowText" lastClr="000000"/>
                   </a:solidFill>
                   <a:latin typeface="+mn-lt"/>
                   <a:ea typeface="+mn-ea"/>
@@ -3019,12 +2630,9 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:sysClr val="windowText" lastClr="000000"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -3070,7 +2678,11 @@
     <a:lstStyle/>
     <a:p>
       <a:pPr>
-        <a:defRPr/>
+        <a:defRPr sz="1400">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:defRPr>
       </a:pPr>
       <a:endParaRPr lang="en-US"/>
     </a:p>
@@ -3097,62 +2709,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US" b="1"/>
-              <a:t>Naive Strategy</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
       <c:barChart>
@@ -3296,12 +2853,9 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:sysClr val="windowText" lastClr="000000"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -3346,12 +2900,9 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
+                      <a:sysClr val="windowText" lastClr="000000"/>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
                     <a:ea typeface="+mn-ea"/>
@@ -3360,13 +2911,8 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>Percentage</a:t>
+                  <a:t>Difference of profit compared to baseline (%)</a:t>
                 </a:r>
-                <a:r>
-                  <a:rPr lang="en-US" baseline="0"/>
-                  <a:t> different of profit compared to baseline (%)</a:t>
-                </a:r>
-                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -3383,12 +2929,9 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
+                    <a:sysClr val="windowText" lastClr="000000"/>
                   </a:solidFill>
                   <a:latin typeface="+mn-lt"/>
                   <a:ea typeface="+mn-ea"/>
@@ -3415,12 +2958,9 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:sysClr val="windowText" lastClr="000000"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -3442,37 +2982,6 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -3497,7 +3006,11 @@
     <a:lstStyle/>
     <a:p>
       <a:pPr>
-        <a:defRPr/>
+        <a:defRPr sz="1400">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:defRPr>
       </a:pPr>
       <a:endParaRPr lang="en-US"/>
     </a:p>
@@ -3603,10 +3116,9 @@
     </cx:data>
   </cx:chartData>
   <cx:chart>
-    <cx:title pos="t" align="ctr" overlay="0"/>
     <cx:plotArea>
       <cx:plotAreaRegion>
-        <cx:series layoutId="boxWhisker" uniqueId="{A8CD7D98-9723-6644-ABE7-5FC6912F477C}">
+        <cx:series layoutId="boxWhisker" uniqueId="{C755C67B-0711-904E-A195-3A9B36BE0461}">
           <cx:tx>
             <cx:txData>
               <cx:f>_xlchart.v1.2</cx:f>
@@ -3619,7 +3131,7 @@
             <cx:statistics quartileMethod="exclusive"/>
           </cx:layoutPr>
         </cx:series>
-        <cx:series layoutId="boxWhisker" uniqueId="{4E8E88BD-0D06-8547-AB45-6479FDF6A8F7}">
+        <cx:series layoutId="boxWhisker" uniqueId="{2CFCE005-C663-AB4F-AD9C-3C14A69C8646}">
           <cx:tx>
             <cx:txData>
               <cx:f>_xlchart.v1.4</cx:f>
@@ -3632,7 +3144,7 @@
             <cx:statistics quartileMethod="exclusive"/>
           </cx:layoutPr>
         </cx:series>
-        <cx:series layoutId="boxWhisker" uniqueId="{DFF0B301-8918-874A-8F3E-5B320DE999D2}">
+        <cx:series layoutId="boxWhisker" uniqueId="{46F179CD-0286-AB45-AAB8-822EC8D454C8}">
           <cx:tx>
             <cx:txData>
               <cx:f>_xlchart.v1.6</cx:f>
@@ -3645,7 +3157,7 @@
             <cx:statistics quartileMethod="exclusive"/>
           </cx:layoutPr>
         </cx:series>
-        <cx:series layoutId="boxWhisker" uniqueId="{CED97C88-589E-B94B-A935-0E85F0489FD5}">
+        <cx:series layoutId="boxWhisker" uniqueId="{CED7934A-F7D7-4842-BA29-AA2321CDF511}">
           <cx:tx>
             <cx:txData>
               <cx:f>_xlchart.v1.8</cx:f>
@@ -3698,244 +3210,148 @@
         <cx:f>_xlchart.v1.17</cx:f>
       </cx:numDim>
     </cx:data>
-  </cx:chartData>
-  <cx:chart>
-    <cx:plotArea>
-      <cx:plotAreaRegion>
-        <cx:series layoutId="boxWhisker" uniqueId="{C755C67B-0711-904E-A195-3A9B36BE0461}">
-          <cx:tx>
-            <cx:txData>
-              <cx:f>_xlchart.v1.10</cx:f>
-              <cx:v>MLP </cx:v>
-            </cx:txData>
-          </cx:tx>
-          <cx:dataId val="0"/>
-          <cx:layoutPr>
-            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
-            <cx:statistics quartileMethod="exclusive"/>
-          </cx:layoutPr>
-        </cx:series>
-        <cx:series layoutId="boxWhisker" uniqueId="{2CFCE005-C663-AB4F-AD9C-3C14A69C8646}">
-          <cx:tx>
-            <cx:txData>
-              <cx:f>_xlchart.v1.12</cx:f>
-              <cx:v>Decision Tree</cx:v>
-            </cx:txData>
-          </cx:tx>
-          <cx:dataId val="1"/>
-          <cx:layoutPr>
-            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
-            <cx:statistics quartileMethod="exclusive"/>
-          </cx:layoutPr>
-        </cx:series>
-        <cx:series layoutId="boxWhisker" uniqueId="{46F179CD-0286-AB45-AAB8-822EC8D454C8}">
-          <cx:tx>
-            <cx:txData>
-              <cx:f>_xlchart.v1.14</cx:f>
-              <cx:v>Kneighbors</cx:v>
-            </cx:txData>
-          </cx:tx>
-          <cx:dataId val="2"/>
-          <cx:layoutPr>
-            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
-            <cx:statistics quartileMethod="exclusive"/>
-          </cx:layoutPr>
-        </cx:series>
-        <cx:series layoutId="boxWhisker" uniqueId="{CED7934A-F7D7-4842-BA29-AA2321CDF511}">
-          <cx:tx>
-            <cx:txData>
-              <cx:f>_xlchart.v1.16</cx:f>
-              <cx:v>Random Forest Regressor</cx:v>
-            </cx:txData>
-          </cx:tx>
-          <cx:dataId val="3"/>
-          <cx:layoutPr>
-            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
-            <cx:statistics quartileMethod="exclusive"/>
-          </cx:layoutPr>
-        </cx:series>
-      </cx:plotAreaRegion>
-      <cx:axis id="0">
-        <cx:catScaling gapWidth="1.5"/>
-        <cx:tickLabels/>
-      </cx:axis>
-      <cx:axis id="1">
-        <cx:valScaling/>
-        <cx:majorGridlines/>
-        <cx:majorTickMarks type="out"/>
-        <cx:tickLabels/>
-      </cx:axis>
-    </cx:plotArea>
-    <cx:legend pos="r" align="ctr" overlay="0"/>
-  </cx:chart>
-</cx:chartSpace>
-</file>
-
-<file path=xl/charts/chartEx4.xml><?xml version="1.0" encoding="utf-8"?>
-<cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
-  <cx:chartData>
-    <cx:data id="0">
-      <cx:numDim type="val">
-        <cx:f>_xlchart.v1.33</cx:f>
-      </cx:numDim>
-    </cx:data>
-    <cx:data id="1">
-      <cx:numDim type="val">
-        <cx:f>_xlchart.v1.35</cx:f>
-      </cx:numDim>
-    </cx:data>
-    <cx:data id="2">
-      <cx:numDim type="val">
-        <cx:f>_xlchart.v1.37</cx:f>
-      </cx:numDim>
-    </cx:data>
-    <cx:data id="3">
-      <cx:numDim type="val">
-        <cx:f>_xlchart.v1.39</cx:f>
-      </cx:numDim>
-    </cx:data>
     <cx:data id="4">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.41</cx:f>
+        <cx:f>_xlchart.v1.19</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="5">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.43</cx:f>
+        <cx:f>_xlchart.v1.21</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="6">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.45</cx:f>
+        <cx:f>_xlchart.v1.23</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
   <cx:chart>
-    <cx:title pos="t" align="ctr" overlay="0">
-      <cx:tx>
-        <cx:txData>
-          <cx:v>Twitter Sentiment All Stocks and Strategies</cx:v>
-        </cx:txData>
-      </cx:tx>
-      <cx:txPr>
-        <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr" rtl="0">
-            <a:defRPr/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:sysClr>
-              </a:solidFill>
-              <a:latin typeface="Calibri" panose="020F0502020204030204"/>
-            </a:rPr>
-            <a:t>Twitter Sentiment All Stocks and Strategies</a:t>
-          </a:r>
-        </a:p>
-      </cx:txPr>
-    </cx:title>
     <cx:plotArea>
       <cx:plotAreaRegion>
         <cx:series layoutId="boxWhisker" uniqueId="{BB969C1D-286F-734D-B86F-A83F8F0D36F3}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.32</cx:f>
+              <cx:f>_xlchart.v1.10</cx:f>
               <cx:v>Deep Learning</cx:v>
             </cx:txData>
           </cx:tx>
           <cx:dataId val="0"/>
           <cx:layoutPr>
+            <cx:visibility nonoutliers="0"/>
             <cx:statistics quartileMethod="exclusive"/>
           </cx:layoutPr>
         </cx:series>
         <cx:series layoutId="boxWhisker" uniqueId="{3C810FD7-E6F9-C745-B523-C63184A1A6D3}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.34</cx:f>
+              <cx:f>_xlchart.v1.12</cx:f>
               <cx:v>MLP </cx:v>
             </cx:txData>
           </cx:tx>
           <cx:dataId val="1"/>
           <cx:layoutPr>
+            <cx:visibility nonoutliers="0"/>
             <cx:statistics quartileMethod="exclusive"/>
           </cx:layoutPr>
         </cx:series>
         <cx:series layoutId="boxWhisker" uniqueId="{E26BB306-F060-9D4D-9228-9978D1C87D1D}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.36</cx:f>
+              <cx:f>_xlchart.v1.14</cx:f>
               <cx:v>Decision Tree</cx:v>
             </cx:txData>
           </cx:tx>
           <cx:dataId val="2"/>
           <cx:layoutPr>
+            <cx:visibility nonoutliers="0"/>
             <cx:statistics quartileMethod="exclusive"/>
           </cx:layoutPr>
         </cx:series>
         <cx:series layoutId="boxWhisker" uniqueId="{B8B0E4E8-F7CD-9B40-99A0-7AB82024FB7E}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.38</cx:f>
+              <cx:f>_xlchart.v1.16</cx:f>
               <cx:v>Kneighbors</cx:v>
             </cx:txData>
           </cx:tx>
           <cx:dataId val="3"/>
           <cx:layoutPr>
+            <cx:visibility nonoutliers="0"/>
             <cx:statistics quartileMethod="exclusive"/>
           </cx:layoutPr>
         </cx:series>
         <cx:series layoutId="boxWhisker" uniqueId="{D5915736-4504-A84F-A429-C9459CBA45B4}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.40</cx:f>
+              <cx:f>_xlchart.v1.18</cx:f>
               <cx:v>Random Forest Regressor</cx:v>
             </cx:txData>
           </cx:tx>
           <cx:dataId val="4"/>
           <cx:layoutPr>
+            <cx:visibility nonoutliers="0"/>
             <cx:statistics quartileMethod="exclusive"/>
           </cx:layoutPr>
         </cx:series>
         <cx:series layoutId="boxWhisker" uniqueId="{1A79CA4F-C67E-EC43-BB1C-F914597901F2}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.42</cx:f>
+              <cx:f>_xlchart.v1.20</cx:f>
               <cx:v>Stacking - Leniant</cx:v>
             </cx:txData>
           </cx:tx>
           <cx:dataId val="5"/>
           <cx:layoutPr>
+            <cx:visibility nonoutliers="0"/>
             <cx:statistics quartileMethod="exclusive"/>
           </cx:layoutPr>
         </cx:series>
         <cx:series layoutId="boxWhisker" uniqueId="{FBECB291-9009-FC41-9082-552A1DA5D815}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.44</cx:f>
+              <cx:f>_xlchart.v1.22</cx:f>
               <cx:v>Stacking - Conservative</cx:v>
             </cx:txData>
           </cx:tx>
           <cx:dataId val="6"/>
           <cx:layoutPr>
+            <cx:visibility nonoutliers="0"/>
             <cx:statistics quartileMethod="exclusive"/>
           </cx:layoutPr>
         </cx:series>
       </cx:plotAreaRegion>
       <cx:axis id="0" hidden="1">
-        <cx:catScaling gapWidth="1.5"/>
+        <cx:catScaling gapWidth="0.100000001"/>
         <cx:tickLabels/>
+        <cx:txPr>
+          <a:bodyPr vertOverflow="overflow" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr" rtl="0">
+              <a:defRPr sz="1400" b="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+                <a:ea typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+                <a:cs typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US" sz="1400">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </cx:txPr>
       </cx:axis>
       <cx:axis id="1">
         <cx:valScaling max="300" min="-300"/>
         <cx:title>
           <cx:tx>
             <cx:txData>
-              <cx:v>Percentage difference of strategy and baseline perfromance (%)</cx:v>
+              <cx:v>Difference of strategy and baseline perfromance (%)</cx:v>
             </cx:txData>
           </cx:tx>
           <cx:txPr>
@@ -3943,19 +3359,20 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="ctr" rtl="0">
-                <a:defRPr/>
+                <a:defRPr sz="1400">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                </a:defRPr>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
-                    <a:sysClr val="windowText" lastClr="000000">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:sysClr>
+                    <a:sysClr val="windowText" lastClr="000000"/>
                   </a:solidFill>
                   <a:latin typeface="Calibri" panose="020F0502020204030204"/>
                 </a:rPr>
-                <a:t>Percentage difference of strategy and baseline perfromance (%)</a:t>
+                <a:t>Difference of strategy and baseline perfromance (%)</a:t>
               </a:r>
             </a:p>
           </cx:txPr>
@@ -3963,54 +3380,57 @@
         <cx:majorGridlines/>
         <cx:majorTickMarks type="out"/>
         <cx:tickLabels/>
+        <cx:txPr>
+          <a:bodyPr vertOverflow="overflow" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr" rtl="0">
+              <a:defRPr sz="1400" b="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+                <a:ea typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+                <a:cs typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US" sz="1400">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </cx:txPr>
       </cx:axis>
     </cx:plotArea>
-    <cx:legend pos="r" align="ctr" overlay="0"/>
+    <cx:legend pos="r" align="ctr" overlay="0">
+      <cx:txPr>
+        <a:bodyPr vertOverflow="overflow" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr" rtl="0">
+            <a:defRPr sz="1200" b="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+              <a:ea typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US" sz="1200">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </cx:txPr>
+    </cx:legend>
   </cx:chart>
 </cx:chartSpace>
 </file>
 
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/colors10.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -4873,7 +4293,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style10.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="406">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -5388,7 +4808,1013 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="406">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -5903,7 +6329,476 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="207">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk2">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="31750" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700">
+        <a:solidFill>
+          <a:schemeClr val="lt2"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -6406,7 +7301,510 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style9.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="406">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -6917,2499 +8315,6 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="406">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat">
-        <a:solidFill>
-          <a:srgbClr val="D9D9D9"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDash"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="207">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
-    </cs:fontRef>
-    <cs:defRPr sz="900" b="1" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx2">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx2">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk2">
-        <a:lumMod val="75000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="3">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="2"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="3">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="2"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="3"/>
-    <cs:effectRef idx="2"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="31750" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="3">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="2"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="12700">
-        <a:solidFill>
-          <a:schemeClr val="lt2"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="3"/>
-    <cs:effectRef idx="2"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx2">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx2">
-            <a:lumMod val="60000"/>
-            <a:lumOff val="40000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:prstDash val="dash"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx2">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
-    </cs:fontRef>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx2">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="tx2">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx2">
-            <a:lumMod val="60000"/>
-            <a:lumOff val="40000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:prstDash val="dash"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx2">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx2">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx2">
-            <a:lumMod val="60000"/>
-            <a:lumOff val="40000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:prstDash val="dash"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
-    </cs:fontRef>
-    <cs:defRPr sz="1600" b="1" kern="1200"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDash"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
-    </cs:fontRef>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/charts/style9.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
   </cs:wall>
 </cs:chartStyle>
 </file>
@@ -9571,84 +8476,6 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>444500</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>165100</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>139700</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>172720</xdr:rowOff>
-    </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
-        <xdr:graphicFrame macro="">
-          <xdr:nvGraphicFramePr>
-            <xdr:cNvPr id="3" name="Chart 2">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A28A0A9F-6FDA-3041-BD41-74D9D185A280}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvGraphicFramePr/>
-          </xdr:nvGraphicFramePr>
-          <xdr:xfrm>
-            <a:off x="0" y="0"/>
-            <a:ext cx="0" cy="0"/>
-          </xdr:xfrm>
-          <a:graphic>
-            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2014/chartex">
-              <cx:chart xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
-            </a:graphicData>
-          </a:graphic>
-        </xdr:graphicFrame>
-      </mc:Choice>
-      <mc:Fallback>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="0" name=""/>
-            <xdr:cNvSpPr>
-              <a:spLocks noTextEdit="1"/>
-            </xdr:cNvSpPr>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="1270000" y="4635500"/>
-              <a:ext cx="7124700" cy="4274820"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:solidFill>
-              <a:prstClr val="white"/>
-            </a:solidFill>
-            <a:ln w="1">
-              <a:solidFill>
-                <a:prstClr val="green"/>
-              </a:solidFill>
-            </a:ln>
-          </xdr:spPr>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:r>
-                <a:rPr lang="en-US" sz="1100"/>
-                <a:t>This chart isn't available in your version of Excel.
-Editing this shape or saving this workbook into a different file format will permanently break the chart.</a:t>
-              </a:r>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -9656,16 +8483,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>139699</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>177799</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>609599</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>152399</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>635000</xdr:colOff>
-      <xdr:row>53</xdr:row>
-      <xdr:rowOff>144780</xdr:rowOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>279400</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>119380</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -9692,16 +8519,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>596900</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>165100</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>736600</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>121920</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>139700</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>71120</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
@@ -9737,7 +8564,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="5549900" y="4025900"/>
+              <a:off x="0" y="3365500"/>
               <a:ext cx="8394700" cy="5036820"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -9893,16 +8720,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>774700</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>25400</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>249767</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>25400</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
@@ -9938,8 +8765,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="1600200" y="1651000"/>
-              <a:ext cx="9482667" cy="5689600"/>
+              <a:off x="9448800" y="342900"/>
+              <a:ext cx="7391400" cy="5689600"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -10272,7 +9099,7 @@
   <dimension ref="C4:H20"/>
   <sheetViews>
     <sheetView topLeftCell="B2" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13:C20"/>
+      <selection activeCell="S29" sqref="S29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -10675,8 +9502,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7FD5C0D-1C6A-1642-B57F-BC4720855C29}">
   <dimension ref="A1:P18"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="F39" sqref="F39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -11613,8 +10440,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F749681-0C13-AA4C-A5FA-DC14F5A103AB}">
   <dimension ref="A1:P21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11:C18"/>
+    <sheetView topLeftCell="E24" workbookViewId="0">
+      <selection activeCell="J49" sqref="J49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -12590,8 +11417,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D40C461D-7357-B74D-B754-42BAF95E215B}">
   <dimension ref="B3:J33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I3" sqref="I3:J19"/>
+    <sheetView topLeftCell="E2" workbookViewId="0">
+      <selection activeCell="L31" sqref="L31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -13266,8 +12093,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E7C7616-7C6F-424F-B66C-ACF31ECD38F4}">
   <dimension ref="A3:G33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView topLeftCell="B2" workbookViewId="0">
+      <selection activeCell="Q28" sqref="Q28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -13628,8 +12455,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D23A8EBE-C91F-8249-A93C-015FFF3808D3}">
   <dimension ref="A3:H19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L15" sqref="L15"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="S22" sqref="S22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
